--- a/doc/super-duper-display-image.xlsx
+++ b/doc/super-duper-display-image.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="top page" sheetId="2" r:id="rId1"/>
-    <sheet name="ascii" sheetId="4" r:id="rId2"/>
-    <sheet name="io port" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="internet screen" sheetId="3" r:id="rId2"/>
+    <sheet name="game screen" sheetId="6" r:id="rId3"/>
+    <sheet name="shell screen" sheetId="8" r:id="rId4"/>
+    <sheet name="ascii" sheetId="4" r:id="rId5"/>
+    <sheet name="io port" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="254">
   <si>
     <t>文</t>
   </si>
@@ -773,6 +775,24 @@
   </si>
   <si>
     <t>(W)VRAMへ書き込むデータ</t>
+  </si>
+  <si>
+    <t>&lt;&lt; hilight the selected.</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>sft</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>&gt; xxxxxxx</t>
+  </si>
+  <si>
+    <t>ent</t>
   </si>
 </sst>
 </file>
@@ -916,7 +936,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1100,6 +1120,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1107,7 +1179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1259,17 +1331,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1465,6 +1563,1599 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="4953000"/>
+          <a:ext cx="1362075" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="4695825"/>
+          <a:ext cx="1362075" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Command</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; Internet</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Game</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Shell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="190500"/>
+          <a:ext cx="4610100" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="333375"/>
+          <a:ext cx="1362075" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Internet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; Bookmark</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; Search</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; Direct</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; History</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="333375"/>
+          <a:ext cx="1362075" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Bookmark</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; MSN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ABC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>&gt; CNN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>&gt; BBC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1714500"/>
+          <a:ext cx="1095375" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28659"/>
+            <a:gd name="adj2" fmla="val -79167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>main</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> command</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="447675"/>
+          <a:ext cx="1943100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -75616"/>
+            <a:gd name="adj2" fmla="val -4167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sub command</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>bookmar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>history list</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>24492</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1719942" y="2835728"/>
+          <a:ext cx="263979" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="4000500"/>
+          <a:ext cx="1095375" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28659"/>
+            <a:gd name="adj2" fmla="val -79167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>text command</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>search, direct</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="190500"/>
+          <a:ext cx="4610100" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="333375"/>
+          <a:ext cx="1362075" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Game</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; SMB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; Packman</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; Donkey Kong</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; Cancel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="333375"/>
+          <a:ext cx="1362075" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SMB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Super</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Mario Brothers. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1714500"/>
+          <a:ext cx="1095375" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28659"/>
+            <a:gd name="adj2" fmla="val -79167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>main</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> command</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="447675"/>
+          <a:ext cx="1943100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -75616"/>
+            <a:gd name="adj2" fmla="val -4167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Description and icon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2257425" y="1057275"/>
+          <a:ext cx="428625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="2476500"/>
+          <a:ext cx="3286125" cy="1142999"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SMB is selected.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Are you ready?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>To return to this page, press reset button.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="2667000"/>
+          <a:ext cx="581025" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="2667000"/>
+          <a:ext cx="581025" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="190500"/>
+          <a:ext cx="4610100" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>24492</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1729467" y="2835728"/>
+          <a:ext cx="266700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="4000500"/>
+          <a:ext cx="1095375" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28659"/>
+            <a:gd name="adj2" fmla="val -79167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>text command</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>search, direct</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="381000"/>
+          <a:ext cx="3505200" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4167"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; ls</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>doc/ linux/ rom/ tmp/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="2857500"/>
+          <a:ext cx="581025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>goto top</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1737,14 +3428,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ20" sqref="AQ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="27" spans="16:16">
+      <c r="P27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1752,10 +3449,526 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C14:R20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="14" spans="3:18">
+      <c r="C14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="56">
+        <v>1</v>
+      </c>
+      <c r="G16" s="56">
+        <v>2</v>
+      </c>
+      <c r="H16" s="56">
+        <v>3</v>
+      </c>
+      <c r="I16" s="56">
+        <v>4</v>
+      </c>
+      <c r="J16" s="56">
+        <v>5</v>
+      </c>
+      <c r="K16" s="56">
+        <v>6</v>
+      </c>
+      <c r="L16" s="56">
+        <v>7</v>
+      </c>
+      <c r="M16" s="56">
+        <v>8</v>
+      </c>
+      <c r="N16" s="56">
+        <v>9</v>
+      </c>
+      <c r="O16" s="56">
+        <v>0</v>
+      </c>
+      <c r="P16" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="R16" s="55"/>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="N17" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="R17" s="55"/>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="R18" s="58"/>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="C19" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="55"/>
+    </row>
+    <row r="20" spans="3:18">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="Q18:R18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C14:Q20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="14" spans="5:17" s="61" customFormat="1"/>
+    <row r="15" spans="5:17" s="61" customFormat="1"/>
+    <row r="16" spans="5:17" s="61" customFormat="1">
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+    </row>
+    <row r="17" spans="3:17" s="61" customFormat="1">
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+    </row>
+    <row r="18" spans="3:17" s="61" customFormat="1">
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="62"/>
+    </row>
+    <row r="19" spans="3:17" s="61" customFormat="1">
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+    </row>
+    <row r="20" spans="3:17" s="61" customFormat="1">
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="I20:K20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C16:R20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="16" spans="3:18">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="56">
+        <v>1</v>
+      </c>
+      <c r="G16" s="56">
+        <v>2</v>
+      </c>
+      <c r="H16" s="56">
+        <v>3</v>
+      </c>
+      <c r="I16" s="56">
+        <v>4</v>
+      </c>
+      <c r="J16" s="56">
+        <v>5</v>
+      </c>
+      <c r="K16" s="56">
+        <v>6</v>
+      </c>
+      <c r="L16" s="56">
+        <v>7</v>
+      </c>
+      <c r="M16" s="56">
+        <v>8</v>
+      </c>
+      <c r="N16" s="56">
+        <v>9</v>
+      </c>
+      <c r="O16" s="56">
+        <v>0</v>
+      </c>
+      <c r="P16" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="R16" s="55"/>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="N17" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="R17" s="55"/>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="R18" s="58"/>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="C19" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="55"/>
+    </row>
+    <row r="20" spans="3:18">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="Q18:R18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15"/>
@@ -3106,7 +5319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C58"/>
   <sheetViews>
@@ -3174,20 +5387,20 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3225,20 +5438,20 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="51" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3246,7 +5459,7 @@
       <c r="A15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="52" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3376,20 +5589,20 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="50" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53" t="s">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="51" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3416,20 +5629,20 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="50" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53" t="s">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="51" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3528,22 +5741,22 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="53" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A48" s="52"/>
-      <c r="B48" s="53" t="s">
+      <c r="A48" s="54"/>
+      <c r="B48" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="54"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" s="47" t="s">
@@ -3567,22 +5780,22 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="53" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="52"/>
+      <c r="C53" s="54"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" s="47" t="s">
@@ -3606,25 +5819,31 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="53" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A58" s="52"/>
-      <c r="B58" s="53" t="s">
+      <c r="A58" s="54"/>
+      <c r="B58" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -3633,26 +5852,8 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/super-duper-display-image.xlsx
+++ b/doc/super-duper-display-image.xlsx
@@ -16,8 +16,9 @@
     <sheet name="internet screen" sheetId="3" r:id="rId2"/>
     <sheet name="game screen" sheetId="6" r:id="rId3"/>
     <sheet name="shell screen" sheetId="8" r:id="rId4"/>
-    <sheet name="ascii" sheetId="4" r:id="rId5"/>
-    <sheet name="io port" sheetId="5" r:id="rId6"/>
+    <sheet name="disp map" sheetId="9" r:id="rId5"/>
+    <sheet name="ascii" sheetId="4" r:id="rId6"/>
+    <sheet name="io port" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -880,7 +881,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -935,8 +936,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1172,6 +1179,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1179,7 +1266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1337,23 +1424,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1366,8 +1438,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3165,6 +3282,189 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>150358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>236083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1454603" y="1170894"/>
+          <a:ext cx="4258356" cy="3147332"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8256"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="182880" tIns="182880" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" algn="l">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>Command</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>&gt; Internet</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="3200" spc="500" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="l">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>Game</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="3200" spc="500" baseline="0">
+            <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="l">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>Shell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="l">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3200" spc="500" baseline="0">
+            <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3431,7 +3731,7 @@
   <dimension ref="P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AQ20" sqref="AQ20"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
@@ -3463,194 +3763,194 @@
       </c>
     </row>
     <row r="16" spans="3:18">
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="54">
         <v>1</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="54">
         <v>2</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="54">
         <v>3</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="54">
         <v>4</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="54">
         <v>5</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="54">
         <v>6</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="54">
         <v>7</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="54">
         <v>8</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="54">
         <v>9</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="54">
         <v>0</v>
       </c>
-      <c r="P16" s="60" t="s">
+      <c r="P16" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="Q16" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="R16" s="55"/>
+      <c r="R16" s="53"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="56" t="s">
+      <c r="L17" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="56" t="s">
+      <c r="M17" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="56" t="s">
+      <c r="O17" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="56" t="s">
+      <c r="P17" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="56" t="s">
+      <c r="Q17" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="R17" s="55"/>
+      <c r="R17" s="53"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="56" t="s">
+      <c r="L18" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="56" t="s">
+      <c r="M18" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="56" t="s">
+      <c r="N18" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="O18" s="56" t="s">
+      <c r="O18" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="60" t="s">
+      <c r="P18" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="57" t="s">
+      <c r="Q18" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="R18" s="58"/>
+      <c r="R18" s="60"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="N19" s="56" t="s">
+      <c r="N19" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="O19" s="56" t="s">
+      <c r="O19" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="55"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="53"/>
     </row>
     <row r="20" spans="3:18">
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="57" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3673,74 +3973,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="14" spans="5:17" s="61" customFormat="1"/>
-    <row r="15" spans="5:17" s="61" customFormat="1"/>
-    <row r="16" spans="5:17" s="61" customFormat="1">
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
+    <row r="14" spans="5:17" s="56" customFormat="1"/>
+    <row r="15" spans="5:17" s="56" customFormat="1"/>
+    <row r="16" spans="5:17" s="56" customFormat="1">
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
     </row>
-    <row r="17" spans="3:17" s="61" customFormat="1">
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
+    <row r="17" spans="3:17" s="56" customFormat="1">
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="3:17" s="61" customFormat="1">
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="62"/>
+    <row r="18" spans="3:17" s="56" customFormat="1">
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="57"/>
     </row>
-    <row r="19" spans="3:17" s="61" customFormat="1">
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
+    <row r="19" spans="3:17" s="56" customFormat="1">
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="3:17" s="61" customFormat="1">
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
+    <row r="20" spans="3:17" s="56" customFormat="1">
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3763,194 +4063,194 @@
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="16" spans="3:18">
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="54">
         <v>1</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="54">
         <v>2</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="54">
         <v>3</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="54">
         <v>4</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="54">
         <v>5</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="54">
         <v>6</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="54">
         <v>7</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="54">
         <v>8</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="54">
         <v>9</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="54">
         <v>0</v>
       </c>
-      <c r="P16" s="60" t="s">
+      <c r="P16" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="Q16" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="R16" s="55"/>
+      <c r="R16" s="53"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="56" t="s">
+      <c r="L17" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="56" t="s">
+      <c r="M17" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="56" t="s">
+      <c r="O17" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="56" t="s">
+      <c r="P17" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="56" t="s">
+      <c r="Q17" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="R17" s="55"/>
+      <c r="R17" s="53"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="56" t="s">
+      <c r="L18" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="56" t="s">
+      <c r="M18" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="56" t="s">
+      <c r="N18" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="O18" s="56" t="s">
+      <c r="O18" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="60" t="s">
+      <c r="P18" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="57" t="s">
+      <c r="Q18" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="R18" s="58"/>
+      <c r="R18" s="60"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="N19" s="56" t="s">
+      <c r="N19" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="O19" s="56" t="s">
+      <c r="O19" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="55"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="53"/>
     </row>
     <row r="20" spans="3:18">
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="57" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3965,10 +4265,8143 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BP31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="BD12" sqref="BD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="27" customHeight="1"/>
+  <cols>
+    <col min="1" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="36" max="68" width="4.85546875" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <v>29</v>
+      </c>
+      <c r="AF1">
+        <v>30</v>
+      </c>
+      <c r="AG1">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="65">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="65">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="65">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="65">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="65">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="65">
+        <v>6</v>
+      </c>
+      <c r="AR1" s="65">
+        <v>7</v>
+      </c>
+      <c r="AS1" s="65">
+        <v>8</v>
+      </c>
+      <c r="AT1" s="65">
+        <v>9</v>
+      </c>
+      <c r="AU1" s="65">
+        <v>10</v>
+      </c>
+      <c r="AV1" s="65">
+        <v>11</v>
+      </c>
+      <c r="AW1" s="65">
+        <v>12</v>
+      </c>
+      <c r="AX1" s="65">
+        <v>13</v>
+      </c>
+      <c r="AY1" s="65">
+        <v>14</v>
+      </c>
+      <c r="AZ1" s="65">
+        <v>15</v>
+      </c>
+      <c r="BA1" s="65">
+        <v>16</v>
+      </c>
+      <c r="BB1" s="65">
+        <v>17</v>
+      </c>
+      <c r="BC1" s="65">
+        <v>18</v>
+      </c>
+      <c r="BD1" s="65">
+        <v>19</v>
+      </c>
+      <c r="BE1" s="65">
+        <v>20</v>
+      </c>
+      <c r="BF1" s="65">
+        <v>21</v>
+      </c>
+      <c r="BG1" s="65">
+        <v>22</v>
+      </c>
+      <c r="BH1" s="65">
+        <v>23</v>
+      </c>
+      <c r="BI1" s="65">
+        <v>24</v>
+      </c>
+      <c r="BJ1" s="65">
+        <v>25</v>
+      </c>
+      <c r="BK1" s="65">
+        <v>26</v>
+      </c>
+      <c r="BL1" s="65">
+        <v>27</v>
+      </c>
+      <c r="BM1" s="65">
+        <v>28</v>
+      </c>
+      <c r="BN1" s="65">
+        <v>29</v>
+      </c>
+      <c r="BO1" s="65">
+        <v>30</v>
+      </c>
+      <c r="BP1" s="65">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" ht="27" customHeight="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>B2+1</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:AG2" si="0">C2+1</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="72" t="str">
+        <f>DEC2HEX(8192+B2)</f>
+        <v>2000</v>
+      </c>
+      <c r="AL2" s="73" t="str">
+        <f t="shared" ref="AL2:AL31" si="1">DEC2HEX(8192+C2)</f>
+        <v>2001</v>
+      </c>
+      <c r="AM2" s="73" t="str">
+        <f t="shared" ref="AM2:AM31" si="2">DEC2HEX(8192+D2)</f>
+        <v>2002</v>
+      </c>
+      <c r="AN2" s="73" t="str">
+        <f t="shared" ref="AN2:AN31" si="3">DEC2HEX(8192+E2)</f>
+        <v>2003</v>
+      </c>
+      <c r="AO2" s="73" t="str">
+        <f t="shared" ref="AO2:AO31" si="4">DEC2HEX(8192+F2)</f>
+        <v>2004</v>
+      </c>
+      <c r="AP2" s="73" t="str">
+        <f t="shared" ref="AP2:AP31" si="5">DEC2HEX(8192+G2)</f>
+        <v>2005</v>
+      </c>
+      <c r="AQ2" s="73" t="str">
+        <f t="shared" ref="AQ2:AQ31" si="6">DEC2HEX(8192+H2)</f>
+        <v>2006</v>
+      </c>
+      <c r="AR2" s="73" t="str">
+        <f t="shared" ref="AR2:AR31" si="7">DEC2HEX(8192+I2)</f>
+        <v>2007</v>
+      </c>
+      <c r="AS2" s="73" t="str">
+        <f t="shared" ref="AS2:AS31" si="8">DEC2HEX(8192+J2)</f>
+        <v>2008</v>
+      </c>
+      <c r="AT2" s="73" t="str">
+        <f t="shared" ref="AT2:AT31" si="9">DEC2HEX(8192+K2)</f>
+        <v>2009</v>
+      </c>
+      <c r="AU2" s="73" t="str">
+        <f t="shared" ref="AU2:AU31" si="10">DEC2HEX(8192+L2)</f>
+        <v>200A</v>
+      </c>
+      <c r="AV2" s="73" t="str">
+        <f t="shared" ref="AV2:AV31" si="11">DEC2HEX(8192+M2)</f>
+        <v>200B</v>
+      </c>
+      <c r="AW2" s="73" t="str">
+        <f t="shared" ref="AW2:AW31" si="12">DEC2HEX(8192+N2)</f>
+        <v>200C</v>
+      </c>
+      <c r="AX2" s="73" t="str">
+        <f t="shared" ref="AX2:AX31" si="13">DEC2HEX(8192+O2)</f>
+        <v>200D</v>
+      </c>
+      <c r="AY2" s="73" t="str">
+        <f t="shared" ref="AY2:AY31" si="14">DEC2HEX(8192+P2)</f>
+        <v>200E</v>
+      </c>
+      <c r="AZ2" s="73" t="str">
+        <f t="shared" ref="AZ2:AZ31" si="15">DEC2HEX(8192+Q2)</f>
+        <v>200F</v>
+      </c>
+      <c r="BA2" s="73" t="str">
+        <f t="shared" ref="BA2:BA31" si="16">DEC2HEX(8192+R2)</f>
+        <v>2010</v>
+      </c>
+      <c r="BB2" s="73" t="str">
+        <f t="shared" ref="BB2:BB31" si="17">DEC2HEX(8192+S2)</f>
+        <v>2011</v>
+      </c>
+      <c r="BC2" s="73" t="str">
+        <f t="shared" ref="BC2:BC31" si="18">DEC2HEX(8192+T2)</f>
+        <v>2012</v>
+      </c>
+      <c r="BD2" s="73" t="str">
+        <f t="shared" ref="BD2:BD31" si="19">DEC2HEX(8192+U2)</f>
+        <v>2013</v>
+      </c>
+      <c r="BE2" s="73" t="str">
+        <f t="shared" ref="BE2:BE31" si="20">DEC2HEX(8192+V2)</f>
+        <v>2014</v>
+      </c>
+      <c r="BF2" s="73" t="str">
+        <f t="shared" ref="BF2:BF31" si="21">DEC2HEX(8192+W2)</f>
+        <v>2015</v>
+      </c>
+      <c r="BG2" s="73" t="str">
+        <f t="shared" ref="BG2:BG31" si="22">DEC2HEX(8192+X2)</f>
+        <v>2016</v>
+      </c>
+      <c r="BH2" s="73" t="str">
+        <f t="shared" ref="BH2:BH31" si="23">DEC2HEX(8192+Y2)</f>
+        <v>2017</v>
+      </c>
+      <c r="BI2" s="73" t="str">
+        <f t="shared" ref="BI2:BI31" si="24">DEC2HEX(8192+Z2)</f>
+        <v>2018</v>
+      </c>
+      <c r="BJ2" s="73" t="str">
+        <f t="shared" ref="BJ2:BJ31" si="25">DEC2HEX(8192+AA2)</f>
+        <v>2019</v>
+      </c>
+      <c r="BK2" s="73" t="str">
+        <f t="shared" ref="BK2:BK31" si="26">DEC2HEX(8192+AB2)</f>
+        <v>201A</v>
+      </c>
+      <c r="BL2" s="73" t="str">
+        <f t="shared" ref="BL2:BL31" si="27">DEC2HEX(8192+AC2)</f>
+        <v>201B</v>
+      </c>
+      <c r="BM2" s="73" t="str">
+        <f t="shared" ref="BM2:BM31" si="28">DEC2HEX(8192+AD2)</f>
+        <v>201C</v>
+      </c>
+      <c r="BN2" s="73" t="str">
+        <f t="shared" ref="BN2:BN31" si="29">DEC2HEX(8192+AE2)</f>
+        <v>201D</v>
+      </c>
+      <c r="BO2" s="73" t="str">
+        <f t="shared" ref="BO2:BO31" si="30">DEC2HEX(8192+AF2)</f>
+        <v>201E</v>
+      </c>
+      <c r="BP2" s="74" t="str">
+        <f t="shared" ref="BP2:BP31" si="31">DEC2HEX(8192+AG2)</f>
+        <v>201F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" ht="27" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>B2+32</f>
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:AG3" si="32">B3+1</f>
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="32"/>
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="32"/>
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="32"/>
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="32"/>
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="32"/>
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="32"/>
+        <v>39</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="32"/>
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="32"/>
+        <v>41</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="32"/>
+        <v>42</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="32"/>
+        <v>43</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="32"/>
+        <v>44</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="32"/>
+        <v>45</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="32"/>
+        <v>46</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="32"/>
+        <v>47</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="32"/>
+        <v>48</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="32"/>
+        <v>50</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="32"/>
+        <v>51</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="32"/>
+        <v>52</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="32"/>
+        <v>53</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="32"/>
+        <v>54</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="32"/>
+        <v>55</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="32"/>
+        <v>56</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="32"/>
+        <v>57</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="32"/>
+        <v>58</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="32"/>
+        <v>59</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="32"/>
+        <v>60</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="32"/>
+        <v>61</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="32"/>
+        <v>62</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="32"/>
+        <v>63</v>
+      </c>
+      <c r="AJ3" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="66" t="str">
+        <f t="shared" ref="AK3:AK31" si="33">DEC2HEX(8192+B3)</f>
+        <v>2020</v>
+      </c>
+      <c r="AL3" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="AM3" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="AN3" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2023</v>
+      </c>
+      <c r="AO3" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2024</v>
+      </c>
+      <c r="AP3" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2025</v>
+      </c>
+      <c r="AQ3" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2026</v>
+      </c>
+      <c r="AR3" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2027</v>
+      </c>
+      <c r="AS3" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2028</v>
+      </c>
+      <c r="AT3" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2029</v>
+      </c>
+      <c r="AU3" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>202A</v>
+      </c>
+      <c r="AV3" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>202B</v>
+      </c>
+      <c r="AW3" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>202C</v>
+      </c>
+      <c r="AX3" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>202D</v>
+      </c>
+      <c r="AY3" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>202E</v>
+      </c>
+      <c r="AZ3" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>202F</v>
+      </c>
+      <c r="BA3" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2030</v>
+      </c>
+      <c r="BB3" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2031</v>
+      </c>
+      <c r="BC3" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2032</v>
+      </c>
+      <c r="BD3" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2033</v>
+      </c>
+      <c r="BE3" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2034</v>
+      </c>
+      <c r="BF3" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2035</v>
+      </c>
+      <c r="BG3" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2036</v>
+      </c>
+      <c r="BH3" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2037</v>
+      </c>
+      <c r="BI3" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2038</v>
+      </c>
+      <c r="BJ3" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2039</v>
+      </c>
+      <c r="BK3" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>203A</v>
+      </c>
+      <c r="BL3" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>203B</v>
+      </c>
+      <c r="BM3" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>203C</v>
+      </c>
+      <c r="BN3" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>203D</v>
+      </c>
+      <c r="BO3" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>203E</v>
+      </c>
+      <c r="BP3" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>203F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" ht="27" customHeight="1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B31" si="34">B3+32</f>
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:AG4" si="35">B4+1</f>
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="35"/>
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="35"/>
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="35"/>
+        <v>68</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="35"/>
+        <v>69</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="35"/>
+        <v>70</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="35"/>
+        <v>71</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="35"/>
+        <v>72</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="35"/>
+        <v>73</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="35"/>
+        <v>74</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="35"/>
+        <v>75</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="35"/>
+        <v>76</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="35"/>
+        <v>77</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="35"/>
+        <v>78</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="35"/>
+        <v>79</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="35"/>
+        <v>80</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="35"/>
+        <v>81</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="35"/>
+        <v>82</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="35"/>
+        <v>83</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="35"/>
+        <v>84</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="35"/>
+        <v>85</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="35"/>
+        <v>86</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="35"/>
+        <v>87</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="35"/>
+        <v>88</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="35"/>
+        <v>89</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="35"/>
+        <v>90</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="35"/>
+        <v>91</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="35"/>
+        <v>92</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="35"/>
+        <v>93</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="35"/>
+        <v>94</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="35"/>
+        <v>95</v>
+      </c>
+      <c r="AJ4" s="65">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2040</v>
+      </c>
+      <c r="AL4" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="AM4" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2042</v>
+      </c>
+      <c r="AN4" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2043</v>
+      </c>
+      <c r="AO4" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2044</v>
+      </c>
+      <c r="AP4" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2045</v>
+      </c>
+      <c r="AQ4" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2046</v>
+      </c>
+      <c r="AR4" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2047</v>
+      </c>
+      <c r="AS4" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2048</v>
+      </c>
+      <c r="AT4" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2049</v>
+      </c>
+      <c r="AU4" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>204A</v>
+      </c>
+      <c r="AV4" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>204B</v>
+      </c>
+      <c r="AW4" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>204C</v>
+      </c>
+      <c r="AX4" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>204D</v>
+      </c>
+      <c r="AY4" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>204E</v>
+      </c>
+      <c r="AZ4" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>204F</v>
+      </c>
+      <c r="BA4" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2050</v>
+      </c>
+      <c r="BB4" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2051</v>
+      </c>
+      <c r="BC4" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2052</v>
+      </c>
+      <c r="BD4" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2053</v>
+      </c>
+      <c r="BE4" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2054</v>
+      </c>
+      <c r="BF4" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2055</v>
+      </c>
+      <c r="BG4" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2056</v>
+      </c>
+      <c r="BH4" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2057</v>
+      </c>
+      <c r="BI4" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2058</v>
+      </c>
+      <c r="BJ4" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2059</v>
+      </c>
+      <c r="BK4" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>205A</v>
+      </c>
+      <c r="BL4" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>205B</v>
+      </c>
+      <c r="BM4" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>205C</v>
+      </c>
+      <c r="BN4" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>205D</v>
+      </c>
+      <c r="BO4" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>205E</v>
+      </c>
+      <c r="BP4" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>205F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" ht="27" customHeight="1">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="34"/>
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:AG5" si="36">B5+1</f>
+        <v>97</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="36"/>
+        <v>98</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="36"/>
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="36"/>
+        <v>101</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="36"/>
+        <v>102</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="36"/>
+        <v>103</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="36"/>
+        <v>104</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="36"/>
+        <v>105</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="36"/>
+        <v>106</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="36"/>
+        <v>107</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="36"/>
+        <v>108</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="36"/>
+        <v>109</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="36"/>
+        <v>110</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="36"/>
+        <v>111</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="36"/>
+        <v>112</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="36"/>
+        <v>113</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="36"/>
+        <v>114</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="36"/>
+        <v>115</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="36"/>
+        <v>116</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="36"/>
+        <v>117</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="36"/>
+        <v>118</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="36"/>
+        <v>119</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="36"/>
+        <v>120</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="36"/>
+        <v>121</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="36"/>
+        <v>122</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="36"/>
+        <v>123</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="36"/>
+        <v>124</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="36"/>
+        <v>125</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="36"/>
+        <v>126</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="36"/>
+        <v>127</v>
+      </c>
+      <c r="AJ5" s="65">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2060</v>
+      </c>
+      <c r="AL5" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2061</v>
+      </c>
+      <c r="AM5" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2062</v>
+      </c>
+      <c r="AN5" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2063</v>
+      </c>
+      <c r="AO5" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2064</v>
+      </c>
+      <c r="AP5" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2065</v>
+      </c>
+      <c r="AQ5" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2066</v>
+      </c>
+      <c r="AR5" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2067</v>
+      </c>
+      <c r="AS5" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2068</v>
+      </c>
+      <c r="AT5" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2069</v>
+      </c>
+      <c r="AU5" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>206A</v>
+      </c>
+      <c r="AV5" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>206B</v>
+      </c>
+      <c r="AW5" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>206C</v>
+      </c>
+      <c r="AX5" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>206D</v>
+      </c>
+      <c r="AY5" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>206E</v>
+      </c>
+      <c r="AZ5" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>206F</v>
+      </c>
+      <c r="BA5" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2070</v>
+      </c>
+      <c r="BB5" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2071</v>
+      </c>
+      <c r="BC5" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2072</v>
+      </c>
+      <c r="BD5" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2073</v>
+      </c>
+      <c r="BE5" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2074</v>
+      </c>
+      <c r="BF5" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2075</v>
+      </c>
+      <c r="BG5" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2076</v>
+      </c>
+      <c r="BH5" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2077</v>
+      </c>
+      <c r="BI5" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2078</v>
+      </c>
+      <c r="BJ5" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2079</v>
+      </c>
+      <c r="BK5" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>207A</v>
+      </c>
+      <c r="BL5" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>207B</v>
+      </c>
+      <c r="BM5" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>207C</v>
+      </c>
+      <c r="BN5" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>207D</v>
+      </c>
+      <c r="BO5" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>207E</v>
+      </c>
+      <c r="BP5" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>207F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" ht="27" customHeight="1">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="34"/>
+        <v>128</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:AG6" si="37">B6+1</f>
+        <v>129</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="37"/>
+        <v>130</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="37"/>
+        <v>131</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="37"/>
+        <v>132</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="37"/>
+        <v>133</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="37"/>
+        <v>134</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="37"/>
+        <v>135</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="37"/>
+        <v>136</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="37"/>
+        <v>137</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="37"/>
+        <v>138</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="37"/>
+        <v>139</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="37"/>
+        <v>140</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="37"/>
+        <v>141</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="37"/>
+        <v>142</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="37"/>
+        <v>143</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="37"/>
+        <v>144</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="37"/>
+        <v>145</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="37"/>
+        <v>146</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="37"/>
+        <v>147</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="37"/>
+        <v>148</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="37"/>
+        <v>149</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="37"/>
+        <v>150</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="37"/>
+        <v>151</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="37"/>
+        <v>152</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="37"/>
+        <v>153</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="37"/>
+        <v>154</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="37"/>
+        <v>155</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="37"/>
+        <v>156</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="37"/>
+        <v>157</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="37"/>
+        <v>158</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="37"/>
+        <v>159</v>
+      </c>
+      <c r="AJ6" s="65">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2080</v>
+      </c>
+      <c r="AL6" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2081</v>
+      </c>
+      <c r="AM6" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2082</v>
+      </c>
+      <c r="AN6" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2083</v>
+      </c>
+      <c r="AO6" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2084</v>
+      </c>
+      <c r="AP6" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2085</v>
+      </c>
+      <c r="AQ6" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2086</v>
+      </c>
+      <c r="AR6" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2087</v>
+      </c>
+      <c r="AS6" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2088</v>
+      </c>
+      <c r="AT6" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2089</v>
+      </c>
+      <c r="AU6" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>208A</v>
+      </c>
+      <c r="AV6" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>208B</v>
+      </c>
+      <c r="AW6" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>208C</v>
+      </c>
+      <c r="AX6" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>208D</v>
+      </c>
+      <c r="AY6" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>208E</v>
+      </c>
+      <c r="AZ6" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>208F</v>
+      </c>
+      <c r="BA6" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2090</v>
+      </c>
+      <c r="BB6" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2091</v>
+      </c>
+      <c r="BC6" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2092</v>
+      </c>
+      <c r="BD6" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2093</v>
+      </c>
+      <c r="BE6" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2094</v>
+      </c>
+      <c r="BF6" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2095</v>
+      </c>
+      <c r="BG6" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2096</v>
+      </c>
+      <c r="BH6" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2097</v>
+      </c>
+      <c r="BI6" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2098</v>
+      </c>
+      <c r="BJ6" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2099</v>
+      </c>
+      <c r="BK6" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>209A</v>
+      </c>
+      <c r="BL6" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>209B</v>
+      </c>
+      <c r="BM6" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>209C</v>
+      </c>
+      <c r="BN6" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>209D</v>
+      </c>
+      <c r="BO6" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>209E</v>
+      </c>
+      <c r="BP6" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>209F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" ht="27" customHeight="1">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="34"/>
+        <v>160</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:AG7" si="38">B7+1</f>
+        <v>161</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="38"/>
+        <v>162</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="38"/>
+        <v>163</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="38"/>
+        <v>164</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="38"/>
+        <v>165</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="38"/>
+        <v>166</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="38"/>
+        <v>167</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="38"/>
+        <v>168</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="38"/>
+        <v>169</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="38"/>
+        <v>170</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="38"/>
+        <v>171</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="38"/>
+        <v>172</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="38"/>
+        <v>173</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="38"/>
+        <v>174</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="38"/>
+        <v>175</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="38"/>
+        <v>176</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="38"/>
+        <v>177</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="38"/>
+        <v>178</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="38"/>
+        <v>179</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="38"/>
+        <v>180</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="38"/>
+        <v>181</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="38"/>
+        <v>182</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="38"/>
+        <v>183</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="38"/>
+        <v>184</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="38"/>
+        <v>185</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="38"/>
+        <v>186</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="38"/>
+        <v>187</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="38"/>
+        <v>188</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="38"/>
+        <v>189</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="38"/>
+        <v>190</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="38"/>
+        <v>191</v>
+      </c>
+      <c r="AJ7" s="65">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>20A0</v>
+      </c>
+      <c r="AL7" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>20A1</v>
+      </c>
+      <c r="AM7" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>20A2</v>
+      </c>
+      <c r="AN7" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>20A3</v>
+      </c>
+      <c r="AO7" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>20A4</v>
+      </c>
+      <c r="AP7" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>20A5</v>
+      </c>
+      <c r="AQ7" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>20A6</v>
+      </c>
+      <c r="AR7" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>20A7</v>
+      </c>
+      <c r="AS7" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>20A8</v>
+      </c>
+      <c r="AT7" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>20A9</v>
+      </c>
+      <c r="AU7" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>20AA</v>
+      </c>
+      <c r="AV7" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>20AB</v>
+      </c>
+      <c r="AW7" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>20AC</v>
+      </c>
+      <c r="AX7" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>20AD</v>
+      </c>
+      <c r="AY7" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>20AE</v>
+      </c>
+      <c r="AZ7" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>20AF</v>
+      </c>
+      <c r="BA7" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>20B0</v>
+      </c>
+      <c r="BB7" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>20B1</v>
+      </c>
+      <c r="BC7" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>20B2</v>
+      </c>
+      <c r="BD7" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>20B3</v>
+      </c>
+      <c r="BE7" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>20B4</v>
+      </c>
+      <c r="BF7" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>20B5</v>
+      </c>
+      <c r="BG7" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>20B6</v>
+      </c>
+      <c r="BH7" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>20B7</v>
+      </c>
+      <c r="BI7" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>20B8</v>
+      </c>
+      <c r="BJ7" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>20B9</v>
+      </c>
+      <c r="BK7" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>20BA</v>
+      </c>
+      <c r="BL7" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>20BB</v>
+      </c>
+      <c r="BM7" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>20BC</v>
+      </c>
+      <c r="BN7" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>20BD</v>
+      </c>
+      <c r="BO7" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>20BE</v>
+      </c>
+      <c r="BP7" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>20BF</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" ht="27" customHeight="1">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="34"/>
+        <v>192</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:AG8" si="39">B8+1</f>
+        <v>193</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="39"/>
+        <v>194</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="39"/>
+        <v>195</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="39"/>
+        <v>196</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="39"/>
+        <v>197</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="39"/>
+        <v>198</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="39"/>
+        <v>199</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="39"/>
+        <v>200</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="39"/>
+        <v>201</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="39"/>
+        <v>202</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="39"/>
+        <v>203</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="39"/>
+        <v>204</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="39"/>
+        <v>205</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="39"/>
+        <v>206</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="39"/>
+        <v>207</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="39"/>
+        <v>208</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="39"/>
+        <v>209</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="39"/>
+        <v>210</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="39"/>
+        <v>211</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="39"/>
+        <v>212</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="39"/>
+        <v>213</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="39"/>
+        <v>214</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="39"/>
+        <v>215</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="39"/>
+        <v>216</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="39"/>
+        <v>217</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="39"/>
+        <v>218</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="39"/>
+        <v>219</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="39"/>
+        <v>220</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="39"/>
+        <v>221</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="39"/>
+        <v>222</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="39"/>
+        <v>223</v>
+      </c>
+      <c r="AJ8" s="65">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>20C0</v>
+      </c>
+      <c r="AL8" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>20C1</v>
+      </c>
+      <c r="AM8" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>20C2</v>
+      </c>
+      <c r="AN8" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>20C3</v>
+      </c>
+      <c r="AO8" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>20C4</v>
+      </c>
+      <c r="AP8" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>20C5</v>
+      </c>
+      <c r="AQ8" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>20C6</v>
+      </c>
+      <c r="AR8" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>20C7</v>
+      </c>
+      <c r="AS8" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>20C8</v>
+      </c>
+      <c r="AT8" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>20C9</v>
+      </c>
+      <c r="AU8" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>20CA</v>
+      </c>
+      <c r="AV8" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>20CB</v>
+      </c>
+      <c r="AW8" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>20CC</v>
+      </c>
+      <c r="AX8" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>20CD</v>
+      </c>
+      <c r="AY8" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>20CE</v>
+      </c>
+      <c r="AZ8" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>20CF</v>
+      </c>
+      <c r="BA8" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>20D0</v>
+      </c>
+      <c r="BB8" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>20D1</v>
+      </c>
+      <c r="BC8" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>20D2</v>
+      </c>
+      <c r="BD8" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>20D3</v>
+      </c>
+      <c r="BE8" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>20D4</v>
+      </c>
+      <c r="BF8" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>20D5</v>
+      </c>
+      <c r="BG8" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>20D6</v>
+      </c>
+      <c r="BH8" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>20D7</v>
+      </c>
+      <c r="BI8" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>20D8</v>
+      </c>
+      <c r="BJ8" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>20D9</v>
+      </c>
+      <c r="BK8" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>20DA</v>
+      </c>
+      <c r="BL8" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>20DB</v>
+      </c>
+      <c r="BM8" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>20DC</v>
+      </c>
+      <c r="BN8" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>20DD</v>
+      </c>
+      <c r="BO8" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>20DE</v>
+      </c>
+      <c r="BP8" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>20DF</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" ht="27" customHeight="1">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="34"/>
+        <v>224</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:AG9" si="40">B9+1</f>
+        <v>225</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="40"/>
+        <v>226</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="40"/>
+        <v>227</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="40"/>
+        <v>228</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="40"/>
+        <v>229</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="40"/>
+        <v>230</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="40"/>
+        <v>231</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="40"/>
+        <v>232</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="40"/>
+        <v>233</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="40"/>
+        <v>234</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="40"/>
+        <v>235</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="40"/>
+        <v>236</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="40"/>
+        <v>237</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="40"/>
+        <v>238</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="40"/>
+        <v>239</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="40"/>
+        <v>240</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="40"/>
+        <v>241</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="40"/>
+        <v>242</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="40"/>
+        <v>243</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="40"/>
+        <v>244</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="40"/>
+        <v>245</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="40"/>
+        <v>246</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="40"/>
+        <v>247</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="40"/>
+        <v>248</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="40"/>
+        <v>249</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="40"/>
+        <v>250</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="40"/>
+        <v>251</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="40"/>
+        <v>252</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="40"/>
+        <v>253</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="40"/>
+        <v>254</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="40"/>
+        <v>255</v>
+      </c>
+      <c r="AJ9" s="65">
+        <v>7</v>
+      </c>
+      <c r="AK9" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>20E0</v>
+      </c>
+      <c r="AL9" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>20E1</v>
+      </c>
+      <c r="AM9" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>20E2</v>
+      </c>
+      <c r="AN9" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>20E3</v>
+      </c>
+      <c r="AO9" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>20E4</v>
+      </c>
+      <c r="AP9" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>20E5</v>
+      </c>
+      <c r="AQ9" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>20E6</v>
+      </c>
+      <c r="AR9" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>20E7</v>
+      </c>
+      <c r="AS9" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>20E8</v>
+      </c>
+      <c r="AT9" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>20E9</v>
+      </c>
+      <c r="AU9" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>20EA</v>
+      </c>
+      <c r="AV9" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>20EB</v>
+      </c>
+      <c r="AW9" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>20EC</v>
+      </c>
+      <c r="AX9" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>20ED</v>
+      </c>
+      <c r="AY9" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>20EE</v>
+      </c>
+      <c r="AZ9" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>20EF</v>
+      </c>
+      <c r="BA9" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>20F0</v>
+      </c>
+      <c r="BB9" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>20F1</v>
+      </c>
+      <c r="BC9" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>20F2</v>
+      </c>
+      <c r="BD9" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>20F3</v>
+      </c>
+      <c r="BE9" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>20F4</v>
+      </c>
+      <c r="BF9" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>20F5</v>
+      </c>
+      <c r="BG9" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>20F6</v>
+      </c>
+      <c r="BH9" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>20F7</v>
+      </c>
+      <c r="BI9" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>20F8</v>
+      </c>
+      <c r="BJ9" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>20F9</v>
+      </c>
+      <c r="BK9" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>20FA</v>
+      </c>
+      <c r="BL9" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>20FB</v>
+      </c>
+      <c r="BM9" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>20FC</v>
+      </c>
+      <c r="BN9" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>20FD</v>
+      </c>
+      <c r="BO9" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>20FE</v>
+      </c>
+      <c r="BP9" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>20FF</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" ht="27" customHeight="1">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="34"/>
+        <v>256</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:AG10" si="41">B10+1</f>
+        <v>257</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="41"/>
+        <v>258</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="41"/>
+        <v>259</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="41"/>
+        <v>260</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="41"/>
+        <v>261</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="41"/>
+        <v>262</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="41"/>
+        <v>263</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="41"/>
+        <v>264</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="41"/>
+        <v>265</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="41"/>
+        <v>266</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="41"/>
+        <v>267</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="41"/>
+        <v>268</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="41"/>
+        <v>269</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="41"/>
+        <v>270</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="41"/>
+        <v>271</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="41"/>
+        <v>272</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="41"/>
+        <v>273</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="41"/>
+        <v>274</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="41"/>
+        <v>275</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="41"/>
+        <v>276</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="41"/>
+        <v>277</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="41"/>
+        <v>278</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="41"/>
+        <v>279</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="41"/>
+        <v>280</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="41"/>
+        <v>281</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="41"/>
+        <v>282</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="41"/>
+        <v>283</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="41"/>
+        <v>284</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="41"/>
+        <v>285</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="41"/>
+        <v>286</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="41"/>
+        <v>287</v>
+      </c>
+      <c r="AJ10" s="65">
+        <v>8</v>
+      </c>
+      <c r="AK10" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2100</v>
+      </c>
+      <c r="AL10" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2101</v>
+      </c>
+      <c r="AM10" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2102</v>
+      </c>
+      <c r="AN10" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2103</v>
+      </c>
+      <c r="AO10" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2104</v>
+      </c>
+      <c r="AP10" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2105</v>
+      </c>
+      <c r="AQ10" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2106</v>
+      </c>
+      <c r="AR10" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2107</v>
+      </c>
+      <c r="AS10" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2108</v>
+      </c>
+      <c r="AT10" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2109</v>
+      </c>
+      <c r="AU10" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>210A</v>
+      </c>
+      <c r="AV10" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>210B</v>
+      </c>
+      <c r="AW10" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>210C</v>
+      </c>
+      <c r="AX10" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>210D</v>
+      </c>
+      <c r="AY10" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>210E</v>
+      </c>
+      <c r="AZ10" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>210F</v>
+      </c>
+      <c r="BA10" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2110</v>
+      </c>
+      <c r="BB10" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2111</v>
+      </c>
+      <c r="BC10" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2112</v>
+      </c>
+      <c r="BD10" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2113</v>
+      </c>
+      <c r="BE10" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2114</v>
+      </c>
+      <c r="BF10" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2115</v>
+      </c>
+      <c r="BG10" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2116</v>
+      </c>
+      <c r="BH10" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2117</v>
+      </c>
+      <c r="BI10" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2118</v>
+      </c>
+      <c r="BJ10" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2119</v>
+      </c>
+      <c r="BK10" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>211A</v>
+      </c>
+      <c r="BL10" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>211B</v>
+      </c>
+      <c r="BM10" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>211C</v>
+      </c>
+      <c r="BN10" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>211D</v>
+      </c>
+      <c r="BO10" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>211E</v>
+      </c>
+      <c r="BP10" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>211F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" ht="27" customHeight="1">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="34"/>
+        <v>288</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:AG11" si="42">B11+1</f>
+        <v>289</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="42"/>
+        <v>290</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="42"/>
+        <v>291</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="42"/>
+        <v>292</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="42"/>
+        <v>293</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="42"/>
+        <v>294</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="42"/>
+        <v>295</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="42"/>
+        <v>296</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="42"/>
+        <v>297</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="42"/>
+        <v>298</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="42"/>
+        <v>299</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="42"/>
+        <v>300</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="42"/>
+        <v>301</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="42"/>
+        <v>302</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="42"/>
+        <v>303</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="42"/>
+        <v>304</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="42"/>
+        <v>305</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="42"/>
+        <v>306</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="42"/>
+        <v>307</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="42"/>
+        <v>308</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="42"/>
+        <v>309</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="42"/>
+        <v>310</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="42"/>
+        <v>311</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="42"/>
+        <v>312</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="42"/>
+        <v>313</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="42"/>
+        <v>314</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="42"/>
+        <v>315</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="42"/>
+        <v>316</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="42"/>
+        <v>317</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="42"/>
+        <v>318</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="42"/>
+        <v>319</v>
+      </c>
+      <c r="AJ11" s="65">
+        <v>9</v>
+      </c>
+      <c r="AK11" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2120</v>
+      </c>
+      <c r="AL11" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2121</v>
+      </c>
+      <c r="AM11" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2122</v>
+      </c>
+      <c r="AN11" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2123</v>
+      </c>
+      <c r="AO11" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2124</v>
+      </c>
+      <c r="AP11" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2125</v>
+      </c>
+      <c r="AQ11" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2126</v>
+      </c>
+      <c r="AR11" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2127</v>
+      </c>
+      <c r="AS11" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2128</v>
+      </c>
+      <c r="AT11" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2129</v>
+      </c>
+      <c r="AU11" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>212A</v>
+      </c>
+      <c r="AV11" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>212B</v>
+      </c>
+      <c r="AW11" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>212C</v>
+      </c>
+      <c r="AX11" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>212D</v>
+      </c>
+      <c r="AY11" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>212E</v>
+      </c>
+      <c r="AZ11" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>212F</v>
+      </c>
+      <c r="BA11" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2130</v>
+      </c>
+      <c r="BB11" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2131</v>
+      </c>
+      <c r="BC11" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2132</v>
+      </c>
+      <c r="BD11" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2133</v>
+      </c>
+      <c r="BE11" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2134</v>
+      </c>
+      <c r="BF11" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2135</v>
+      </c>
+      <c r="BG11" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2136</v>
+      </c>
+      <c r="BH11" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2137</v>
+      </c>
+      <c r="BI11" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2138</v>
+      </c>
+      <c r="BJ11" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2139</v>
+      </c>
+      <c r="BK11" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>213A</v>
+      </c>
+      <c r="BL11" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>213B</v>
+      </c>
+      <c r="BM11" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>213C</v>
+      </c>
+      <c r="BN11" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>213D</v>
+      </c>
+      <c r="BO11" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>213E</v>
+      </c>
+      <c r="BP11" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>213F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" ht="27" customHeight="1">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="34"/>
+        <v>320</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:AG12" si="43">B12+1</f>
+        <v>321</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="43"/>
+        <v>322</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="43"/>
+        <v>323</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="43"/>
+        <v>324</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="43"/>
+        <v>325</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="43"/>
+        <v>326</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="43"/>
+        <v>327</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="43"/>
+        <v>328</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="43"/>
+        <v>329</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="43"/>
+        <v>330</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="43"/>
+        <v>331</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="43"/>
+        <v>332</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="43"/>
+        <v>333</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="43"/>
+        <v>334</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="43"/>
+        <v>335</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="43"/>
+        <v>336</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="43"/>
+        <v>337</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="43"/>
+        <v>338</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="43"/>
+        <v>339</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="43"/>
+        <v>340</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="43"/>
+        <v>341</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="43"/>
+        <v>342</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="43"/>
+        <v>343</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="43"/>
+        <v>344</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="43"/>
+        <v>345</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="43"/>
+        <v>346</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="43"/>
+        <v>347</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="43"/>
+        <v>348</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="43"/>
+        <v>349</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="43"/>
+        <v>350</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="43"/>
+        <v>351</v>
+      </c>
+      <c r="AJ12" s="65">
+        <v>10</v>
+      </c>
+      <c r="AK12" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2140</v>
+      </c>
+      <c r="AL12" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2141</v>
+      </c>
+      <c r="AM12" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2142</v>
+      </c>
+      <c r="AN12" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2143</v>
+      </c>
+      <c r="AO12" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2144</v>
+      </c>
+      <c r="AP12" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2145</v>
+      </c>
+      <c r="AQ12" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2146</v>
+      </c>
+      <c r="AR12" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2147</v>
+      </c>
+      <c r="AS12" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2148</v>
+      </c>
+      <c r="AT12" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2149</v>
+      </c>
+      <c r="AU12" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>214A</v>
+      </c>
+      <c r="AV12" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>214B</v>
+      </c>
+      <c r="AW12" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>214C</v>
+      </c>
+      <c r="AX12" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>214D</v>
+      </c>
+      <c r="AY12" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>214E</v>
+      </c>
+      <c r="AZ12" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>214F</v>
+      </c>
+      <c r="BA12" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2150</v>
+      </c>
+      <c r="BB12" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2151</v>
+      </c>
+      <c r="BC12" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2152</v>
+      </c>
+      <c r="BD12" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2153</v>
+      </c>
+      <c r="BE12" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2154</v>
+      </c>
+      <c r="BF12" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2155</v>
+      </c>
+      <c r="BG12" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2156</v>
+      </c>
+      <c r="BH12" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2157</v>
+      </c>
+      <c r="BI12" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2158</v>
+      </c>
+      <c r="BJ12" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2159</v>
+      </c>
+      <c r="BK12" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>215A</v>
+      </c>
+      <c r="BL12" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>215B</v>
+      </c>
+      <c r="BM12" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>215C</v>
+      </c>
+      <c r="BN12" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>215D</v>
+      </c>
+      <c r="BO12" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>215E</v>
+      </c>
+      <c r="BP12" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>215F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" ht="27" customHeight="1">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="34"/>
+        <v>352</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:AG13" si="44">B13+1</f>
+        <v>353</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="44"/>
+        <v>354</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="44"/>
+        <v>355</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="44"/>
+        <v>356</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="44"/>
+        <v>357</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="44"/>
+        <v>358</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="44"/>
+        <v>359</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="44"/>
+        <v>360</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="44"/>
+        <v>361</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="44"/>
+        <v>362</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="44"/>
+        <v>363</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="44"/>
+        <v>364</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="44"/>
+        <v>365</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="44"/>
+        <v>366</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="44"/>
+        <v>367</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="44"/>
+        <v>368</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="44"/>
+        <v>369</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="44"/>
+        <v>370</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="44"/>
+        <v>371</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="44"/>
+        <v>372</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="44"/>
+        <v>373</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="44"/>
+        <v>374</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="44"/>
+        <v>375</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="44"/>
+        <v>376</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="44"/>
+        <v>377</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="44"/>
+        <v>378</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="44"/>
+        <v>379</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="44"/>
+        <v>380</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="44"/>
+        <v>381</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="44"/>
+        <v>382</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="44"/>
+        <v>383</v>
+      </c>
+      <c r="AJ13" s="65">
+        <v>11</v>
+      </c>
+      <c r="AK13" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2160</v>
+      </c>
+      <c r="AL13" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2161</v>
+      </c>
+      <c r="AM13" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2162</v>
+      </c>
+      <c r="AN13" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2163</v>
+      </c>
+      <c r="AO13" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2164</v>
+      </c>
+      <c r="AP13" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2165</v>
+      </c>
+      <c r="AQ13" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2166</v>
+      </c>
+      <c r="AR13" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2167</v>
+      </c>
+      <c r="AS13" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2168</v>
+      </c>
+      <c r="AT13" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2169</v>
+      </c>
+      <c r="AU13" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>216A</v>
+      </c>
+      <c r="AV13" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>216B</v>
+      </c>
+      <c r="AW13" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>216C</v>
+      </c>
+      <c r="AX13" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>216D</v>
+      </c>
+      <c r="AY13" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>216E</v>
+      </c>
+      <c r="AZ13" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>216F</v>
+      </c>
+      <c r="BA13" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2170</v>
+      </c>
+      <c r="BB13" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2171</v>
+      </c>
+      <c r="BC13" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2172</v>
+      </c>
+      <c r="BD13" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2173</v>
+      </c>
+      <c r="BE13" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2174</v>
+      </c>
+      <c r="BF13" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2175</v>
+      </c>
+      <c r="BG13" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2176</v>
+      </c>
+      <c r="BH13" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2177</v>
+      </c>
+      <c r="BI13" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2178</v>
+      </c>
+      <c r="BJ13" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2179</v>
+      </c>
+      <c r="BK13" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>217A</v>
+      </c>
+      <c r="BL13" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>217B</v>
+      </c>
+      <c r="BM13" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>217C</v>
+      </c>
+      <c r="BN13" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>217D</v>
+      </c>
+      <c r="BO13" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>217E</v>
+      </c>
+      <c r="BP13" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>217F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" ht="27" customHeight="1">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="34"/>
+        <v>384</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:AG14" si="45">B14+1</f>
+        <v>385</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="45"/>
+        <v>386</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="45"/>
+        <v>387</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="45"/>
+        <v>388</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="45"/>
+        <v>389</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="45"/>
+        <v>390</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="45"/>
+        <v>391</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="45"/>
+        <v>392</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="45"/>
+        <v>393</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="45"/>
+        <v>394</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="45"/>
+        <v>395</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="45"/>
+        <v>396</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="45"/>
+        <v>397</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="45"/>
+        <v>398</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="45"/>
+        <v>399</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="45"/>
+        <v>400</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="45"/>
+        <v>401</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="45"/>
+        <v>402</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="45"/>
+        <v>403</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="45"/>
+        <v>404</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="45"/>
+        <v>405</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="45"/>
+        <v>406</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="45"/>
+        <v>407</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="45"/>
+        <v>408</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="45"/>
+        <v>409</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="45"/>
+        <v>410</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="45"/>
+        <v>411</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="45"/>
+        <v>412</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="45"/>
+        <v>413</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="45"/>
+        <v>414</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="45"/>
+        <v>415</v>
+      </c>
+      <c r="AJ14" s="65">
+        <v>12</v>
+      </c>
+      <c r="AK14" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2180</v>
+      </c>
+      <c r="AL14" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2181</v>
+      </c>
+      <c r="AM14" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2182</v>
+      </c>
+      <c r="AN14" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2183</v>
+      </c>
+      <c r="AO14" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2184</v>
+      </c>
+      <c r="AP14" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2185</v>
+      </c>
+      <c r="AQ14" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2186</v>
+      </c>
+      <c r="AR14" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2187</v>
+      </c>
+      <c r="AS14" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2188</v>
+      </c>
+      <c r="AT14" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2189</v>
+      </c>
+      <c r="AU14" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>218A</v>
+      </c>
+      <c r="AV14" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>218B</v>
+      </c>
+      <c r="AW14" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>218C</v>
+      </c>
+      <c r="AX14" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>218D</v>
+      </c>
+      <c r="AY14" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>218E</v>
+      </c>
+      <c r="AZ14" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>218F</v>
+      </c>
+      <c r="BA14" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2190</v>
+      </c>
+      <c r="BB14" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2191</v>
+      </c>
+      <c r="BC14" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2192</v>
+      </c>
+      <c r="BD14" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2193</v>
+      </c>
+      <c r="BE14" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2194</v>
+      </c>
+      <c r="BF14" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2195</v>
+      </c>
+      <c r="BG14" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2196</v>
+      </c>
+      <c r="BH14" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2197</v>
+      </c>
+      <c r="BI14" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2198</v>
+      </c>
+      <c r="BJ14" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2199</v>
+      </c>
+      <c r="BK14" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>219A</v>
+      </c>
+      <c r="BL14" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>219B</v>
+      </c>
+      <c r="BM14" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>219C</v>
+      </c>
+      <c r="BN14" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>219D</v>
+      </c>
+      <c r="BO14" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>219E</v>
+      </c>
+      <c r="BP14" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>219F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" ht="27" customHeight="1">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="34"/>
+        <v>416</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AG15" si="46">B15+1</f>
+        <v>417</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="46"/>
+        <v>418</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="46"/>
+        <v>419</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="46"/>
+        <v>420</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="46"/>
+        <v>421</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="46"/>
+        <v>422</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="46"/>
+        <v>423</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="46"/>
+        <v>424</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="46"/>
+        <v>425</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="46"/>
+        <v>426</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="46"/>
+        <v>427</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="46"/>
+        <v>428</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="46"/>
+        <v>429</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="46"/>
+        <v>430</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="46"/>
+        <v>431</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="46"/>
+        <v>432</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="46"/>
+        <v>433</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="46"/>
+        <v>434</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="46"/>
+        <v>435</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="46"/>
+        <v>436</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="46"/>
+        <v>437</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="46"/>
+        <v>438</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="46"/>
+        <v>439</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="46"/>
+        <v>440</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="46"/>
+        <v>441</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="46"/>
+        <v>442</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="46"/>
+        <v>443</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="46"/>
+        <v>444</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="46"/>
+        <v>445</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="46"/>
+        <v>446</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="46"/>
+        <v>447</v>
+      </c>
+      <c r="AJ15" s="65">
+        <v>13</v>
+      </c>
+      <c r="AK15" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>21A0</v>
+      </c>
+      <c r="AL15" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>21A1</v>
+      </c>
+      <c r="AM15" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>21A2</v>
+      </c>
+      <c r="AN15" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>21A3</v>
+      </c>
+      <c r="AO15" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>21A4</v>
+      </c>
+      <c r="AP15" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>21A5</v>
+      </c>
+      <c r="AQ15" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>21A6</v>
+      </c>
+      <c r="AR15" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>21A7</v>
+      </c>
+      <c r="AS15" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>21A8</v>
+      </c>
+      <c r="AT15" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>21A9</v>
+      </c>
+      <c r="AU15" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>21AA</v>
+      </c>
+      <c r="AV15" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>21AB</v>
+      </c>
+      <c r="AW15" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>21AC</v>
+      </c>
+      <c r="AX15" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>21AD</v>
+      </c>
+      <c r="AY15" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>21AE</v>
+      </c>
+      <c r="AZ15" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>21AF</v>
+      </c>
+      <c r="BA15" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>21B0</v>
+      </c>
+      <c r="BB15" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>21B1</v>
+      </c>
+      <c r="BC15" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>21B2</v>
+      </c>
+      <c r="BD15" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>21B3</v>
+      </c>
+      <c r="BE15" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>21B4</v>
+      </c>
+      <c r="BF15" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>21B5</v>
+      </c>
+      <c r="BG15" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>21B6</v>
+      </c>
+      <c r="BH15" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>21B7</v>
+      </c>
+      <c r="BI15" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>21B8</v>
+      </c>
+      <c r="BJ15" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>21B9</v>
+      </c>
+      <c r="BK15" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>21BA</v>
+      </c>
+      <c r="BL15" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>21BB</v>
+      </c>
+      <c r="BM15" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>21BC</v>
+      </c>
+      <c r="BN15" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>21BD</v>
+      </c>
+      <c r="BO15" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>21BE</v>
+      </c>
+      <c r="BP15" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>21BF</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" ht="27" customHeight="1">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="34"/>
+        <v>448</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:AG16" si="47">B16+1</f>
+        <v>449</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="47"/>
+        <v>450</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="47"/>
+        <v>451</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="47"/>
+        <v>452</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="47"/>
+        <v>453</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="47"/>
+        <v>454</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="47"/>
+        <v>455</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="47"/>
+        <v>456</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="47"/>
+        <v>457</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="47"/>
+        <v>458</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="47"/>
+        <v>459</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="47"/>
+        <v>460</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="47"/>
+        <v>461</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="47"/>
+        <v>462</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="47"/>
+        <v>463</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="47"/>
+        <v>464</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="47"/>
+        <v>465</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="47"/>
+        <v>466</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="47"/>
+        <v>467</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="47"/>
+        <v>468</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="47"/>
+        <v>469</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="47"/>
+        <v>470</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="47"/>
+        <v>471</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="47"/>
+        <v>472</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="47"/>
+        <v>473</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="47"/>
+        <v>474</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="47"/>
+        <v>475</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="47"/>
+        <v>476</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="47"/>
+        <v>477</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="47"/>
+        <v>478</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="47"/>
+        <v>479</v>
+      </c>
+      <c r="AJ16" s="65">
+        <v>14</v>
+      </c>
+      <c r="AK16" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>21C0</v>
+      </c>
+      <c r="AL16" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>21C1</v>
+      </c>
+      <c r="AM16" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>21C2</v>
+      </c>
+      <c r="AN16" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>21C3</v>
+      </c>
+      <c r="AO16" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>21C4</v>
+      </c>
+      <c r="AP16" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>21C5</v>
+      </c>
+      <c r="AQ16" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>21C6</v>
+      </c>
+      <c r="AR16" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>21C7</v>
+      </c>
+      <c r="AS16" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>21C8</v>
+      </c>
+      <c r="AT16" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>21C9</v>
+      </c>
+      <c r="AU16" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>21CA</v>
+      </c>
+      <c r="AV16" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>21CB</v>
+      </c>
+      <c r="AW16" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>21CC</v>
+      </c>
+      <c r="AX16" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>21CD</v>
+      </c>
+      <c r="AY16" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>21CE</v>
+      </c>
+      <c r="AZ16" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>21CF</v>
+      </c>
+      <c r="BA16" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>21D0</v>
+      </c>
+      <c r="BB16" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>21D1</v>
+      </c>
+      <c r="BC16" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>21D2</v>
+      </c>
+      <c r="BD16" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>21D3</v>
+      </c>
+      <c r="BE16" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>21D4</v>
+      </c>
+      <c r="BF16" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>21D5</v>
+      </c>
+      <c r="BG16" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>21D6</v>
+      </c>
+      <c r="BH16" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>21D7</v>
+      </c>
+      <c r="BI16" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>21D8</v>
+      </c>
+      <c r="BJ16" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>21D9</v>
+      </c>
+      <c r="BK16" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>21DA</v>
+      </c>
+      <c r="BL16" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>21DB</v>
+      </c>
+      <c r="BM16" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>21DC</v>
+      </c>
+      <c r="BN16" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>21DD</v>
+      </c>
+      <c r="BO16" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>21DE</v>
+      </c>
+      <c r="BP16" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>21DF</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68" ht="27" customHeight="1">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="34"/>
+        <v>480</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:AG17" si="48">B17+1</f>
+        <v>481</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="48"/>
+        <v>482</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="48"/>
+        <v>483</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="48"/>
+        <v>484</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="48"/>
+        <v>485</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="48"/>
+        <v>486</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="48"/>
+        <v>487</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="48"/>
+        <v>488</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="48"/>
+        <v>489</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="48"/>
+        <v>490</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="48"/>
+        <v>491</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="48"/>
+        <v>492</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="48"/>
+        <v>493</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="48"/>
+        <v>494</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="48"/>
+        <v>495</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="48"/>
+        <v>496</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="48"/>
+        <v>497</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="48"/>
+        <v>498</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="48"/>
+        <v>499</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="48"/>
+        <v>500</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="48"/>
+        <v>501</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="48"/>
+        <v>502</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="48"/>
+        <v>503</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="48"/>
+        <v>504</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="48"/>
+        <v>505</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="48"/>
+        <v>506</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="48"/>
+        <v>507</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="48"/>
+        <v>508</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="48"/>
+        <v>509</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="48"/>
+        <v>510</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="48"/>
+        <v>511</v>
+      </c>
+      <c r="AJ17" s="65">
+        <v>15</v>
+      </c>
+      <c r="AK17" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>21E0</v>
+      </c>
+      <c r="AL17" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>21E1</v>
+      </c>
+      <c r="AM17" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>21E2</v>
+      </c>
+      <c r="AN17" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>21E3</v>
+      </c>
+      <c r="AO17" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>21E4</v>
+      </c>
+      <c r="AP17" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>21E5</v>
+      </c>
+      <c r="AQ17" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>21E6</v>
+      </c>
+      <c r="AR17" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>21E7</v>
+      </c>
+      <c r="AS17" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>21E8</v>
+      </c>
+      <c r="AT17" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>21E9</v>
+      </c>
+      <c r="AU17" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>21EA</v>
+      </c>
+      <c r="AV17" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>21EB</v>
+      </c>
+      <c r="AW17" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>21EC</v>
+      </c>
+      <c r="AX17" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>21ED</v>
+      </c>
+      <c r="AY17" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>21EE</v>
+      </c>
+      <c r="AZ17" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>21EF</v>
+      </c>
+      <c r="BA17" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>21F0</v>
+      </c>
+      <c r="BB17" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>21F1</v>
+      </c>
+      <c r="BC17" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>21F2</v>
+      </c>
+      <c r="BD17" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>21F3</v>
+      </c>
+      <c r="BE17" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>21F4</v>
+      </c>
+      <c r="BF17" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>21F5</v>
+      </c>
+      <c r="BG17" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>21F6</v>
+      </c>
+      <c r="BH17" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>21F7</v>
+      </c>
+      <c r="BI17" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>21F8</v>
+      </c>
+      <c r="BJ17" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>21F9</v>
+      </c>
+      <c r="BK17" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>21FA</v>
+      </c>
+      <c r="BL17" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>21FB</v>
+      </c>
+      <c r="BM17" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>21FC</v>
+      </c>
+      <c r="BN17" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>21FD</v>
+      </c>
+      <c r="BO17" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>21FE</v>
+      </c>
+      <c r="BP17" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>21FF</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68" ht="27" customHeight="1">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="34"/>
+        <v>512</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:AG18" si="49">B18+1</f>
+        <v>513</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="49"/>
+        <v>514</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="49"/>
+        <v>515</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="49"/>
+        <v>516</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="49"/>
+        <v>517</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="49"/>
+        <v>518</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="49"/>
+        <v>519</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="49"/>
+        <v>520</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="49"/>
+        <v>521</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="49"/>
+        <v>522</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="49"/>
+        <v>523</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="49"/>
+        <v>524</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="49"/>
+        <v>525</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="49"/>
+        <v>526</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="49"/>
+        <v>527</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="49"/>
+        <v>528</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="49"/>
+        <v>529</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="49"/>
+        <v>530</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="49"/>
+        <v>531</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="49"/>
+        <v>532</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="49"/>
+        <v>533</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="49"/>
+        <v>534</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="49"/>
+        <v>535</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="49"/>
+        <v>536</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="49"/>
+        <v>537</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="49"/>
+        <v>538</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="49"/>
+        <v>539</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="49"/>
+        <v>540</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="49"/>
+        <v>541</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="49"/>
+        <v>542</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="49"/>
+        <v>543</v>
+      </c>
+      <c r="AJ18" s="65">
+        <v>16</v>
+      </c>
+      <c r="AK18" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2200</v>
+      </c>
+      <c r="AL18" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2201</v>
+      </c>
+      <c r="AM18" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2202</v>
+      </c>
+      <c r="AN18" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2203</v>
+      </c>
+      <c r="AO18" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2204</v>
+      </c>
+      <c r="AP18" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2205</v>
+      </c>
+      <c r="AQ18" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2206</v>
+      </c>
+      <c r="AR18" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2207</v>
+      </c>
+      <c r="AS18" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2208</v>
+      </c>
+      <c r="AT18" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2209</v>
+      </c>
+      <c r="AU18" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>220A</v>
+      </c>
+      <c r="AV18" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>220B</v>
+      </c>
+      <c r="AW18" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>220C</v>
+      </c>
+      <c r="AX18" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>220D</v>
+      </c>
+      <c r="AY18" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>220E</v>
+      </c>
+      <c r="AZ18" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>220F</v>
+      </c>
+      <c r="BA18" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2210</v>
+      </c>
+      <c r="BB18" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2211</v>
+      </c>
+      <c r="BC18" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2212</v>
+      </c>
+      <c r="BD18" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2213</v>
+      </c>
+      <c r="BE18" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2214</v>
+      </c>
+      <c r="BF18" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2215</v>
+      </c>
+      <c r="BG18" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2216</v>
+      </c>
+      <c r="BH18" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2217</v>
+      </c>
+      <c r="BI18" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2218</v>
+      </c>
+      <c r="BJ18" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2219</v>
+      </c>
+      <c r="BK18" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>221A</v>
+      </c>
+      <c r="BL18" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>221B</v>
+      </c>
+      <c r="BM18" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>221C</v>
+      </c>
+      <c r="BN18" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>221D</v>
+      </c>
+      <c r="BO18" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>221E</v>
+      </c>
+      <c r="BP18" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>221F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68" ht="27" customHeight="1">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="34"/>
+        <v>544</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:AG19" si="50">B19+1</f>
+        <v>545</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="50"/>
+        <v>546</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="50"/>
+        <v>547</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="50"/>
+        <v>548</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="50"/>
+        <v>549</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="50"/>
+        <v>550</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="50"/>
+        <v>551</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="50"/>
+        <v>552</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="50"/>
+        <v>553</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="50"/>
+        <v>554</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="50"/>
+        <v>555</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="50"/>
+        <v>556</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="50"/>
+        <v>557</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="50"/>
+        <v>558</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="50"/>
+        <v>559</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="50"/>
+        <v>560</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="50"/>
+        <v>561</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="50"/>
+        <v>562</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="50"/>
+        <v>563</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="50"/>
+        <v>564</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="50"/>
+        <v>565</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="50"/>
+        <v>566</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="50"/>
+        <v>567</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="50"/>
+        <v>568</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="50"/>
+        <v>569</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="50"/>
+        <v>570</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="50"/>
+        <v>571</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="50"/>
+        <v>572</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="50"/>
+        <v>573</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="50"/>
+        <v>574</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="50"/>
+        <v>575</v>
+      </c>
+      <c r="AJ19" s="65">
+        <v>17</v>
+      </c>
+      <c r="AK19" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2220</v>
+      </c>
+      <c r="AL19" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2221</v>
+      </c>
+      <c r="AM19" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2222</v>
+      </c>
+      <c r="AN19" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2223</v>
+      </c>
+      <c r="AO19" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2224</v>
+      </c>
+      <c r="AP19" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2225</v>
+      </c>
+      <c r="AQ19" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2226</v>
+      </c>
+      <c r="AR19" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2227</v>
+      </c>
+      <c r="AS19" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2228</v>
+      </c>
+      <c r="AT19" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2229</v>
+      </c>
+      <c r="AU19" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>222A</v>
+      </c>
+      <c r="AV19" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>222B</v>
+      </c>
+      <c r="AW19" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>222C</v>
+      </c>
+      <c r="AX19" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>222D</v>
+      </c>
+      <c r="AY19" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>222E</v>
+      </c>
+      <c r="AZ19" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>222F</v>
+      </c>
+      <c r="BA19" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2230</v>
+      </c>
+      <c r="BB19" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2231</v>
+      </c>
+      <c r="BC19" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2232</v>
+      </c>
+      <c r="BD19" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2233</v>
+      </c>
+      <c r="BE19" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2234</v>
+      </c>
+      <c r="BF19" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2235</v>
+      </c>
+      <c r="BG19" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2236</v>
+      </c>
+      <c r="BH19" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2237</v>
+      </c>
+      <c r="BI19" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2238</v>
+      </c>
+      <c r="BJ19" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2239</v>
+      </c>
+      <c r="BK19" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>223A</v>
+      </c>
+      <c r="BL19" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>223B</v>
+      </c>
+      <c r="BM19" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>223C</v>
+      </c>
+      <c r="BN19" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>223D</v>
+      </c>
+      <c r="BO19" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>223E</v>
+      </c>
+      <c r="BP19" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>223F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" ht="27" customHeight="1">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="34"/>
+        <v>576</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:AG20" si="51">B20+1</f>
+        <v>577</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="51"/>
+        <v>578</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="51"/>
+        <v>579</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="51"/>
+        <v>580</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="51"/>
+        <v>581</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="51"/>
+        <v>582</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="51"/>
+        <v>583</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="51"/>
+        <v>584</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="51"/>
+        <v>585</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="51"/>
+        <v>586</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="51"/>
+        <v>587</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="51"/>
+        <v>588</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="51"/>
+        <v>589</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="51"/>
+        <v>590</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="51"/>
+        <v>591</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="51"/>
+        <v>592</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="51"/>
+        <v>593</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="51"/>
+        <v>594</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="51"/>
+        <v>595</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="51"/>
+        <v>596</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="51"/>
+        <v>597</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="51"/>
+        <v>598</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="51"/>
+        <v>599</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="51"/>
+        <v>600</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="51"/>
+        <v>601</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="51"/>
+        <v>602</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="51"/>
+        <v>603</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="51"/>
+        <v>604</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="51"/>
+        <v>605</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="51"/>
+        <v>606</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="51"/>
+        <v>607</v>
+      </c>
+      <c r="AJ20" s="65">
+        <v>18</v>
+      </c>
+      <c r="AK20" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2240</v>
+      </c>
+      <c r="AL20" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2241</v>
+      </c>
+      <c r="AM20" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2242</v>
+      </c>
+      <c r="AN20" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2243</v>
+      </c>
+      <c r="AO20" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2244</v>
+      </c>
+      <c r="AP20" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2245</v>
+      </c>
+      <c r="AQ20" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2246</v>
+      </c>
+      <c r="AR20" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2247</v>
+      </c>
+      <c r="AS20" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2248</v>
+      </c>
+      <c r="AT20" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2249</v>
+      </c>
+      <c r="AU20" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>224A</v>
+      </c>
+      <c r="AV20" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>224B</v>
+      </c>
+      <c r="AW20" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>224C</v>
+      </c>
+      <c r="AX20" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>224D</v>
+      </c>
+      <c r="AY20" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>224E</v>
+      </c>
+      <c r="AZ20" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>224F</v>
+      </c>
+      <c r="BA20" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2250</v>
+      </c>
+      <c r="BB20" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2251</v>
+      </c>
+      <c r="BC20" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2252</v>
+      </c>
+      <c r="BD20" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2253</v>
+      </c>
+      <c r="BE20" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2254</v>
+      </c>
+      <c r="BF20" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2255</v>
+      </c>
+      <c r="BG20" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2256</v>
+      </c>
+      <c r="BH20" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2257</v>
+      </c>
+      <c r="BI20" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2258</v>
+      </c>
+      <c r="BJ20" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2259</v>
+      </c>
+      <c r="BK20" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>225A</v>
+      </c>
+      <c r="BL20" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>225B</v>
+      </c>
+      <c r="BM20" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>225C</v>
+      </c>
+      <c r="BN20" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>225D</v>
+      </c>
+      <c r="BO20" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>225E</v>
+      </c>
+      <c r="BP20" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>225F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68" ht="27" customHeight="1">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="34"/>
+        <v>608</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:AG21" si="52">B21+1</f>
+        <v>609</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="52"/>
+        <v>610</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="52"/>
+        <v>611</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="52"/>
+        <v>612</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="52"/>
+        <v>613</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="52"/>
+        <v>614</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="52"/>
+        <v>615</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="52"/>
+        <v>616</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="52"/>
+        <v>617</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="52"/>
+        <v>618</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="52"/>
+        <v>619</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="52"/>
+        <v>620</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="52"/>
+        <v>621</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="52"/>
+        <v>622</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="52"/>
+        <v>623</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="52"/>
+        <v>624</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="52"/>
+        <v>625</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="52"/>
+        <v>626</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="52"/>
+        <v>627</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="52"/>
+        <v>628</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="52"/>
+        <v>629</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="52"/>
+        <v>630</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="52"/>
+        <v>631</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="52"/>
+        <v>632</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="52"/>
+        <v>633</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="52"/>
+        <v>634</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="52"/>
+        <v>635</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="52"/>
+        <v>636</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="52"/>
+        <v>637</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="52"/>
+        <v>638</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="52"/>
+        <v>639</v>
+      </c>
+      <c r="AJ21" s="65">
+        <v>19</v>
+      </c>
+      <c r="AK21" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2260</v>
+      </c>
+      <c r="AL21" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2261</v>
+      </c>
+      <c r="AM21" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2262</v>
+      </c>
+      <c r="AN21" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2263</v>
+      </c>
+      <c r="AO21" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2264</v>
+      </c>
+      <c r="AP21" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2265</v>
+      </c>
+      <c r="AQ21" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2266</v>
+      </c>
+      <c r="AR21" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2267</v>
+      </c>
+      <c r="AS21" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2268</v>
+      </c>
+      <c r="AT21" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2269</v>
+      </c>
+      <c r="AU21" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>226A</v>
+      </c>
+      <c r="AV21" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>226B</v>
+      </c>
+      <c r="AW21" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>226C</v>
+      </c>
+      <c r="AX21" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>226D</v>
+      </c>
+      <c r="AY21" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>226E</v>
+      </c>
+      <c r="AZ21" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>226F</v>
+      </c>
+      <c r="BA21" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2270</v>
+      </c>
+      <c r="BB21" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2271</v>
+      </c>
+      <c r="BC21" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2272</v>
+      </c>
+      <c r="BD21" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2273</v>
+      </c>
+      <c r="BE21" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2274</v>
+      </c>
+      <c r="BF21" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2275</v>
+      </c>
+      <c r="BG21" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2276</v>
+      </c>
+      <c r="BH21" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2277</v>
+      </c>
+      <c r="BI21" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2278</v>
+      </c>
+      <c r="BJ21" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2279</v>
+      </c>
+      <c r="BK21" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>227A</v>
+      </c>
+      <c r="BL21" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>227B</v>
+      </c>
+      <c r="BM21" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>227C</v>
+      </c>
+      <c r="BN21" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>227D</v>
+      </c>
+      <c r="BO21" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>227E</v>
+      </c>
+      <c r="BP21" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>227F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" ht="27" customHeight="1">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="34"/>
+        <v>640</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:AG22" si="53">B22+1</f>
+        <v>641</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="53"/>
+        <v>642</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="53"/>
+        <v>643</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="53"/>
+        <v>644</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="53"/>
+        <v>645</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="53"/>
+        <v>646</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="53"/>
+        <v>647</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="53"/>
+        <v>648</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="53"/>
+        <v>649</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="53"/>
+        <v>650</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="53"/>
+        <v>651</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="53"/>
+        <v>652</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="53"/>
+        <v>653</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="53"/>
+        <v>654</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="53"/>
+        <v>655</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="53"/>
+        <v>656</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="53"/>
+        <v>657</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="53"/>
+        <v>658</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="53"/>
+        <v>659</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="53"/>
+        <v>660</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="53"/>
+        <v>661</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="53"/>
+        <v>662</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="53"/>
+        <v>663</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="53"/>
+        <v>664</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="53"/>
+        <v>665</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="53"/>
+        <v>666</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="53"/>
+        <v>667</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="53"/>
+        <v>668</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="53"/>
+        <v>669</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="53"/>
+        <v>670</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="53"/>
+        <v>671</v>
+      </c>
+      <c r="AJ22" s="65">
+        <v>20</v>
+      </c>
+      <c r="AK22" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2280</v>
+      </c>
+      <c r="AL22" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2281</v>
+      </c>
+      <c r="AM22" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2282</v>
+      </c>
+      <c r="AN22" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2283</v>
+      </c>
+      <c r="AO22" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2284</v>
+      </c>
+      <c r="AP22" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2285</v>
+      </c>
+      <c r="AQ22" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2286</v>
+      </c>
+      <c r="AR22" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2287</v>
+      </c>
+      <c r="AS22" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2288</v>
+      </c>
+      <c r="AT22" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2289</v>
+      </c>
+      <c r="AU22" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>228A</v>
+      </c>
+      <c r="AV22" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>228B</v>
+      </c>
+      <c r="AW22" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>228C</v>
+      </c>
+      <c r="AX22" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>228D</v>
+      </c>
+      <c r="AY22" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>228E</v>
+      </c>
+      <c r="AZ22" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>228F</v>
+      </c>
+      <c r="BA22" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2290</v>
+      </c>
+      <c r="BB22" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2291</v>
+      </c>
+      <c r="BC22" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2292</v>
+      </c>
+      <c r="BD22" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2293</v>
+      </c>
+      <c r="BE22" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2294</v>
+      </c>
+      <c r="BF22" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2295</v>
+      </c>
+      <c r="BG22" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2296</v>
+      </c>
+      <c r="BH22" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2297</v>
+      </c>
+      <c r="BI22" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2298</v>
+      </c>
+      <c r="BJ22" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2299</v>
+      </c>
+      <c r="BK22" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>229A</v>
+      </c>
+      <c r="BL22" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>229B</v>
+      </c>
+      <c r="BM22" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>229C</v>
+      </c>
+      <c r="BN22" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>229D</v>
+      </c>
+      <c r="BO22" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>229E</v>
+      </c>
+      <c r="BP22" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>229F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" ht="27" customHeight="1">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="34"/>
+        <v>672</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:AG23" si="54">B23+1</f>
+        <v>673</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="54"/>
+        <v>674</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="54"/>
+        <v>675</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="54"/>
+        <v>676</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="54"/>
+        <v>677</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="54"/>
+        <v>678</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="54"/>
+        <v>679</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="54"/>
+        <v>680</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="54"/>
+        <v>681</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="54"/>
+        <v>682</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="54"/>
+        <v>683</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="54"/>
+        <v>684</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="54"/>
+        <v>685</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="54"/>
+        <v>686</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="54"/>
+        <v>687</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="54"/>
+        <v>688</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="54"/>
+        <v>689</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="54"/>
+        <v>690</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="54"/>
+        <v>691</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="54"/>
+        <v>692</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="54"/>
+        <v>693</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="54"/>
+        <v>694</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="54"/>
+        <v>695</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="54"/>
+        <v>696</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="54"/>
+        <v>697</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="54"/>
+        <v>698</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="54"/>
+        <v>699</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="54"/>
+        <v>700</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="54"/>
+        <v>701</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="54"/>
+        <v>702</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="54"/>
+        <v>703</v>
+      </c>
+      <c r="AJ23" s="65">
+        <v>21</v>
+      </c>
+      <c r="AK23" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>22A0</v>
+      </c>
+      <c r="AL23" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>22A1</v>
+      </c>
+      <c r="AM23" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>22A2</v>
+      </c>
+      <c r="AN23" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>22A3</v>
+      </c>
+      <c r="AO23" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>22A4</v>
+      </c>
+      <c r="AP23" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>22A5</v>
+      </c>
+      <c r="AQ23" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>22A6</v>
+      </c>
+      <c r="AR23" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>22A7</v>
+      </c>
+      <c r="AS23" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>22A8</v>
+      </c>
+      <c r="AT23" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>22A9</v>
+      </c>
+      <c r="AU23" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>22AA</v>
+      </c>
+      <c r="AV23" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>22AB</v>
+      </c>
+      <c r="AW23" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>22AC</v>
+      </c>
+      <c r="AX23" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>22AD</v>
+      </c>
+      <c r="AY23" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>22AE</v>
+      </c>
+      <c r="AZ23" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>22AF</v>
+      </c>
+      <c r="BA23" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>22B0</v>
+      </c>
+      <c r="BB23" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>22B1</v>
+      </c>
+      <c r="BC23" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>22B2</v>
+      </c>
+      <c r="BD23" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>22B3</v>
+      </c>
+      <c r="BE23" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>22B4</v>
+      </c>
+      <c r="BF23" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>22B5</v>
+      </c>
+      <c r="BG23" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>22B6</v>
+      </c>
+      <c r="BH23" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>22B7</v>
+      </c>
+      <c r="BI23" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>22B8</v>
+      </c>
+      <c r="BJ23" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>22B9</v>
+      </c>
+      <c r="BK23" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>22BA</v>
+      </c>
+      <c r="BL23" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>22BB</v>
+      </c>
+      <c r="BM23" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>22BC</v>
+      </c>
+      <c r="BN23" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>22BD</v>
+      </c>
+      <c r="BO23" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>22BE</v>
+      </c>
+      <c r="BP23" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>22BF</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" ht="27" customHeight="1">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="34"/>
+        <v>704</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:AG24" si="55">B24+1</f>
+        <v>705</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="55"/>
+        <v>706</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="55"/>
+        <v>707</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="55"/>
+        <v>708</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="55"/>
+        <v>709</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="55"/>
+        <v>710</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="55"/>
+        <v>711</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="55"/>
+        <v>712</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="55"/>
+        <v>713</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="55"/>
+        <v>714</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="55"/>
+        <v>715</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="55"/>
+        <v>716</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="55"/>
+        <v>717</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="55"/>
+        <v>718</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="55"/>
+        <v>719</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="55"/>
+        <v>720</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="55"/>
+        <v>721</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="55"/>
+        <v>722</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="55"/>
+        <v>723</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="55"/>
+        <v>724</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="55"/>
+        <v>725</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="55"/>
+        <v>726</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="55"/>
+        <v>727</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="55"/>
+        <v>728</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="55"/>
+        <v>729</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="55"/>
+        <v>730</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="55"/>
+        <v>731</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="55"/>
+        <v>732</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="55"/>
+        <v>733</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="55"/>
+        <v>734</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="55"/>
+        <v>735</v>
+      </c>
+      <c r="AJ24" s="65">
+        <v>22</v>
+      </c>
+      <c r="AK24" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>22C0</v>
+      </c>
+      <c r="AL24" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>22C1</v>
+      </c>
+      <c r="AM24" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>22C2</v>
+      </c>
+      <c r="AN24" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>22C3</v>
+      </c>
+      <c r="AO24" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>22C4</v>
+      </c>
+      <c r="AP24" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>22C5</v>
+      </c>
+      <c r="AQ24" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>22C6</v>
+      </c>
+      <c r="AR24" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>22C7</v>
+      </c>
+      <c r="AS24" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>22C8</v>
+      </c>
+      <c r="AT24" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>22C9</v>
+      </c>
+      <c r="AU24" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>22CA</v>
+      </c>
+      <c r="AV24" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>22CB</v>
+      </c>
+      <c r="AW24" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>22CC</v>
+      </c>
+      <c r="AX24" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>22CD</v>
+      </c>
+      <c r="AY24" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>22CE</v>
+      </c>
+      <c r="AZ24" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>22CF</v>
+      </c>
+      <c r="BA24" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>22D0</v>
+      </c>
+      <c r="BB24" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>22D1</v>
+      </c>
+      <c r="BC24" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>22D2</v>
+      </c>
+      <c r="BD24" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>22D3</v>
+      </c>
+      <c r="BE24" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>22D4</v>
+      </c>
+      <c r="BF24" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>22D5</v>
+      </c>
+      <c r="BG24" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>22D6</v>
+      </c>
+      <c r="BH24" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>22D7</v>
+      </c>
+      <c r="BI24" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>22D8</v>
+      </c>
+      <c r="BJ24" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>22D9</v>
+      </c>
+      <c r="BK24" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>22DA</v>
+      </c>
+      <c r="BL24" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>22DB</v>
+      </c>
+      <c r="BM24" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>22DC</v>
+      </c>
+      <c r="BN24" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>22DD</v>
+      </c>
+      <c r="BO24" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>22DE</v>
+      </c>
+      <c r="BP24" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>22DF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68" ht="27" customHeight="1">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="34"/>
+        <v>736</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:AG25" si="56">B25+1</f>
+        <v>737</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="56"/>
+        <v>738</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="56"/>
+        <v>739</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="56"/>
+        <v>740</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="56"/>
+        <v>741</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="56"/>
+        <v>742</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="56"/>
+        <v>743</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="56"/>
+        <v>744</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="56"/>
+        <v>745</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="56"/>
+        <v>746</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="56"/>
+        <v>747</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="56"/>
+        <v>748</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="56"/>
+        <v>749</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="56"/>
+        <v>750</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="56"/>
+        <v>751</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="56"/>
+        <v>752</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="56"/>
+        <v>753</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="56"/>
+        <v>754</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="56"/>
+        <v>755</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="56"/>
+        <v>756</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="56"/>
+        <v>757</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="56"/>
+        <v>758</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="56"/>
+        <v>759</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="56"/>
+        <v>760</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="56"/>
+        <v>761</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="56"/>
+        <v>762</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="56"/>
+        <v>763</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="56"/>
+        <v>764</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="56"/>
+        <v>765</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="56"/>
+        <v>766</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="56"/>
+        <v>767</v>
+      </c>
+      <c r="AJ25" s="65">
+        <v>23</v>
+      </c>
+      <c r="AK25" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>22E0</v>
+      </c>
+      <c r="AL25" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>22E1</v>
+      </c>
+      <c r="AM25" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>22E2</v>
+      </c>
+      <c r="AN25" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>22E3</v>
+      </c>
+      <c r="AO25" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>22E4</v>
+      </c>
+      <c r="AP25" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>22E5</v>
+      </c>
+      <c r="AQ25" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>22E6</v>
+      </c>
+      <c r="AR25" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>22E7</v>
+      </c>
+      <c r="AS25" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>22E8</v>
+      </c>
+      <c r="AT25" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>22E9</v>
+      </c>
+      <c r="AU25" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>22EA</v>
+      </c>
+      <c r="AV25" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>22EB</v>
+      </c>
+      <c r="AW25" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>22EC</v>
+      </c>
+      <c r="AX25" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>22ED</v>
+      </c>
+      <c r="AY25" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>22EE</v>
+      </c>
+      <c r="AZ25" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>22EF</v>
+      </c>
+      <c r="BA25" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>22F0</v>
+      </c>
+      <c r="BB25" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>22F1</v>
+      </c>
+      <c r="BC25" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>22F2</v>
+      </c>
+      <c r="BD25" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>22F3</v>
+      </c>
+      <c r="BE25" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>22F4</v>
+      </c>
+      <c r="BF25" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>22F5</v>
+      </c>
+      <c r="BG25" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>22F6</v>
+      </c>
+      <c r="BH25" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>22F7</v>
+      </c>
+      <c r="BI25" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>22F8</v>
+      </c>
+      <c r="BJ25" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>22F9</v>
+      </c>
+      <c r="BK25" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>22FA</v>
+      </c>
+      <c r="BL25" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>22FB</v>
+      </c>
+      <c r="BM25" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>22FC</v>
+      </c>
+      <c r="BN25" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>22FD</v>
+      </c>
+      <c r="BO25" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>22FE</v>
+      </c>
+      <c r="BP25" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>22FF</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68" ht="27" customHeight="1">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="34"/>
+        <v>768</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:AG26" si="57">B26+1</f>
+        <v>769</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="57"/>
+        <v>770</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="57"/>
+        <v>771</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="57"/>
+        <v>772</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="57"/>
+        <v>773</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="57"/>
+        <v>774</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="57"/>
+        <v>775</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="57"/>
+        <v>776</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="57"/>
+        <v>777</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="57"/>
+        <v>778</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="57"/>
+        <v>779</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="57"/>
+        <v>780</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="57"/>
+        <v>781</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="57"/>
+        <v>782</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="57"/>
+        <v>783</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="57"/>
+        <v>784</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="57"/>
+        <v>785</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="57"/>
+        <v>786</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="57"/>
+        <v>787</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="57"/>
+        <v>788</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="57"/>
+        <v>789</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="57"/>
+        <v>790</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="57"/>
+        <v>791</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="57"/>
+        <v>792</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="57"/>
+        <v>793</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="57"/>
+        <v>794</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="57"/>
+        <v>795</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="57"/>
+        <v>796</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="57"/>
+        <v>797</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="57"/>
+        <v>798</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="57"/>
+        <v>799</v>
+      </c>
+      <c r="AJ26" s="65">
+        <v>24</v>
+      </c>
+      <c r="AK26" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2300</v>
+      </c>
+      <c r="AL26" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2301</v>
+      </c>
+      <c r="AM26" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2302</v>
+      </c>
+      <c r="AN26" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2303</v>
+      </c>
+      <c r="AO26" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2304</v>
+      </c>
+      <c r="AP26" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2305</v>
+      </c>
+      <c r="AQ26" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2306</v>
+      </c>
+      <c r="AR26" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2307</v>
+      </c>
+      <c r="AS26" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2308</v>
+      </c>
+      <c r="AT26" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2309</v>
+      </c>
+      <c r="AU26" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>230A</v>
+      </c>
+      <c r="AV26" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>230B</v>
+      </c>
+      <c r="AW26" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>230C</v>
+      </c>
+      <c r="AX26" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>230D</v>
+      </c>
+      <c r="AY26" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>230E</v>
+      </c>
+      <c r="AZ26" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>230F</v>
+      </c>
+      <c r="BA26" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2310</v>
+      </c>
+      <c r="BB26" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2311</v>
+      </c>
+      <c r="BC26" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2312</v>
+      </c>
+      <c r="BD26" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2313</v>
+      </c>
+      <c r="BE26" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2314</v>
+      </c>
+      <c r="BF26" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2315</v>
+      </c>
+      <c r="BG26" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2316</v>
+      </c>
+      <c r="BH26" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2317</v>
+      </c>
+      <c r="BI26" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2318</v>
+      </c>
+      <c r="BJ26" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2319</v>
+      </c>
+      <c r="BK26" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>231A</v>
+      </c>
+      <c r="BL26" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>231B</v>
+      </c>
+      <c r="BM26" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>231C</v>
+      </c>
+      <c r="BN26" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>231D</v>
+      </c>
+      <c r="BO26" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>231E</v>
+      </c>
+      <c r="BP26" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>231F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68" ht="27" customHeight="1">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="34"/>
+        <v>800</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:AG27" si="58">B27+1</f>
+        <v>801</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="58"/>
+        <v>802</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="58"/>
+        <v>803</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="58"/>
+        <v>804</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="58"/>
+        <v>805</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="58"/>
+        <v>806</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="58"/>
+        <v>807</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="58"/>
+        <v>808</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="58"/>
+        <v>809</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="58"/>
+        <v>810</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="58"/>
+        <v>811</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="58"/>
+        <v>812</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="58"/>
+        <v>813</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="58"/>
+        <v>814</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="58"/>
+        <v>815</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="58"/>
+        <v>816</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="58"/>
+        <v>817</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="58"/>
+        <v>818</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="58"/>
+        <v>819</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="58"/>
+        <v>820</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="58"/>
+        <v>821</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="58"/>
+        <v>822</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="58"/>
+        <v>823</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="58"/>
+        <v>824</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="58"/>
+        <v>825</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="58"/>
+        <v>826</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="58"/>
+        <v>827</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="58"/>
+        <v>828</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="58"/>
+        <v>829</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="58"/>
+        <v>830</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="58"/>
+        <v>831</v>
+      </c>
+      <c r="AJ27" s="65">
+        <v>25</v>
+      </c>
+      <c r="AK27" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2320</v>
+      </c>
+      <c r="AL27" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2321</v>
+      </c>
+      <c r="AM27" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2322</v>
+      </c>
+      <c r="AN27" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2323</v>
+      </c>
+      <c r="AO27" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2324</v>
+      </c>
+      <c r="AP27" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2325</v>
+      </c>
+      <c r="AQ27" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2326</v>
+      </c>
+      <c r="AR27" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2327</v>
+      </c>
+      <c r="AS27" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2328</v>
+      </c>
+      <c r="AT27" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2329</v>
+      </c>
+      <c r="AU27" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>232A</v>
+      </c>
+      <c r="AV27" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>232B</v>
+      </c>
+      <c r="AW27" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>232C</v>
+      </c>
+      <c r="AX27" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>232D</v>
+      </c>
+      <c r="AY27" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>232E</v>
+      </c>
+      <c r="AZ27" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>232F</v>
+      </c>
+      <c r="BA27" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2330</v>
+      </c>
+      <c r="BB27" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2331</v>
+      </c>
+      <c r="BC27" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2332</v>
+      </c>
+      <c r="BD27" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2333</v>
+      </c>
+      <c r="BE27" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2334</v>
+      </c>
+      <c r="BF27" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2335</v>
+      </c>
+      <c r="BG27" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2336</v>
+      </c>
+      <c r="BH27" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2337</v>
+      </c>
+      <c r="BI27" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2338</v>
+      </c>
+      <c r="BJ27" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2339</v>
+      </c>
+      <c r="BK27" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>233A</v>
+      </c>
+      <c r="BL27" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>233B</v>
+      </c>
+      <c r="BM27" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>233C</v>
+      </c>
+      <c r="BN27" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>233D</v>
+      </c>
+      <c r="BO27" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>233E</v>
+      </c>
+      <c r="BP27" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>233F</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68" ht="27" customHeight="1">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="34"/>
+        <v>832</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:AG28" si="59">B28+1</f>
+        <v>833</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="59"/>
+        <v>834</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="59"/>
+        <v>835</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="59"/>
+        <v>836</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="59"/>
+        <v>837</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="59"/>
+        <v>838</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="59"/>
+        <v>839</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="59"/>
+        <v>840</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="59"/>
+        <v>841</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="59"/>
+        <v>842</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="59"/>
+        <v>843</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="59"/>
+        <v>844</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="59"/>
+        <v>845</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="59"/>
+        <v>846</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="59"/>
+        <v>847</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="59"/>
+        <v>848</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="59"/>
+        <v>849</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="59"/>
+        <v>850</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="59"/>
+        <v>851</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="59"/>
+        <v>852</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="59"/>
+        <v>853</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="59"/>
+        <v>854</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="59"/>
+        <v>855</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="59"/>
+        <v>856</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="59"/>
+        <v>857</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="59"/>
+        <v>858</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="59"/>
+        <v>859</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="59"/>
+        <v>860</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="59"/>
+        <v>861</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="59"/>
+        <v>862</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="59"/>
+        <v>863</v>
+      </c>
+      <c r="AJ28" s="65">
+        <v>26</v>
+      </c>
+      <c r="AK28" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2340</v>
+      </c>
+      <c r="AL28" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2341</v>
+      </c>
+      <c r="AM28" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2342</v>
+      </c>
+      <c r="AN28" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2343</v>
+      </c>
+      <c r="AO28" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2344</v>
+      </c>
+      <c r="AP28" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2345</v>
+      </c>
+      <c r="AQ28" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2346</v>
+      </c>
+      <c r="AR28" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2347</v>
+      </c>
+      <c r="AS28" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2348</v>
+      </c>
+      <c r="AT28" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2349</v>
+      </c>
+      <c r="AU28" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>234A</v>
+      </c>
+      <c r="AV28" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>234B</v>
+      </c>
+      <c r="AW28" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>234C</v>
+      </c>
+      <c r="AX28" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>234D</v>
+      </c>
+      <c r="AY28" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>234E</v>
+      </c>
+      <c r="AZ28" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>234F</v>
+      </c>
+      <c r="BA28" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2350</v>
+      </c>
+      <c r="BB28" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2351</v>
+      </c>
+      <c r="BC28" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2352</v>
+      </c>
+      <c r="BD28" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2353</v>
+      </c>
+      <c r="BE28" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2354</v>
+      </c>
+      <c r="BF28" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2355</v>
+      </c>
+      <c r="BG28" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2356</v>
+      </c>
+      <c r="BH28" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2357</v>
+      </c>
+      <c r="BI28" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2358</v>
+      </c>
+      <c r="BJ28" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2359</v>
+      </c>
+      <c r="BK28" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>235A</v>
+      </c>
+      <c r="BL28" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>235B</v>
+      </c>
+      <c r="BM28" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>235C</v>
+      </c>
+      <c r="BN28" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>235D</v>
+      </c>
+      <c r="BO28" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>235E</v>
+      </c>
+      <c r="BP28" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>235F</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68" ht="27" customHeight="1">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="34"/>
+        <v>864</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:AG29" si="60">B29+1</f>
+        <v>865</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="60"/>
+        <v>866</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="60"/>
+        <v>867</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="60"/>
+        <v>868</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="60"/>
+        <v>869</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="60"/>
+        <v>870</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="60"/>
+        <v>871</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="60"/>
+        <v>872</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="60"/>
+        <v>873</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="60"/>
+        <v>874</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="60"/>
+        <v>875</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="60"/>
+        <v>876</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="60"/>
+        <v>877</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="60"/>
+        <v>878</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="60"/>
+        <v>879</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="60"/>
+        <v>880</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="60"/>
+        <v>881</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="60"/>
+        <v>882</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="60"/>
+        <v>883</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="60"/>
+        <v>884</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="60"/>
+        <v>885</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="60"/>
+        <v>886</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="60"/>
+        <v>887</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="60"/>
+        <v>888</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="60"/>
+        <v>889</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="60"/>
+        <v>890</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="60"/>
+        <v>891</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="60"/>
+        <v>892</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="60"/>
+        <v>893</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="60"/>
+        <v>894</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="60"/>
+        <v>895</v>
+      </c>
+      <c r="AJ29" s="65">
+        <v>27</v>
+      </c>
+      <c r="AK29" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2360</v>
+      </c>
+      <c r="AL29" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2361</v>
+      </c>
+      <c r="AM29" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2362</v>
+      </c>
+      <c r="AN29" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2363</v>
+      </c>
+      <c r="AO29" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2364</v>
+      </c>
+      <c r="AP29" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2365</v>
+      </c>
+      <c r="AQ29" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2366</v>
+      </c>
+      <c r="AR29" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2367</v>
+      </c>
+      <c r="AS29" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2368</v>
+      </c>
+      <c r="AT29" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2369</v>
+      </c>
+      <c r="AU29" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>236A</v>
+      </c>
+      <c r="AV29" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>236B</v>
+      </c>
+      <c r="AW29" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>236C</v>
+      </c>
+      <c r="AX29" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>236D</v>
+      </c>
+      <c r="AY29" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>236E</v>
+      </c>
+      <c r="AZ29" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>236F</v>
+      </c>
+      <c r="BA29" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2370</v>
+      </c>
+      <c r="BB29" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2371</v>
+      </c>
+      <c r="BC29" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2372</v>
+      </c>
+      <c r="BD29" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2373</v>
+      </c>
+      <c r="BE29" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2374</v>
+      </c>
+      <c r="BF29" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2375</v>
+      </c>
+      <c r="BG29" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2376</v>
+      </c>
+      <c r="BH29" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2377</v>
+      </c>
+      <c r="BI29" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2378</v>
+      </c>
+      <c r="BJ29" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2379</v>
+      </c>
+      <c r="BK29" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>237A</v>
+      </c>
+      <c r="BL29" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>237B</v>
+      </c>
+      <c r="BM29" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>237C</v>
+      </c>
+      <c r="BN29" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>237D</v>
+      </c>
+      <c r="BO29" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>237E</v>
+      </c>
+      <c r="BP29" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>237F</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68" ht="27" customHeight="1">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="34"/>
+        <v>896</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:AG30" si="61">B30+1</f>
+        <v>897</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="61"/>
+        <v>898</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="61"/>
+        <v>899</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="61"/>
+        <v>900</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="61"/>
+        <v>901</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="61"/>
+        <v>902</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="61"/>
+        <v>903</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="61"/>
+        <v>904</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="61"/>
+        <v>905</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="61"/>
+        <v>906</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="61"/>
+        <v>907</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="61"/>
+        <v>908</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="61"/>
+        <v>909</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="61"/>
+        <v>910</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="61"/>
+        <v>911</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="61"/>
+        <v>912</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="61"/>
+        <v>913</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="61"/>
+        <v>914</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="61"/>
+        <v>915</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="61"/>
+        <v>916</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="61"/>
+        <v>917</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="61"/>
+        <v>918</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="61"/>
+        <v>919</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="61"/>
+        <v>920</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="61"/>
+        <v>921</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="61"/>
+        <v>922</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="61"/>
+        <v>923</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="61"/>
+        <v>924</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="61"/>
+        <v>925</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="61"/>
+        <v>926</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="61"/>
+        <v>927</v>
+      </c>
+      <c r="AJ30" s="65">
+        <v>28</v>
+      </c>
+      <c r="AK30" s="66" t="str">
+        <f t="shared" si="33"/>
+        <v>2380</v>
+      </c>
+      <c r="AL30" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>2381</v>
+      </c>
+      <c r="AM30" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>2382</v>
+      </c>
+      <c r="AN30" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>2383</v>
+      </c>
+      <c r="AO30" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>2384</v>
+      </c>
+      <c r="AP30" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>2385</v>
+      </c>
+      <c r="AQ30" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>2386</v>
+      </c>
+      <c r="AR30" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>2387</v>
+      </c>
+      <c r="AS30" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>2388</v>
+      </c>
+      <c r="AT30" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>2389</v>
+      </c>
+      <c r="AU30" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>238A</v>
+      </c>
+      <c r="AV30" s="67" t="str">
+        <f t="shared" si="11"/>
+        <v>238B</v>
+      </c>
+      <c r="AW30" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>238C</v>
+      </c>
+      <c r="AX30" s="67" t="str">
+        <f t="shared" si="13"/>
+        <v>238D</v>
+      </c>
+      <c r="AY30" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>238E</v>
+      </c>
+      <c r="AZ30" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>238F</v>
+      </c>
+      <c r="BA30" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>2390</v>
+      </c>
+      <c r="BB30" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>2391</v>
+      </c>
+      <c r="BC30" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v>2392</v>
+      </c>
+      <c r="BD30" s="67" t="str">
+        <f t="shared" si="19"/>
+        <v>2393</v>
+      </c>
+      <c r="BE30" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>2394</v>
+      </c>
+      <c r="BF30" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>2395</v>
+      </c>
+      <c r="BG30" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>2396</v>
+      </c>
+      <c r="BH30" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>2397</v>
+      </c>
+      <c r="BI30" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>2398</v>
+      </c>
+      <c r="BJ30" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>2399</v>
+      </c>
+      <c r="BK30" s="67" t="str">
+        <f t="shared" si="26"/>
+        <v>239A</v>
+      </c>
+      <c r="BL30" s="67" t="str">
+        <f t="shared" si="27"/>
+        <v>239B</v>
+      </c>
+      <c r="BM30" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>239C</v>
+      </c>
+      <c r="BN30" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>239D</v>
+      </c>
+      <c r="BO30" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>239E</v>
+      </c>
+      <c r="BP30" s="68" t="str">
+        <f t="shared" si="31"/>
+        <v>239F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68" ht="27" customHeight="1" thickBot="1">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="34"/>
+        <v>928</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:AG31" si="62">B31+1</f>
+        <v>929</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="62"/>
+        <v>930</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="62"/>
+        <v>931</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="62"/>
+        <v>932</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="62"/>
+        <v>933</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="62"/>
+        <v>934</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="62"/>
+        <v>935</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="62"/>
+        <v>936</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="62"/>
+        <v>937</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="62"/>
+        <v>938</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="62"/>
+        <v>939</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="62"/>
+        <v>940</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="62"/>
+        <v>941</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="62"/>
+        <v>942</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="62"/>
+        <v>943</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="62"/>
+        <v>944</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="62"/>
+        <v>945</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="62"/>
+        <v>946</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="62"/>
+        <v>947</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="62"/>
+        <v>948</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="62"/>
+        <v>949</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="62"/>
+        <v>950</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="62"/>
+        <v>951</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="62"/>
+        <v>952</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="62"/>
+        <v>953</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="62"/>
+        <v>954</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="62"/>
+        <v>955</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="62"/>
+        <v>956</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="62"/>
+        <v>957</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="62"/>
+        <v>958</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="62"/>
+        <v>959</v>
+      </c>
+      <c r="AJ31" s="65">
+        <v>29</v>
+      </c>
+      <c r="AK31" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>23A0</v>
+      </c>
+      <c r="AL31" s="70" t="str">
+        <f t="shared" si="1"/>
+        <v>23A1</v>
+      </c>
+      <c r="AM31" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v>23A2</v>
+      </c>
+      <c r="AN31" s="70" t="str">
+        <f t="shared" si="3"/>
+        <v>23A3</v>
+      </c>
+      <c r="AO31" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v>23A4</v>
+      </c>
+      <c r="AP31" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v>23A5</v>
+      </c>
+      <c r="AQ31" s="70" t="str">
+        <f t="shared" si="6"/>
+        <v>23A6</v>
+      </c>
+      <c r="AR31" s="70" t="str">
+        <f t="shared" si="7"/>
+        <v>23A7</v>
+      </c>
+      <c r="AS31" s="70" t="str">
+        <f t="shared" si="8"/>
+        <v>23A8</v>
+      </c>
+      <c r="AT31" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>23A9</v>
+      </c>
+      <c r="AU31" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>23AA</v>
+      </c>
+      <c r="AV31" s="70" t="str">
+        <f t="shared" si="11"/>
+        <v>23AB</v>
+      </c>
+      <c r="AW31" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>23AC</v>
+      </c>
+      <c r="AX31" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>23AD</v>
+      </c>
+      <c r="AY31" s="70" t="str">
+        <f t="shared" si="14"/>
+        <v>23AE</v>
+      </c>
+      <c r="AZ31" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>23AF</v>
+      </c>
+      <c r="BA31" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v>23B0</v>
+      </c>
+      <c r="BB31" s="70" t="str">
+        <f t="shared" si="17"/>
+        <v>23B1</v>
+      </c>
+      <c r="BC31" s="70" t="str">
+        <f t="shared" si="18"/>
+        <v>23B2</v>
+      </c>
+      <c r="BD31" s="70" t="str">
+        <f t="shared" si="19"/>
+        <v>23B3</v>
+      </c>
+      <c r="BE31" s="70" t="str">
+        <f t="shared" si="20"/>
+        <v>23B4</v>
+      </c>
+      <c r="BF31" s="70" t="str">
+        <f t="shared" si="21"/>
+        <v>23B5</v>
+      </c>
+      <c r="BG31" s="70" t="str">
+        <f t="shared" si="22"/>
+        <v>23B6</v>
+      </c>
+      <c r="BH31" s="70" t="str">
+        <f t="shared" si="23"/>
+        <v>23B7</v>
+      </c>
+      <c r="BI31" s="70" t="str">
+        <f t="shared" si="24"/>
+        <v>23B8</v>
+      </c>
+      <c r="BJ31" s="70" t="str">
+        <f t="shared" si="25"/>
+        <v>23B9</v>
+      </c>
+      <c r="BK31" s="70" t="str">
+        <f t="shared" si="26"/>
+        <v>23BA</v>
+      </c>
+      <c r="BL31" s="70" t="str">
+        <f t="shared" si="27"/>
+        <v>23BB</v>
+      </c>
+      <c r="BM31" s="70" t="str">
+        <f t="shared" si="28"/>
+        <v>23BC</v>
+      </c>
+      <c r="BN31" s="70" t="str">
+        <f t="shared" si="29"/>
+        <v>23BD</v>
+      </c>
+      <c r="BO31" s="70" t="str">
+        <f t="shared" si="30"/>
+        <v>23BE</v>
+      </c>
+      <c r="BP31" s="71" t="str">
+        <f t="shared" si="31"/>
+        <v>23BF</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15"/>
@@ -5319,7 +13752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C58"/>
   <sheetViews>
@@ -5387,10 +13820,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="63" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="50" t="s">
@@ -5398,8 +13831,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="51" t="s">
         <v>186</v>
       </c>
@@ -5438,10 +13871,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="63" t="s">
         <v>196</v>
       </c>
       <c r="C13" s="50" t="s">
@@ -5449,8 +13882,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="51" t="s">
         <v>198</v>
       </c>
@@ -5589,10 +14022,10 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="50" t="s">
@@ -5600,8 +14033,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="51" t="s">
         <v>218</v>
       </c>
@@ -5629,10 +14062,10 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="63" t="s">
         <v>223</v>
       </c>
       <c r="C33" s="50" t="s">
@@ -5640,8 +14073,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="51" t="s">
         <v>225</v>
       </c>
@@ -5741,22 +14174,22 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="63" t="s">
         <v>230</v>
       </c>
       <c r="B47" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="63" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A48" s="54"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="54"/>
+      <c r="C48" s="64"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" s="47" t="s">
@@ -5780,22 +14213,22 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="63" t="s">
         <v>230</v>
       </c>
       <c r="B52" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="63" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A53" s="54"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="54"/>
+      <c r="C53" s="64"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" s="47" t="s">
@@ -5819,31 +14252,25 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="63" t="s">
         <v>230</v>
       </c>
       <c r="B57" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="63" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A58" s="54"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C58" s="54"/>
+      <c r="C58" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -5852,6 +14279,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/super-duper-display-image.xlsx
+++ b/doc/super-duper-display-image.xlsx
@@ -1438,24 +1438,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,6 +1467,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3462,6 +3462,184 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>161244</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>212612</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>272142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331958" y="1501887"/>
+          <a:ext cx="3929404" cy="3532755"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8256"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="182880" tIns="182880" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" algn="l">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>Command</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>&gt; Internet</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="3200" spc="500" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="l">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>Game</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="3200" spc="500" baseline="0">
+            <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="l">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>Shell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="l">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3200" spc="500" baseline="0">
+            <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3887,16 +4065,16 @@
       <c r="P18" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="59" t="s">
+      <c r="Q18" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="R18" s="60"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54" t="s">
         <v>87</v>
@@ -3939,11 +4117,11 @@
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="60"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="70"/>
       <c r="L20" s="53"/>
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
@@ -3968,7 +4146,7 @@
   <dimension ref="C14:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
@@ -4021,8 +4199,8 @@
       <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="3:17" s="56" customFormat="1">
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
@@ -4038,9 +4216,9 @@
       <c r="Q19" s="57"/>
     </row>
     <row r="20" spans="3:17" s="56" customFormat="1">
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4187,16 +4365,16 @@
       <c r="P18" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="59" t="s">
+      <c r="Q18" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="R18" s="60"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54" t="s">
         <v>87</v>
@@ -4239,11 +4417,11 @@
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="60"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="70"/>
       <c r="L20" s="53"/>
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
@@ -4267,14 +4445,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="BD12" sqref="BD12"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AY6" sqref="AY6:AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="68" width="4.85546875" style="65"/>
+    <col min="36" max="68" width="4.85546875" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1">
@@ -4374,100 +4552,100 @@
       <c r="AG1">
         <v>31</v>
       </c>
-      <c r="AK1" s="65">
+      <c r="AK1" s="59">
         <v>0</v>
       </c>
-      <c r="AL1" s="65">
+      <c r="AL1" s="59">
         <v>1</v>
       </c>
-      <c r="AM1" s="65">
+      <c r="AM1" s="59">
         <v>2</v>
       </c>
-      <c r="AN1" s="65">
+      <c r="AN1" s="59">
         <v>3</v>
       </c>
-      <c r="AO1" s="65">
+      <c r="AO1" s="59">
         <v>4</v>
       </c>
-      <c r="AP1" s="65">
+      <c r="AP1" s="59">
         <v>5</v>
       </c>
-      <c r="AQ1" s="65">
+      <c r="AQ1" s="59">
         <v>6</v>
       </c>
-      <c r="AR1" s="65">
+      <c r="AR1" s="59">
         <v>7</v>
       </c>
-      <c r="AS1" s="65">
+      <c r="AS1" s="59">
         <v>8</v>
       </c>
-      <c r="AT1" s="65">
+      <c r="AT1" s="59">
         <v>9</v>
       </c>
-      <c r="AU1" s="65">
+      <c r="AU1" s="59">
         <v>10</v>
       </c>
-      <c r="AV1" s="65">
+      <c r="AV1" s="59">
         <v>11</v>
       </c>
-      <c r="AW1" s="65">
+      <c r="AW1" s="59">
         <v>12</v>
       </c>
-      <c r="AX1" s="65">
+      <c r="AX1" s="59">
         <v>13</v>
       </c>
-      <c r="AY1" s="65">
+      <c r="AY1" s="59">
         <v>14</v>
       </c>
-      <c r="AZ1" s="65">
+      <c r="AZ1" s="59">
         <v>15</v>
       </c>
-      <c r="BA1" s="65">
+      <c r="BA1" s="59">
         <v>16</v>
       </c>
-      <c r="BB1" s="65">
+      <c r="BB1" s="59">
         <v>17</v>
       </c>
-      <c r="BC1" s="65">
+      <c r="BC1" s="59">
         <v>18</v>
       </c>
-      <c r="BD1" s="65">
+      <c r="BD1" s="59">
         <v>19</v>
       </c>
-      <c r="BE1" s="65">
+      <c r="BE1" s="59">
         <v>20</v>
       </c>
-      <c r="BF1" s="65">
+      <c r="BF1" s="59">
         <v>21</v>
       </c>
-      <c r="BG1" s="65">
+      <c r="BG1" s="59">
         <v>22</v>
       </c>
-      <c r="BH1" s="65">
+      <c r="BH1" s="59">
         <v>23</v>
       </c>
-      <c r="BI1" s="65">
+      <c r="BI1" s="59">
         <v>24</v>
       </c>
-      <c r="BJ1" s="65">
+      <c r="BJ1" s="59">
         <v>25</v>
       </c>
-      <c r="BK1" s="65">
+      <c r="BK1" s="59">
         <v>26</v>
       </c>
-      <c r="BL1" s="65">
+      <c r="BL1" s="59">
         <v>27</v>
       </c>
-      <c r="BM1" s="65">
+      <c r="BM1" s="59">
         <v>28</v>
       </c>
-      <c r="BN1" s="65">
+      <c r="BN1" s="59">
         <v>29</v>
       </c>
-      <c r="BO1" s="65">
+      <c r="BO1" s="59">
         <v>30</v>
       </c>
-      <c r="BP1" s="65">
+      <c r="BP1" s="59">
         <v>31</v>
       </c>
     </row>
@@ -4602,134 +4780,134 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AJ2" s="65">
+      <c r="AJ2" s="59">
         <v>0</v>
       </c>
-      <c r="AK2" s="72" t="str">
+      <c r="AK2" s="66" t="str">
         <f>DEC2HEX(8192+B2)</f>
         <v>2000</v>
       </c>
-      <c r="AL2" s="73" t="str">
+      <c r="AL2" s="67" t="str">
         <f t="shared" ref="AL2:AL31" si="1">DEC2HEX(8192+C2)</f>
         <v>2001</v>
       </c>
-      <c r="AM2" s="73" t="str">
+      <c r="AM2" s="67" t="str">
         <f t="shared" ref="AM2:AM31" si="2">DEC2HEX(8192+D2)</f>
         <v>2002</v>
       </c>
-      <c r="AN2" s="73" t="str">
+      <c r="AN2" s="67" t="str">
         <f t="shared" ref="AN2:AN31" si="3">DEC2HEX(8192+E2)</f>
         <v>2003</v>
       </c>
-      <c r="AO2" s="73" t="str">
+      <c r="AO2" s="67" t="str">
         <f t="shared" ref="AO2:AO31" si="4">DEC2HEX(8192+F2)</f>
         <v>2004</v>
       </c>
-      <c r="AP2" s="73" t="str">
+      <c r="AP2" s="67" t="str">
         <f t="shared" ref="AP2:AP31" si="5">DEC2HEX(8192+G2)</f>
         <v>2005</v>
       </c>
-      <c r="AQ2" s="73" t="str">
+      <c r="AQ2" s="67" t="str">
         <f t="shared" ref="AQ2:AQ31" si="6">DEC2HEX(8192+H2)</f>
         <v>2006</v>
       </c>
-      <c r="AR2" s="73" t="str">
+      <c r="AR2" s="67" t="str">
         <f t="shared" ref="AR2:AR31" si="7">DEC2HEX(8192+I2)</f>
         <v>2007</v>
       </c>
-      <c r="AS2" s="73" t="str">
+      <c r="AS2" s="67" t="str">
         <f t="shared" ref="AS2:AS31" si="8">DEC2HEX(8192+J2)</f>
         <v>2008</v>
       </c>
-      <c r="AT2" s="73" t="str">
+      <c r="AT2" s="67" t="str">
         <f t="shared" ref="AT2:AT31" si="9">DEC2HEX(8192+K2)</f>
         <v>2009</v>
       </c>
-      <c r="AU2" s="73" t="str">
+      <c r="AU2" s="67" t="str">
         <f t="shared" ref="AU2:AU31" si="10">DEC2HEX(8192+L2)</f>
         <v>200A</v>
       </c>
-      <c r="AV2" s="73" t="str">
+      <c r="AV2" s="67" t="str">
         <f t="shared" ref="AV2:AV31" si="11">DEC2HEX(8192+M2)</f>
         <v>200B</v>
       </c>
-      <c r="AW2" s="73" t="str">
+      <c r="AW2" s="67" t="str">
         <f t="shared" ref="AW2:AW31" si="12">DEC2HEX(8192+N2)</f>
         <v>200C</v>
       </c>
-      <c r="AX2" s="73" t="str">
+      <c r="AX2" s="67" t="str">
         <f t="shared" ref="AX2:AX31" si="13">DEC2HEX(8192+O2)</f>
         <v>200D</v>
       </c>
-      <c r="AY2" s="73" t="str">
+      <c r="AY2" s="67" t="str">
         <f t="shared" ref="AY2:AY31" si="14">DEC2HEX(8192+P2)</f>
         <v>200E</v>
       </c>
-      <c r="AZ2" s="73" t="str">
+      <c r="AZ2" s="67" t="str">
         <f t="shared" ref="AZ2:AZ31" si="15">DEC2HEX(8192+Q2)</f>
         <v>200F</v>
       </c>
-      <c r="BA2" s="73" t="str">
+      <c r="BA2" s="67" t="str">
         <f t="shared" ref="BA2:BA31" si="16">DEC2HEX(8192+R2)</f>
         <v>2010</v>
       </c>
-      <c r="BB2" s="73" t="str">
+      <c r="BB2" s="67" t="str">
         <f t="shared" ref="BB2:BB31" si="17">DEC2HEX(8192+S2)</f>
         <v>2011</v>
       </c>
-      <c r="BC2" s="73" t="str">
+      <c r="BC2" s="67" t="str">
         <f t="shared" ref="BC2:BC31" si="18">DEC2HEX(8192+T2)</f>
         <v>2012</v>
       </c>
-      <c r="BD2" s="73" t="str">
+      <c r="BD2" s="67" t="str">
         <f t="shared" ref="BD2:BD31" si="19">DEC2HEX(8192+U2)</f>
         <v>2013</v>
       </c>
-      <c r="BE2" s="73" t="str">
+      <c r="BE2" s="67" t="str">
         <f t="shared" ref="BE2:BE31" si="20">DEC2HEX(8192+V2)</f>
         <v>2014</v>
       </c>
-      <c r="BF2" s="73" t="str">
+      <c r="BF2" s="67" t="str">
         <f t="shared" ref="BF2:BF31" si="21">DEC2HEX(8192+W2)</f>
         <v>2015</v>
       </c>
-      <c r="BG2" s="73" t="str">
+      <c r="BG2" s="67" t="str">
         <f t="shared" ref="BG2:BG31" si="22">DEC2HEX(8192+X2)</f>
         <v>2016</v>
       </c>
-      <c r="BH2" s="73" t="str">
+      <c r="BH2" s="67" t="str">
         <f t="shared" ref="BH2:BH31" si="23">DEC2HEX(8192+Y2)</f>
         <v>2017</v>
       </c>
-      <c r="BI2" s="73" t="str">
+      <c r="BI2" s="67" t="str">
         <f t="shared" ref="BI2:BI31" si="24">DEC2HEX(8192+Z2)</f>
         <v>2018</v>
       </c>
-      <c r="BJ2" s="73" t="str">
+      <c r="BJ2" s="67" t="str">
         <f t="shared" ref="BJ2:BJ31" si="25">DEC2HEX(8192+AA2)</f>
         <v>2019</v>
       </c>
-      <c r="BK2" s="73" t="str">
+      <c r="BK2" s="67" t="str">
         <f t="shared" ref="BK2:BK31" si="26">DEC2HEX(8192+AB2)</f>
         <v>201A</v>
       </c>
-      <c r="BL2" s="73" t="str">
+      <c r="BL2" s="67" t="str">
         <f t="shared" ref="BL2:BL31" si="27">DEC2HEX(8192+AC2)</f>
         <v>201B</v>
       </c>
-      <c r="BM2" s="73" t="str">
+      <c r="BM2" s="67" t="str">
         <f t="shared" ref="BM2:BM31" si="28">DEC2HEX(8192+AD2)</f>
         <v>201C</v>
       </c>
-      <c r="BN2" s="73" t="str">
+      <c r="BN2" s="67" t="str">
         <f t="shared" ref="BN2:BN31" si="29">DEC2HEX(8192+AE2)</f>
         <v>201D</v>
       </c>
-      <c r="BO2" s="73" t="str">
+      <c r="BO2" s="67" t="str">
         <f t="shared" ref="BO2:BO31" si="30">DEC2HEX(8192+AF2)</f>
         <v>201E</v>
       </c>
-      <c r="BP2" s="74" t="str">
+      <c r="BP2" s="68" t="str">
         <f t="shared" ref="BP2:BP31" si="31">DEC2HEX(8192+AG2)</f>
         <v>201F</v>
       </c>
@@ -4866,134 +5044,134 @@
         <f t="shared" si="32"/>
         <v>63</v>
       </c>
-      <c r="AJ3" s="65">
+      <c r="AJ3" s="59">
         <v>1</v>
       </c>
-      <c r="AK3" s="66" t="str">
+      <c r="AK3" s="60" t="str">
         <f t="shared" ref="AK3:AK31" si="33">DEC2HEX(8192+B3)</f>
         <v>2020</v>
       </c>
-      <c r="AL3" s="67" t="str">
+      <c r="AL3" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
-      <c r="AM3" s="67" t="str">
+      <c r="AM3" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="AN3" s="67" t="str">
+      <c r="AN3" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2023</v>
       </c>
-      <c r="AO3" s="67" t="str">
+      <c r="AO3" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2024</v>
       </c>
-      <c r="AP3" s="67" t="str">
+      <c r="AP3" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2025</v>
       </c>
-      <c r="AQ3" s="67" t="str">
+      <c r="AQ3" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2026</v>
       </c>
-      <c r="AR3" s="67" t="str">
+      <c r="AR3" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2027</v>
       </c>
-      <c r="AS3" s="67" t="str">
+      <c r="AS3" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2028</v>
       </c>
-      <c r="AT3" s="67" t="str">
+      <c r="AT3" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2029</v>
       </c>
-      <c r="AU3" s="67" t="str">
+      <c r="AU3" s="61" t="str">
         <f t="shared" si="10"/>
         <v>202A</v>
       </c>
-      <c r="AV3" s="67" t="str">
+      <c r="AV3" s="61" t="str">
         <f t="shared" si="11"/>
         <v>202B</v>
       </c>
-      <c r="AW3" s="67" t="str">
+      <c r="AW3" s="61" t="str">
         <f t="shared" si="12"/>
         <v>202C</v>
       </c>
-      <c r="AX3" s="67" t="str">
+      <c r="AX3" s="61" t="str">
         <f t="shared" si="13"/>
         <v>202D</v>
       </c>
-      <c r="AY3" s="67" t="str">
+      <c r="AY3" s="61" t="str">
         <f t="shared" si="14"/>
         <v>202E</v>
       </c>
-      <c r="AZ3" s="67" t="str">
+      <c r="AZ3" s="61" t="str">
         <f t="shared" si="15"/>
         <v>202F</v>
       </c>
-      <c r="BA3" s="67" t="str">
+      <c r="BA3" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2030</v>
       </c>
-      <c r="BB3" s="67" t="str">
+      <c r="BB3" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2031</v>
       </c>
-      <c r="BC3" s="67" t="str">
+      <c r="BC3" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2032</v>
       </c>
-      <c r="BD3" s="67" t="str">
+      <c r="BD3" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2033</v>
       </c>
-      <c r="BE3" s="67" t="str">
+      <c r="BE3" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2034</v>
       </c>
-      <c r="BF3" s="67" t="str">
+      <c r="BF3" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2035</v>
       </c>
-      <c r="BG3" s="67" t="str">
+      <c r="BG3" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2036</v>
       </c>
-      <c r="BH3" s="67" t="str">
+      <c r="BH3" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2037</v>
       </c>
-      <c r="BI3" s="67" t="str">
+      <c r="BI3" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2038</v>
       </c>
-      <c r="BJ3" s="67" t="str">
+      <c r="BJ3" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2039</v>
       </c>
-      <c r="BK3" s="67" t="str">
+      <c r="BK3" s="61" t="str">
         <f t="shared" si="26"/>
         <v>203A</v>
       </c>
-      <c r="BL3" s="67" t="str">
+      <c r="BL3" s="61" t="str">
         <f t="shared" si="27"/>
         <v>203B</v>
       </c>
-      <c r="BM3" s="67" t="str">
+      <c r="BM3" s="61" t="str">
         <f t="shared" si="28"/>
         <v>203C</v>
       </c>
-      <c r="BN3" s="67" t="str">
+      <c r="BN3" s="61" t="str">
         <f t="shared" si="29"/>
         <v>203D</v>
       </c>
-      <c r="BO3" s="67" t="str">
+      <c r="BO3" s="61" t="str">
         <f t="shared" si="30"/>
         <v>203E</v>
       </c>
-      <c r="BP3" s="68" t="str">
+      <c r="BP3" s="62" t="str">
         <f t="shared" si="31"/>
         <v>203F</v>
       </c>
@@ -5130,134 +5308,134 @@
         <f t="shared" si="35"/>
         <v>95</v>
       </c>
-      <c r="AJ4" s="65">
+      <c r="AJ4" s="59">
         <v>2</v>
       </c>
-      <c r="AK4" s="66" t="str">
+      <c r="AK4" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2040</v>
       </c>
-      <c r="AL4" s="67" t="str">
+      <c r="AL4" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2041</v>
       </c>
-      <c r="AM4" s="67" t="str">
+      <c r="AM4" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2042</v>
       </c>
-      <c r="AN4" s="67" t="str">
+      <c r="AN4" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2043</v>
       </c>
-      <c r="AO4" s="67" t="str">
+      <c r="AO4" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2044</v>
       </c>
-      <c r="AP4" s="67" t="str">
+      <c r="AP4" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2045</v>
       </c>
-      <c r="AQ4" s="67" t="str">
+      <c r="AQ4" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2046</v>
       </c>
-      <c r="AR4" s="67" t="str">
+      <c r="AR4" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2047</v>
       </c>
-      <c r="AS4" s="67" t="str">
+      <c r="AS4" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2048</v>
       </c>
-      <c r="AT4" s="67" t="str">
+      <c r="AT4" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2049</v>
       </c>
-      <c r="AU4" s="67" t="str">
+      <c r="AU4" s="61" t="str">
         <f t="shared" si="10"/>
         <v>204A</v>
       </c>
-      <c r="AV4" s="67" t="str">
+      <c r="AV4" s="61" t="str">
         <f t="shared" si="11"/>
         <v>204B</v>
       </c>
-      <c r="AW4" s="67" t="str">
+      <c r="AW4" s="61" t="str">
         <f t="shared" si="12"/>
         <v>204C</v>
       </c>
-      <c r="AX4" s="67" t="str">
+      <c r="AX4" s="61" t="str">
         <f t="shared" si="13"/>
         <v>204D</v>
       </c>
-      <c r="AY4" s="67" t="str">
+      <c r="AY4" s="61" t="str">
         <f t="shared" si="14"/>
         <v>204E</v>
       </c>
-      <c r="AZ4" s="67" t="str">
+      <c r="AZ4" s="61" t="str">
         <f t="shared" si="15"/>
         <v>204F</v>
       </c>
-      <c r="BA4" s="67" t="str">
+      <c r="BA4" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2050</v>
       </c>
-      <c r="BB4" s="67" t="str">
+      <c r="BB4" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2051</v>
       </c>
-      <c r="BC4" s="67" t="str">
+      <c r="BC4" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2052</v>
       </c>
-      <c r="BD4" s="67" t="str">
+      <c r="BD4" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2053</v>
       </c>
-      <c r="BE4" s="67" t="str">
+      <c r="BE4" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2054</v>
       </c>
-      <c r="BF4" s="67" t="str">
+      <c r="BF4" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2055</v>
       </c>
-      <c r="BG4" s="67" t="str">
+      <c r="BG4" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2056</v>
       </c>
-      <c r="BH4" s="67" t="str">
+      <c r="BH4" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2057</v>
       </c>
-      <c r="BI4" s="67" t="str">
+      <c r="BI4" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2058</v>
       </c>
-      <c r="BJ4" s="67" t="str">
+      <c r="BJ4" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2059</v>
       </c>
-      <c r="BK4" s="67" t="str">
+      <c r="BK4" s="61" t="str">
         <f t="shared" si="26"/>
         <v>205A</v>
       </c>
-      <c r="BL4" s="67" t="str">
+      <c r="BL4" s="61" t="str">
         <f t="shared" si="27"/>
         <v>205B</v>
       </c>
-      <c r="BM4" s="67" t="str">
+      <c r="BM4" s="61" t="str">
         <f t="shared" si="28"/>
         <v>205C</v>
       </c>
-      <c r="BN4" s="67" t="str">
+      <c r="BN4" s="61" t="str">
         <f t="shared" si="29"/>
         <v>205D</v>
       </c>
-      <c r="BO4" s="67" t="str">
+      <c r="BO4" s="61" t="str">
         <f t="shared" si="30"/>
         <v>205E</v>
       </c>
-      <c r="BP4" s="68" t="str">
+      <c r="BP4" s="62" t="str">
         <f t="shared" si="31"/>
         <v>205F</v>
       </c>
@@ -5394,134 +5572,134 @@
         <f t="shared" si="36"/>
         <v>127</v>
       </c>
-      <c r="AJ5" s="65">
+      <c r="AJ5" s="59">
         <v>3</v>
       </c>
-      <c r="AK5" s="66" t="str">
+      <c r="AK5" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2060</v>
       </c>
-      <c r="AL5" s="67" t="str">
+      <c r="AL5" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2061</v>
       </c>
-      <c r="AM5" s="67" t="str">
+      <c r="AM5" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2062</v>
       </c>
-      <c r="AN5" s="67" t="str">
+      <c r="AN5" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2063</v>
       </c>
-      <c r="AO5" s="67" t="str">
+      <c r="AO5" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2064</v>
       </c>
-      <c r="AP5" s="67" t="str">
+      <c r="AP5" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2065</v>
       </c>
-      <c r="AQ5" s="67" t="str">
+      <c r="AQ5" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2066</v>
       </c>
-      <c r="AR5" s="67" t="str">
+      <c r="AR5" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2067</v>
       </c>
-      <c r="AS5" s="67" t="str">
+      <c r="AS5" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2068</v>
       </c>
-      <c r="AT5" s="67" t="str">
+      <c r="AT5" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2069</v>
       </c>
-      <c r="AU5" s="67" t="str">
+      <c r="AU5" s="61" t="str">
         <f t="shared" si="10"/>
         <v>206A</v>
       </c>
-      <c r="AV5" s="67" t="str">
+      <c r="AV5" s="61" t="str">
         <f t="shared" si="11"/>
         <v>206B</v>
       </c>
-      <c r="AW5" s="67" t="str">
+      <c r="AW5" s="61" t="str">
         <f t="shared" si="12"/>
         <v>206C</v>
       </c>
-      <c r="AX5" s="67" t="str">
+      <c r="AX5" s="61" t="str">
         <f t="shared" si="13"/>
         <v>206D</v>
       </c>
-      <c r="AY5" s="67" t="str">
+      <c r="AY5" s="61" t="str">
         <f t="shared" si="14"/>
         <v>206E</v>
       </c>
-      <c r="AZ5" s="67" t="str">
+      <c r="AZ5" s="61" t="str">
         <f t="shared" si="15"/>
         <v>206F</v>
       </c>
-      <c r="BA5" s="67" t="str">
+      <c r="BA5" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2070</v>
       </c>
-      <c r="BB5" s="67" t="str">
+      <c r="BB5" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2071</v>
       </c>
-      <c r="BC5" s="67" t="str">
+      <c r="BC5" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2072</v>
       </c>
-      <c r="BD5" s="67" t="str">
+      <c r="BD5" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2073</v>
       </c>
-      <c r="BE5" s="67" t="str">
+      <c r="BE5" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2074</v>
       </c>
-      <c r="BF5" s="67" t="str">
+      <c r="BF5" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2075</v>
       </c>
-      <c r="BG5" s="67" t="str">
+      <c r="BG5" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2076</v>
       </c>
-      <c r="BH5" s="67" t="str">
+      <c r="BH5" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2077</v>
       </c>
-      <c r="BI5" s="67" t="str">
+      <c r="BI5" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2078</v>
       </c>
-      <c r="BJ5" s="67" t="str">
+      <c r="BJ5" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2079</v>
       </c>
-      <c r="BK5" s="67" t="str">
+      <c r="BK5" s="61" t="str">
         <f t="shared" si="26"/>
         <v>207A</v>
       </c>
-      <c r="BL5" s="67" t="str">
+      <c r="BL5" s="61" t="str">
         <f t="shared" si="27"/>
         <v>207B</v>
       </c>
-      <c r="BM5" s="67" t="str">
+      <c r="BM5" s="61" t="str">
         <f t="shared" si="28"/>
         <v>207C</v>
       </c>
-      <c r="BN5" s="67" t="str">
+      <c r="BN5" s="61" t="str">
         <f t="shared" si="29"/>
         <v>207D</v>
       </c>
-      <c r="BO5" s="67" t="str">
+      <c r="BO5" s="61" t="str">
         <f t="shared" si="30"/>
         <v>207E</v>
       </c>
-      <c r="BP5" s="68" t="str">
+      <c r="BP5" s="62" t="str">
         <f t="shared" si="31"/>
         <v>207F</v>
       </c>
@@ -5658,134 +5836,134 @@
         <f t="shared" si="37"/>
         <v>159</v>
       </c>
-      <c r="AJ6" s="65">
+      <c r="AJ6" s="59">
         <v>4</v>
       </c>
-      <c r="AK6" s="66" t="str">
+      <c r="AK6" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2080</v>
       </c>
-      <c r="AL6" s="67" t="str">
+      <c r="AL6" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2081</v>
       </c>
-      <c r="AM6" s="67" t="str">
+      <c r="AM6" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2082</v>
       </c>
-      <c r="AN6" s="67" t="str">
+      <c r="AN6" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2083</v>
       </c>
-      <c r="AO6" s="67" t="str">
+      <c r="AO6" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2084</v>
       </c>
-      <c r="AP6" s="67" t="str">
+      <c r="AP6" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2085</v>
       </c>
-      <c r="AQ6" s="67" t="str">
+      <c r="AQ6" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2086</v>
       </c>
-      <c r="AR6" s="67" t="str">
+      <c r="AR6" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2087</v>
       </c>
-      <c r="AS6" s="67" t="str">
+      <c r="AS6" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2088</v>
       </c>
-      <c r="AT6" s="67" t="str">
+      <c r="AT6" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2089</v>
       </c>
-      <c r="AU6" s="67" t="str">
+      <c r="AU6" s="61" t="str">
         <f t="shared" si="10"/>
         <v>208A</v>
       </c>
-      <c r="AV6" s="67" t="str">
+      <c r="AV6" s="61" t="str">
         <f t="shared" si="11"/>
         <v>208B</v>
       </c>
-      <c r="AW6" s="67" t="str">
+      <c r="AW6" s="61" t="str">
         <f t="shared" si="12"/>
         <v>208C</v>
       </c>
-      <c r="AX6" s="67" t="str">
+      <c r="AX6" s="61" t="str">
         <f t="shared" si="13"/>
         <v>208D</v>
       </c>
-      <c r="AY6" s="67" t="str">
+      <c r="AY6" s="61" t="str">
         <f t="shared" si="14"/>
         <v>208E</v>
       </c>
-      <c r="AZ6" s="67" t="str">
+      <c r="AZ6" s="61" t="str">
         <f t="shared" si="15"/>
         <v>208F</v>
       </c>
-      <c r="BA6" s="67" t="str">
+      <c r="BA6" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2090</v>
       </c>
-      <c r="BB6" s="67" t="str">
+      <c r="BB6" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2091</v>
       </c>
-      <c r="BC6" s="67" t="str">
+      <c r="BC6" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2092</v>
       </c>
-      <c r="BD6" s="67" t="str">
+      <c r="BD6" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2093</v>
       </c>
-      <c r="BE6" s="67" t="str">
+      <c r="BE6" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2094</v>
       </c>
-      <c r="BF6" s="67" t="str">
+      <c r="BF6" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2095</v>
       </c>
-      <c r="BG6" s="67" t="str">
+      <c r="BG6" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2096</v>
       </c>
-      <c r="BH6" s="67" t="str">
+      <c r="BH6" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2097</v>
       </c>
-      <c r="BI6" s="67" t="str">
+      <c r="BI6" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2098</v>
       </c>
-      <c r="BJ6" s="67" t="str">
+      <c r="BJ6" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2099</v>
       </c>
-      <c r="BK6" s="67" t="str">
+      <c r="BK6" s="61" t="str">
         <f t="shared" si="26"/>
         <v>209A</v>
       </c>
-      <c r="BL6" s="67" t="str">
+      <c r="BL6" s="61" t="str">
         <f t="shared" si="27"/>
         <v>209B</v>
       </c>
-      <c r="BM6" s="67" t="str">
+      <c r="BM6" s="61" t="str">
         <f t="shared" si="28"/>
         <v>209C</v>
       </c>
-      <c r="BN6" s="67" t="str">
+      <c r="BN6" s="61" t="str">
         <f t="shared" si="29"/>
         <v>209D</v>
       </c>
-      <c r="BO6" s="67" t="str">
+      <c r="BO6" s="61" t="str">
         <f t="shared" si="30"/>
         <v>209E</v>
       </c>
-      <c r="BP6" s="68" t="str">
+      <c r="BP6" s="62" t="str">
         <f t="shared" si="31"/>
         <v>209F</v>
       </c>
@@ -5922,134 +6100,134 @@
         <f t="shared" si="38"/>
         <v>191</v>
       </c>
-      <c r="AJ7" s="65">
+      <c r="AJ7" s="59">
         <v>5</v>
       </c>
-      <c r="AK7" s="66" t="str">
+      <c r="AK7" s="60" t="str">
         <f t="shared" si="33"/>
         <v>20A0</v>
       </c>
-      <c r="AL7" s="67" t="str">
+      <c r="AL7" s="61" t="str">
         <f t="shared" si="1"/>
         <v>20A1</v>
       </c>
-      <c r="AM7" s="67" t="str">
+      <c r="AM7" s="61" t="str">
         <f t="shared" si="2"/>
         <v>20A2</v>
       </c>
-      <c r="AN7" s="67" t="str">
+      <c r="AN7" s="61" t="str">
         <f t="shared" si="3"/>
         <v>20A3</v>
       </c>
-      <c r="AO7" s="67" t="str">
+      <c r="AO7" s="61" t="str">
         <f t="shared" si="4"/>
         <v>20A4</v>
       </c>
-      <c r="AP7" s="67" t="str">
+      <c r="AP7" s="61" t="str">
         <f t="shared" si="5"/>
         <v>20A5</v>
       </c>
-      <c r="AQ7" s="67" t="str">
+      <c r="AQ7" s="61" t="str">
         <f t="shared" si="6"/>
         <v>20A6</v>
       </c>
-      <c r="AR7" s="67" t="str">
+      <c r="AR7" s="61" t="str">
         <f t="shared" si="7"/>
         <v>20A7</v>
       </c>
-      <c r="AS7" s="67" t="str">
+      <c r="AS7" s="61" t="str">
         <f t="shared" si="8"/>
         <v>20A8</v>
       </c>
-      <c r="AT7" s="67" t="str">
+      <c r="AT7" s="61" t="str">
         <f t="shared" si="9"/>
         <v>20A9</v>
       </c>
-      <c r="AU7" s="67" t="str">
+      <c r="AU7" s="61" t="str">
         <f t="shared" si="10"/>
         <v>20AA</v>
       </c>
-      <c r="AV7" s="67" t="str">
+      <c r="AV7" s="61" t="str">
         <f t="shared" si="11"/>
         <v>20AB</v>
       </c>
-      <c r="AW7" s="67" t="str">
+      <c r="AW7" s="61" t="str">
         <f t="shared" si="12"/>
         <v>20AC</v>
       </c>
-      <c r="AX7" s="67" t="str">
+      <c r="AX7" s="61" t="str">
         <f t="shared" si="13"/>
         <v>20AD</v>
       </c>
-      <c r="AY7" s="67" t="str">
+      <c r="AY7" s="61" t="str">
         <f t="shared" si="14"/>
         <v>20AE</v>
       </c>
-      <c r="AZ7" s="67" t="str">
+      <c r="AZ7" s="61" t="str">
         <f t="shared" si="15"/>
         <v>20AF</v>
       </c>
-      <c r="BA7" s="67" t="str">
+      <c r="BA7" s="61" t="str">
         <f t="shared" si="16"/>
         <v>20B0</v>
       </c>
-      <c r="BB7" s="67" t="str">
+      <c r="BB7" s="61" t="str">
         <f t="shared" si="17"/>
         <v>20B1</v>
       </c>
-      <c r="BC7" s="67" t="str">
+      <c r="BC7" s="61" t="str">
         <f t="shared" si="18"/>
         <v>20B2</v>
       </c>
-      <c r="BD7" s="67" t="str">
+      <c r="BD7" s="61" t="str">
         <f t="shared" si="19"/>
         <v>20B3</v>
       </c>
-      <c r="BE7" s="67" t="str">
+      <c r="BE7" s="61" t="str">
         <f t="shared" si="20"/>
         <v>20B4</v>
       </c>
-      <c r="BF7" s="67" t="str">
+      <c r="BF7" s="61" t="str">
         <f t="shared" si="21"/>
         <v>20B5</v>
       </c>
-      <c r="BG7" s="67" t="str">
+      <c r="BG7" s="61" t="str">
         <f t="shared" si="22"/>
         <v>20B6</v>
       </c>
-      <c r="BH7" s="67" t="str">
+      <c r="BH7" s="61" t="str">
         <f t="shared" si="23"/>
         <v>20B7</v>
       </c>
-      <c r="BI7" s="67" t="str">
+      <c r="BI7" s="61" t="str">
         <f t="shared" si="24"/>
         <v>20B8</v>
       </c>
-      <c r="BJ7" s="67" t="str">
+      <c r="BJ7" s="61" t="str">
         <f t="shared" si="25"/>
         <v>20B9</v>
       </c>
-      <c r="BK7" s="67" t="str">
+      <c r="BK7" s="61" t="str">
         <f t="shared" si="26"/>
         <v>20BA</v>
       </c>
-      <c r="BL7" s="67" t="str">
+      <c r="BL7" s="61" t="str">
         <f t="shared" si="27"/>
         <v>20BB</v>
       </c>
-      <c r="BM7" s="67" t="str">
+      <c r="BM7" s="61" t="str">
         <f t="shared" si="28"/>
         <v>20BC</v>
       </c>
-      <c r="BN7" s="67" t="str">
+      <c r="BN7" s="61" t="str">
         <f t="shared" si="29"/>
         <v>20BD</v>
       </c>
-      <c r="BO7" s="67" t="str">
+      <c r="BO7" s="61" t="str">
         <f t="shared" si="30"/>
         <v>20BE</v>
       </c>
-      <c r="BP7" s="68" t="str">
+      <c r="BP7" s="62" t="str">
         <f t="shared" si="31"/>
         <v>20BF</v>
       </c>
@@ -6186,134 +6364,134 @@
         <f t="shared" si="39"/>
         <v>223</v>
       </c>
-      <c r="AJ8" s="65">
+      <c r="AJ8" s="59">
         <v>6</v>
       </c>
-      <c r="AK8" s="66" t="str">
+      <c r="AK8" s="60" t="str">
         <f t="shared" si="33"/>
         <v>20C0</v>
       </c>
-      <c r="AL8" s="67" t="str">
+      <c r="AL8" s="61" t="str">
         <f t="shared" si="1"/>
         <v>20C1</v>
       </c>
-      <c r="AM8" s="67" t="str">
+      <c r="AM8" s="61" t="str">
         <f t="shared" si="2"/>
         <v>20C2</v>
       </c>
-      <c r="AN8" s="67" t="str">
+      <c r="AN8" s="61" t="str">
         <f t="shared" si="3"/>
         <v>20C3</v>
       </c>
-      <c r="AO8" s="67" t="str">
+      <c r="AO8" s="61" t="str">
         <f t="shared" si="4"/>
         <v>20C4</v>
       </c>
-      <c r="AP8" s="67" t="str">
+      <c r="AP8" s="61" t="str">
         <f t="shared" si="5"/>
         <v>20C5</v>
       </c>
-      <c r="AQ8" s="67" t="str">
+      <c r="AQ8" s="61" t="str">
         <f t="shared" si="6"/>
         <v>20C6</v>
       </c>
-      <c r="AR8" s="67" t="str">
+      <c r="AR8" s="61" t="str">
         <f t="shared" si="7"/>
         <v>20C7</v>
       </c>
-      <c r="AS8" s="67" t="str">
+      <c r="AS8" s="61" t="str">
         <f t="shared" si="8"/>
         <v>20C8</v>
       </c>
-      <c r="AT8" s="67" t="str">
+      <c r="AT8" s="61" t="str">
         <f t="shared" si="9"/>
         <v>20C9</v>
       </c>
-      <c r="AU8" s="67" t="str">
+      <c r="AU8" s="61" t="str">
         <f t="shared" si="10"/>
         <v>20CA</v>
       </c>
-      <c r="AV8" s="67" t="str">
+      <c r="AV8" s="61" t="str">
         <f t="shared" si="11"/>
         <v>20CB</v>
       </c>
-      <c r="AW8" s="67" t="str">
+      <c r="AW8" s="61" t="str">
         <f t="shared" si="12"/>
         <v>20CC</v>
       </c>
-      <c r="AX8" s="67" t="str">
+      <c r="AX8" s="61" t="str">
         <f t="shared" si="13"/>
         <v>20CD</v>
       </c>
-      <c r="AY8" s="67" t="str">
+      <c r="AY8" s="61" t="str">
         <f t="shared" si="14"/>
         <v>20CE</v>
       </c>
-      <c r="AZ8" s="67" t="str">
+      <c r="AZ8" s="61" t="str">
         <f t="shared" si="15"/>
         <v>20CF</v>
       </c>
-      <c r="BA8" s="67" t="str">
+      <c r="BA8" s="61" t="str">
         <f t="shared" si="16"/>
         <v>20D0</v>
       </c>
-      <c r="BB8" s="67" t="str">
+      <c r="BB8" s="61" t="str">
         <f t="shared" si="17"/>
         <v>20D1</v>
       </c>
-      <c r="BC8" s="67" t="str">
+      <c r="BC8" s="61" t="str">
         <f t="shared" si="18"/>
         <v>20D2</v>
       </c>
-      <c r="BD8" s="67" t="str">
+      <c r="BD8" s="61" t="str">
         <f t="shared" si="19"/>
         <v>20D3</v>
       </c>
-      <c r="BE8" s="67" t="str">
+      <c r="BE8" s="61" t="str">
         <f t="shared" si="20"/>
         <v>20D4</v>
       </c>
-      <c r="BF8" s="67" t="str">
+      <c r="BF8" s="61" t="str">
         <f t="shared" si="21"/>
         <v>20D5</v>
       </c>
-      <c r="BG8" s="67" t="str">
+      <c r="BG8" s="61" t="str">
         <f t="shared" si="22"/>
         <v>20D6</v>
       </c>
-      <c r="BH8" s="67" t="str">
+      <c r="BH8" s="61" t="str">
         <f t="shared" si="23"/>
         <v>20D7</v>
       </c>
-      <c r="BI8" s="67" t="str">
+      <c r="BI8" s="61" t="str">
         <f t="shared" si="24"/>
         <v>20D8</v>
       </c>
-      <c r="BJ8" s="67" t="str">
+      <c r="BJ8" s="61" t="str">
         <f t="shared" si="25"/>
         <v>20D9</v>
       </c>
-      <c r="BK8" s="67" t="str">
+      <c r="BK8" s="61" t="str">
         <f t="shared" si="26"/>
         <v>20DA</v>
       </c>
-      <c r="BL8" s="67" t="str">
+      <c r="BL8" s="61" t="str">
         <f t="shared" si="27"/>
         <v>20DB</v>
       </c>
-      <c r="BM8" s="67" t="str">
+      <c r="BM8" s="61" t="str">
         <f t="shared" si="28"/>
         <v>20DC</v>
       </c>
-      <c r="BN8" s="67" t="str">
+      <c r="BN8" s="61" t="str">
         <f t="shared" si="29"/>
         <v>20DD</v>
       </c>
-      <c r="BO8" s="67" t="str">
+      <c r="BO8" s="61" t="str">
         <f t="shared" si="30"/>
         <v>20DE</v>
       </c>
-      <c r="BP8" s="68" t="str">
+      <c r="BP8" s="62" t="str">
         <f t="shared" si="31"/>
         <v>20DF</v>
       </c>
@@ -6450,134 +6628,134 @@
         <f t="shared" si="40"/>
         <v>255</v>
       </c>
-      <c r="AJ9" s="65">
+      <c r="AJ9" s="59">
         <v>7</v>
       </c>
-      <c r="AK9" s="66" t="str">
+      <c r="AK9" s="60" t="str">
         <f t="shared" si="33"/>
         <v>20E0</v>
       </c>
-      <c r="AL9" s="67" t="str">
+      <c r="AL9" s="61" t="str">
         <f t="shared" si="1"/>
         <v>20E1</v>
       </c>
-      <c r="AM9" s="67" t="str">
+      <c r="AM9" s="61" t="str">
         <f t="shared" si="2"/>
         <v>20E2</v>
       </c>
-      <c r="AN9" s="67" t="str">
+      <c r="AN9" s="61" t="str">
         <f t="shared" si="3"/>
         <v>20E3</v>
       </c>
-      <c r="AO9" s="67" t="str">
+      <c r="AO9" s="61" t="str">
         <f t="shared" si="4"/>
         <v>20E4</v>
       </c>
-      <c r="AP9" s="67" t="str">
+      <c r="AP9" s="61" t="str">
         <f t="shared" si="5"/>
         <v>20E5</v>
       </c>
-      <c r="AQ9" s="67" t="str">
+      <c r="AQ9" s="61" t="str">
         <f t="shared" si="6"/>
         <v>20E6</v>
       </c>
-      <c r="AR9" s="67" t="str">
+      <c r="AR9" s="61" t="str">
         <f t="shared" si="7"/>
         <v>20E7</v>
       </c>
-      <c r="AS9" s="67" t="str">
+      <c r="AS9" s="61" t="str">
         <f t="shared" si="8"/>
         <v>20E8</v>
       </c>
-      <c r="AT9" s="67" t="str">
+      <c r="AT9" s="61" t="str">
         <f t="shared" si="9"/>
         <v>20E9</v>
       </c>
-      <c r="AU9" s="67" t="str">
+      <c r="AU9" s="61" t="str">
         <f t="shared" si="10"/>
         <v>20EA</v>
       </c>
-      <c r="AV9" s="67" t="str">
+      <c r="AV9" s="61" t="str">
         <f t="shared" si="11"/>
         <v>20EB</v>
       </c>
-      <c r="AW9" s="67" t="str">
+      <c r="AW9" s="61" t="str">
         <f t="shared" si="12"/>
         <v>20EC</v>
       </c>
-      <c r="AX9" s="67" t="str">
+      <c r="AX9" s="61" t="str">
         <f t="shared" si="13"/>
         <v>20ED</v>
       </c>
-      <c r="AY9" s="67" t="str">
+      <c r="AY9" s="61" t="str">
         <f t="shared" si="14"/>
         <v>20EE</v>
       </c>
-      <c r="AZ9" s="67" t="str">
+      <c r="AZ9" s="61" t="str">
         <f t="shared" si="15"/>
         <v>20EF</v>
       </c>
-      <c r="BA9" s="67" t="str">
+      <c r="BA9" s="61" t="str">
         <f t="shared" si="16"/>
         <v>20F0</v>
       </c>
-      <c r="BB9" s="67" t="str">
+      <c r="BB9" s="61" t="str">
         <f t="shared" si="17"/>
         <v>20F1</v>
       </c>
-      <c r="BC9" s="67" t="str">
+      <c r="BC9" s="61" t="str">
         <f t="shared" si="18"/>
         <v>20F2</v>
       </c>
-      <c r="BD9" s="67" t="str">
+      <c r="BD9" s="61" t="str">
         <f t="shared" si="19"/>
         <v>20F3</v>
       </c>
-      <c r="BE9" s="67" t="str">
+      <c r="BE9" s="61" t="str">
         <f t="shared" si="20"/>
         <v>20F4</v>
       </c>
-      <c r="BF9" s="67" t="str">
+      <c r="BF9" s="61" t="str">
         <f t="shared" si="21"/>
         <v>20F5</v>
       </c>
-      <c r="BG9" s="67" t="str">
+      <c r="BG9" s="61" t="str">
         <f t="shared" si="22"/>
         <v>20F6</v>
       </c>
-      <c r="BH9" s="67" t="str">
+      <c r="BH9" s="61" t="str">
         <f t="shared" si="23"/>
         <v>20F7</v>
       </c>
-      <c r="BI9" s="67" t="str">
+      <c r="BI9" s="61" t="str">
         <f t="shared" si="24"/>
         <v>20F8</v>
       </c>
-      <c r="BJ9" s="67" t="str">
+      <c r="BJ9" s="61" t="str">
         <f t="shared" si="25"/>
         <v>20F9</v>
       </c>
-      <c r="BK9" s="67" t="str">
+      <c r="BK9" s="61" t="str">
         <f t="shared" si="26"/>
         <v>20FA</v>
       </c>
-      <c r="BL9" s="67" t="str">
+      <c r="BL9" s="61" t="str">
         <f t="shared" si="27"/>
         <v>20FB</v>
       </c>
-      <c r="BM9" s="67" t="str">
+      <c r="BM9" s="61" t="str">
         <f t="shared" si="28"/>
         <v>20FC</v>
       </c>
-      <c r="BN9" s="67" t="str">
+      <c r="BN9" s="61" t="str">
         <f t="shared" si="29"/>
         <v>20FD</v>
       </c>
-      <c r="BO9" s="67" t="str">
+      <c r="BO9" s="61" t="str">
         <f t="shared" si="30"/>
         <v>20FE</v>
       </c>
-      <c r="BP9" s="68" t="str">
+      <c r="BP9" s="62" t="str">
         <f t="shared" si="31"/>
         <v>20FF</v>
       </c>
@@ -6714,134 +6892,134 @@
         <f t="shared" si="41"/>
         <v>287</v>
       </c>
-      <c r="AJ10" s="65">
+      <c r="AJ10" s="59">
         <v>8</v>
       </c>
-      <c r="AK10" s="66" t="str">
+      <c r="AK10" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2100</v>
       </c>
-      <c r="AL10" s="67" t="str">
+      <c r="AL10" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2101</v>
       </c>
-      <c r="AM10" s="67" t="str">
+      <c r="AM10" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2102</v>
       </c>
-      <c r="AN10" s="67" t="str">
+      <c r="AN10" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2103</v>
       </c>
-      <c r="AO10" s="67" t="str">
+      <c r="AO10" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2104</v>
       </c>
-      <c r="AP10" s="67" t="str">
+      <c r="AP10" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2105</v>
       </c>
-      <c r="AQ10" s="67" t="str">
+      <c r="AQ10" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2106</v>
       </c>
-      <c r="AR10" s="67" t="str">
+      <c r="AR10" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2107</v>
       </c>
-      <c r="AS10" s="67" t="str">
+      <c r="AS10" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2108</v>
       </c>
-      <c r="AT10" s="67" t="str">
+      <c r="AT10" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2109</v>
       </c>
-      <c r="AU10" s="67" t="str">
+      <c r="AU10" s="61" t="str">
         <f t="shared" si="10"/>
         <v>210A</v>
       </c>
-      <c r="AV10" s="67" t="str">
+      <c r="AV10" s="61" t="str">
         <f t="shared" si="11"/>
         <v>210B</v>
       </c>
-      <c r="AW10" s="67" t="str">
+      <c r="AW10" s="61" t="str">
         <f t="shared" si="12"/>
         <v>210C</v>
       </c>
-      <c r="AX10" s="67" t="str">
+      <c r="AX10" s="61" t="str">
         <f t="shared" si="13"/>
         <v>210D</v>
       </c>
-      <c r="AY10" s="67" t="str">
+      <c r="AY10" s="61" t="str">
         <f t="shared" si="14"/>
         <v>210E</v>
       </c>
-      <c r="AZ10" s="67" t="str">
+      <c r="AZ10" s="61" t="str">
         <f t="shared" si="15"/>
         <v>210F</v>
       </c>
-      <c r="BA10" s="67" t="str">
+      <c r="BA10" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2110</v>
       </c>
-      <c r="BB10" s="67" t="str">
+      <c r="BB10" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2111</v>
       </c>
-      <c r="BC10" s="67" t="str">
+      <c r="BC10" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2112</v>
       </c>
-      <c r="BD10" s="67" t="str">
+      <c r="BD10" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2113</v>
       </c>
-      <c r="BE10" s="67" t="str">
+      <c r="BE10" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2114</v>
       </c>
-      <c r="BF10" s="67" t="str">
+      <c r="BF10" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2115</v>
       </c>
-      <c r="BG10" s="67" t="str">
+      <c r="BG10" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2116</v>
       </c>
-      <c r="BH10" s="67" t="str">
+      <c r="BH10" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2117</v>
       </c>
-      <c r="BI10" s="67" t="str">
+      <c r="BI10" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2118</v>
       </c>
-      <c r="BJ10" s="67" t="str">
+      <c r="BJ10" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2119</v>
       </c>
-      <c r="BK10" s="67" t="str">
+      <c r="BK10" s="61" t="str">
         <f t="shared" si="26"/>
         <v>211A</v>
       </c>
-      <c r="BL10" s="67" t="str">
+      <c r="BL10" s="61" t="str">
         <f t="shared" si="27"/>
         <v>211B</v>
       </c>
-      <c r="BM10" s="67" t="str">
+      <c r="BM10" s="61" t="str">
         <f t="shared" si="28"/>
         <v>211C</v>
       </c>
-      <c r="BN10" s="67" t="str">
+      <c r="BN10" s="61" t="str">
         <f t="shared" si="29"/>
         <v>211D</v>
       </c>
-      <c r="BO10" s="67" t="str">
+      <c r="BO10" s="61" t="str">
         <f t="shared" si="30"/>
         <v>211E</v>
       </c>
-      <c r="BP10" s="68" t="str">
+      <c r="BP10" s="62" t="str">
         <f t="shared" si="31"/>
         <v>211F</v>
       </c>
@@ -6978,134 +7156,134 @@
         <f t="shared" si="42"/>
         <v>319</v>
       </c>
-      <c r="AJ11" s="65">
+      <c r="AJ11" s="59">
         <v>9</v>
       </c>
-      <c r="AK11" s="66" t="str">
+      <c r="AK11" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2120</v>
       </c>
-      <c r="AL11" s="67" t="str">
+      <c r="AL11" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2121</v>
       </c>
-      <c r="AM11" s="67" t="str">
+      <c r="AM11" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2122</v>
       </c>
-      <c r="AN11" s="67" t="str">
+      <c r="AN11" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2123</v>
       </c>
-      <c r="AO11" s="67" t="str">
+      <c r="AO11" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2124</v>
       </c>
-      <c r="AP11" s="67" t="str">
+      <c r="AP11" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2125</v>
       </c>
-      <c r="AQ11" s="67" t="str">
+      <c r="AQ11" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2126</v>
       </c>
-      <c r="AR11" s="67" t="str">
+      <c r="AR11" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2127</v>
       </c>
-      <c r="AS11" s="67" t="str">
+      <c r="AS11" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2128</v>
       </c>
-      <c r="AT11" s="67" t="str">
+      <c r="AT11" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2129</v>
       </c>
-      <c r="AU11" s="67" t="str">
+      <c r="AU11" s="61" t="str">
         <f t="shared" si="10"/>
         <v>212A</v>
       </c>
-      <c r="AV11" s="67" t="str">
+      <c r="AV11" s="61" t="str">
         <f t="shared" si="11"/>
         <v>212B</v>
       </c>
-      <c r="AW11" s="67" t="str">
+      <c r="AW11" s="61" t="str">
         <f t="shared" si="12"/>
         <v>212C</v>
       </c>
-      <c r="AX11" s="67" t="str">
+      <c r="AX11" s="61" t="str">
         <f t="shared" si="13"/>
         <v>212D</v>
       </c>
-      <c r="AY11" s="67" t="str">
+      <c r="AY11" s="61" t="str">
         <f t="shared" si="14"/>
         <v>212E</v>
       </c>
-      <c r="AZ11" s="67" t="str">
+      <c r="AZ11" s="61" t="str">
         <f t="shared" si="15"/>
         <v>212F</v>
       </c>
-      <c r="BA11" s="67" t="str">
+      <c r="BA11" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2130</v>
       </c>
-      <c r="BB11" s="67" t="str">
+      <c r="BB11" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2131</v>
       </c>
-      <c r="BC11" s="67" t="str">
+      <c r="BC11" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2132</v>
       </c>
-      <c r="BD11" s="67" t="str">
+      <c r="BD11" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2133</v>
       </c>
-      <c r="BE11" s="67" t="str">
+      <c r="BE11" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2134</v>
       </c>
-      <c r="BF11" s="67" t="str">
+      <c r="BF11" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2135</v>
       </c>
-      <c r="BG11" s="67" t="str">
+      <c r="BG11" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2136</v>
       </c>
-      <c r="BH11" s="67" t="str">
+      <c r="BH11" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2137</v>
       </c>
-      <c r="BI11" s="67" t="str">
+      <c r="BI11" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2138</v>
       </c>
-      <c r="BJ11" s="67" t="str">
+      <c r="BJ11" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2139</v>
       </c>
-      <c r="BK11" s="67" t="str">
+      <c r="BK11" s="61" t="str">
         <f t="shared" si="26"/>
         <v>213A</v>
       </c>
-      <c r="BL11" s="67" t="str">
+      <c r="BL11" s="61" t="str">
         <f t="shared" si="27"/>
         <v>213B</v>
       </c>
-      <c r="BM11" s="67" t="str">
+      <c r="BM11" s="61" t="str">
         <f t="shared" si="28"/>
         <v>213C</v>
       </c>
-      <c r="BN11" s="67" t="str">
+      <c r="BN11" s="61" t="str">
         <f t="shared" si="29"/>
         <v>213D</v>
       </c>
-      <c r="BO11" s="67" t="str">
+      <c r="BO11" s="61" t="str">
         <f t="shared" si="30"/>
         <v>213E</v>
       </c>
-      <c r="BP11" s="68" t="str">
+      <c r="BP11" s="62" t="str">
         <f t="shared" si="31"/>
         <v>213F</v>
       </c>
@@ -7242,134 +7420,134 @@
         <f t="shared" si="43"/>
         <v>351</v>
       </c>
-      <c r="AJ12" s="65">
+      <c r="AJ12" s="59">
         <v>10</v>
       </c>
-      <c r="AK12" s="66" t="str">
+      <c r="AK12" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2140</v>
       </c>
-      <c r="AL12" s="67" t="str">
+      <c r="AL12" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2141</v>
       </c>
-      <c r="AM12" s="67" t="str">
+      <c r="AM12" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2142</v>
       </c>
-      <c r="AN12" s="67" t="str">
+      <c r="AN12" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2143</v>
       </c>
-      <c r="AO12" s="67" t="str">
+      <c r="AO12" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2144</v>
       </c>
-      <c r="AP12" s="67" t="str">
+      <c r="AP12" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2145</v>
       </c>
-      <c r="AQ12" s="67" t="str">
+      <c r="AQ12" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2146</v>
       </c>
-      <c r="AR12" s="67" t="str">
+      <c r="AR12" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2147</v>
       </c>
-      <c r="AS12" s="67" t="str">
+      <c r="AS12" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2148</v>
       </c>
-      <c r="AT12" s="67" t="str">
+      <c r="AT12" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2149</v>
       </c>
-      <c r="AU12" s="67" t="str">
+      <c r="AU12" s="61" t="str">
         <f t="shared" si="10"/>
         <v>214A</v>
       </c>
-      <c r="AV12" s="67" t="str">
+      <c r="AV12" s="61" t="str">
         <f t="shared" si="11"/>
         <v>214B</v>
       </c>
-      <c r="AW12" s="67" t="str">
+      <c r="AW12" s="61" t="str">
         <f t="shared" si="12"/>
         <v>214C</v>
       </c>
-      <c r="AX12" s="67" t="str">
+      <c r="AX12" s="61" t="str">
         <f t="shared" si="13"/>
         <v>214D</v>
       </c>
-      <c r="AY12" s="67" t="str">
+      <c r="AY12" s="61" t="str">
         <f t="shared" si="14"/>
         <v>214E</v>
       </c>
-      <c r="AZ12" s="67" t="str">
+      <c r="AZ12" s="61" t="str">
         <f t="shared" si="15"/>
         <v>214F</v>
       </c>
-      <c r="BA12" s="67" t="str">
+      <c r="BA12" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2150</v>
       </c>
-      <c r="BB12" s="67" t="str">
+      <c r="BB12" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2151</v>
       </c>
-      <c r="BC12" s="67" t="str">
+      <c r="BC12" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2152</v>
       </c>
-      <c r="BD12" s="67" t="str">
+      <c r="BD12" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2153</v>
       </c>
-      <c r="BE12" s="67" t="str">
+      <c r="BE12" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2154</v>
       </c>
-      <c r="BF12" s="67" t="str">
+      <c r="BF12" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2155</v>
       </c>
-      <c r="BG12" s="67" t="str">
+      <c r="BG12" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2156</v>
       </c>
-      <c r="BH12" s="67" t="str">
+      <c r="BH12" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2157</v>
       </c>
-      <c r="BI12" s="67" t="str">
+      <c r="BI12" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2158</v>
       </c>
-      <c r="BJ12" s="67" t="str">
+      <c r="BJ12" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2159</v>
       </c>
-      <c r="BK12" s="67" t="str">
+      <c r="BK12" s="61" t="str">
         <f t="shared" si="26"/>
         <v>215A</v>
       </c>
-      <c r="BL12" s="67" t="str">
+      <c r="BL12" s="61" t="str">
         <f t="shared" si="27"/>
         <v>215B</v>
       </c>
-      <c r="BM12" s="67" t="str">
+      <c r="BM12" s="61" t="str">
         <f t="shared" si="28"/>
         <v>215C</v>
       </c>
-      <c r="BN12" s="67" t="str">
+      <c r="BN12" s="61" t="str">
         <f t="shared" si="29"/>
         <v>215D</v>
       </c>
-      <c r="BO12" s="67" t="str">
+      <c r="BO12" s="61" t="str">
         <f t="shared" si="30"/>
         <v>215E</v>
       </c>
-      <c r="BP12" s="68" t="str">
+      <c r="BP12" s="62" t="str">
         <f t="shared" si="31"/>
         <v>215F</v>
       </c>
@@ -7506,134 +7684,134 @@
         <f t="shared" si="44"/>
         <v>383</v>
       </c>
-      <c r="AJ13" s="65">
+      <c r="AJ13" s="59">
         <v>11</v>
       </c>
-      <c r="AK13" s="66" t="str">
+      <c r="AK13" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2160</v>
       </c>
-      <c r="AL13" s="67" t="str">
+      <c r="AL13" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2161</v>
       </c>
-      <c r="AM13" s="67" t="str">
+      <c r="AM13" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2162</v>
       </c>
-      <c r="AN13" s="67" t="str">
+      <c r="AN13" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2163</v>
       </c>
-      <c r="AO13" s="67" t="str">
+      <c r="AO13" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2164</v>
       </c>
-      <c r="AP13" s="67" t="str">
+      <c r="AP13" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2165</v>
       </c>
-      <c r="AQ13" s="67" t="str">
+      <c r="AQ13" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2166</v>
       </c>
-      <c r="AR13" s="67" t="str">
+      <c r="AR13" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2167</v>
       </c>
-      <c r="AS13" s="67" t="str">
+      <c r="AS13" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2168</v>
       </c>
-      <c r="AT13" s="67" t="str">
+      <c r="AT13" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2169</v>
       </c>
-      <c r="AU13" s="67" t="str">
+      <c r="AU13" s="61" t="str">
         <f t="shared" si="10"/>
         <v>216A</v>
       </c>
-      <c r="AV13" s="67" t="str">
+      <c r="AV13" s="61" t="str">
         <f t="shared" si="11"/>
         <v>216B</v>
       </c>
-      <c r="AW13" s="67" t="str">
+      <c r="AW13" s="61" t="str">
         <f t="shared" si="12"/>
         <v>216C</v>
       </c>
-      <c r="AX13" s="67" t="str">
+      <c r="AX13" s="61" t="str">
         <f t="shared" si="13"/>
         <v>216D</v>
       </c>
-      <c r="AY13" s="67" t="str">
+      <c r="AY13" s="61" t="str">
         <f t="shared" si="14"/>
         <v>216E</v>
       </c>
-      <c r="AZ13" s="67" t="str">
+      <c r="AZ13" s="61" t="str">
         <f t="shared" si="15"/>
         <v>216F</v>
       </c>
-      <c r="BA13" s="67" t="str">
+      <c r="BA13" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2170</v>
       </c>
-      <c r="BB13" s="67" t="str">
+      <c r="BB13" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2171</v>
       </c>
-      <c r="BC13" s="67" t="str">
+      <c r="BC13" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2172</v>
       </c>
-      <c r="BD13" s="67" t="str">
+      <c r="BD13" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2173</v>
       </c>
-      <c r="BE13" s="67" t="str">
+      <c r="BE13" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2174</v>
       </c>
-      <c r="BF13" s="67" t="str">
+      <c r="BF13" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2175</v>
       </c>
-      <c r="BG13" s="67" t="str">
+      <c r="BG13" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2176</v>
       </c>
-      <c r="BH13" s="67" t="str">
+      <c r="BH13" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2177</v>
       </c>
-      <c r="BI13" s="67" t="str">
+      <c r="BI13" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2178</v>
       </c>
-      <c r="BJ13" s="67" t="str">
+      <c r="BJ13" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2179</v>
       </c>
-      <c r="BK13" s="67" t="str">
+      <c r="BK13" s="61" t="str">
         <f t="shared" si="26"/>
         <v>217A</v>
       </c>
-      <c r="BL13" s="67" t="str">
+      <c r="BL13" s="61" t="str">
         <f t="shared" si="27"/>
         <v>217B</v>
       </c>
-      <c r="BM13" s="67" t="str">
+      <c r="BM13" s="61" t="str">
         <f t="shared" si="28"/>
         <v>217C</v>
       </c>
-      <c r="BN13" s="67" t="str">
+      <c r="BN13" s="61" t="str">
         <f t="shared" si="29"/>
         <v>217D</v>
       </c>
-      <c r="BO13" s="67" t="str">
+      <c r="BO13" s="61" t="str">
         <f t="shared" si="30"/>
         <v>217E</v>
       </c>
-      <c r="BP13" s="68" t="str">
+      <c r="BP13" s="62" t="str">
         <f t="shared" si="31"/>
         <v>217F</v>
       </c>
@@ -7770,134 +7948,134 @@
         <f t="shared" si="45"/>
         <v>415</v>
       </c>
-      <c r="AJ14" s="65">
+      <c r="AJ14" s="59">
         <v>12</v>
       </c>
-      <c r="AK14" s="66" t="str">
+      <c r="AK14" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2180</v>
       </c>
-      <c r="AL14" s="67" t="str">
+      <c r="AL14" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2181</v>
       </c>
-      <c r="AM14" s="67" t="str">
+      <c r="AM14" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2182</v>
       </c>
-      <c r="AN14" s="67" t="str">
+      <c r="AN14" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2183</v>
       </c>
-      <c r="AO14" s="67" t="str">
+      <c r="AO14" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2184</v>
       </c>
-      <c r="AP14" s="67" t="str">
+      <c r="AP14" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2185</v>
       </c>
-      <c r="AQ14" s="67" t="str">
+      <c r="AQ14" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2186</v>
       </c>
-      <c r="AR14" s="67" t="str">
+      <c r="AR14" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2187</v>
       </c>
-      <c r="AS14" s="67" t="str">
+      <c r="AS14" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2188</v>
       </c>
-      <c r="AT14" s="67" t="str">
+      <c r="AT14" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2189</v>
       </c>
-      <c r="AU14" s="67" t="str">
+      <c r="AU14" s="61" t="str">
         <f t="shared" si="10"/>
         <v>218A</v>
       </c>
-      <c r="AV14" s="67" t="str">
+      <c r="AV14" s="61" t="str">
         <f t="shared" si="11"/>
         <v>218B</v>
       </c>
-      <c r="AW14" s="67" t="str">
+      <c r="AW14" s="61" t="str">
         <f t="shared" si="12"/>
         <v>218C</v>
       </c>
-      <c r="AX14" s="67" t="str">
+      <c r="AX14" s="61" t="str">
         <f t="shared" si="13"/>
         <v>218D</v>
       </c>
-      <c r="AY14" s="67" t="str">
+      <c r="AY14" s="61" t="str">
         <f t="shared" si="14"/>
         <v>218E</v>
       </c>
-      <c r="AZ14" s="67" t="str">
+      <c r="AZ14" s="61" t="str">
         <f t="shared" si="15"/>
         <v>218F</v>
       </c>
-      <c r="BA14" s="67" t="str">
+      <c r="BA14" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2190</v>
       </c>
-      <c r="BB14" s="67" t="str">
+      <c r="BB14" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2191</v>
       </c>
-      <c r="BC14" s="67" t="str">
+      <c r="BC14" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2192</v>
       </c>
-      <c r="BD14" s="67" t="str">
+      <c r="BD14" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2193</v>
       </c>
-      <c r="BE14" s="67" t="str">
+      <c r="BE14" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2194</v>
       </c>
-      <c r="BF14" s="67" t="str">
+      <c r="BF14" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2195</v>
       </c>
-      <c r="BG14" s="67" t="str">
+      <c r="BG14" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2196</v>
       </c>
-      <c r="BH14" s="67" t="str">
+      <c r="BH14" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2197</v>
       </c>
-      <c r="BI14" s="67" t="str">
+      <c r="BI14" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2198</v>
       </c>
-      <c r="BJ14" s="67" t="str">
+      <c r="BJ14" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2199</v>
       </c>
-      <c r="BK14" s="67" t="str">
+      <c r="BK14" s="61" t="str">
         <f t="shared" si="26"/>
         <v>219A</v>
       </c>
-      <c r="BL14" s="67" t="str">
+      <c r="BL14" s="61" t="str">
         <f t="shared" si="27"/>
         <v>219B</v>
       </c>
-      <c r="BM14" s="67" t="str">
+      <c r="BM14" s="61" t="str">
         <f t="shared" si="28"/>
         <v>219C</v>
       </c>
-      <c r="BN14" s="67" t="str">
+      <c r="BN14" s="61" t="str">
         <f t="shared" si="29"/>
         <v>219D</v>
       </c>
-      <c r="BO14" s="67" t="str">
+      <c r="BO14" s="61" t="str">
         <f t="shared" si="30"/>
         <v>219E</v>
       </c>
-      <c r="BP14" s="68" t="str">
+      <c r="BP14" s="62" t="str">
         <f t="shared" si="31"/>
         <v>219F</v>
       </c>
@@ -8034,134 +8212,134 @@
         <f t="shared" si="46"/>
         <v>447</v>
       </c>
-      <c r="AJ15" s="65">
+      <c r="AJ15" s="59">
         <v>13</v>
       </c>
-      <c r="AK15" s="66" t="str">
+      <c r="AK15" s="60" t="str">
         <f t="shared" si="33"/>
         <v>21A0</v>
       </c>
-      <c r="AL15" s="67" t="str">
+      <c r="AL15" s="61" t="str">
         <f t="shared" si="1"/>
         <v>21A1</v>
       </c>
-      <c r="AM15" s="67" t="str">
+      <c r="AM15" s="61" t="str">
         <f t="shared" si="2"/>
         <v>21A2</v>
       </c>
-      <c r="AN15" s="67" t="str">
+      <c r="AN15" s="61" t="str">
         <f t="shared" si="3"/>
         <v>21A3</v>
       </c>
-      <c r="AO15" s="67" t="str">
+      <c r="AO15" s="61" t="str">
         <f t="shared" si="4"/>
         <v>21A4</v>
       </c>
-      <c r="AP15" s="67" t="str">
+      <c r="AP15" s="61" t="str">
         <f t="shared" si="5"/>
         <v>21A5</v>
       </c>
-      <c r="AQ15" s="67" t="str">
+      <c r="AQ15" s="61" t="str">
         <f t="shared" si="6"/>
         <v>21A6</v>
       </c>
-      <c r="AR15" s="67" t="str">
+      <c r="AR15" s="61" t="str">
         <f t="shared" si="7"/>
         <v>21A7</v>
       </c>
-      <c r="AS15" s="67" t="str">
+      <c r="AS15" s="61" t="str">
         <f t="shared" si="8"/>
         <v>21A8</v>
       </c>
-      <c r="AT15" s="67" t="str">
+      <c r="AT15" s="61" t="str">
         <f t="shared" si="9"/>
         <v>21A9</v>
       </c>
-      <c r="AU15" s="67" t="str">
+      <c r="AU15" s="61" t="str">
         <f t="shared" si="10"/>
         <v>21AA</v>
       </c>
-      <c r="AV15" s="67" t="str">
+      <c r="AV15" s="61" t="str">
         <f t="shared" si="11"/>
         <v>21AB</v>
       </c>
-      <c r="AW15" s="67" t="str">
+      <c r="AW15" s="61" t="str">
         <f t="shared" si="12"/>
         <v>21AC</v>
       </c>
-      <c r="AX15" s="67" t="str">
+      <c r="AX15" s="61" t="str">
         <f t="shared" si="13"/>
         <v>21AD</v>
       </c>
-      <c r="AY15" s="67" t="str">
+      <c r="AY15" s="61" t="str">
         <f t="shared" si="14"/>
         <v>21AE</v>
       </c>
-      <c r="AZ15" s="67" t="str">
+      <c r="AZ15" s="61" t="str">
         <f t="shared" si="15"/>
         <v>21AF</v>
       </c>
-      <c r="BA15" s="67" t="str">
+      <c r="BA15" s="61" t="str">
         <f t="shared" si="16"/>
         <v>21B0</v>
       </c>
-      <c r="BB15" s="67" t="str">
+      <c r="BB15" s="61" t="str">
         <f t="shared" si="17"/>
         <v>21B1</v>
       </c>
-      <c r="BC15" s="67" t="str">
+      <c r="BC15" s="61" t="str">
         <f t="shared" si="18"/>
         <v>21B2</v>
       </c>
-      <c r="BD15" s="67" t="str">
+      <c r="BD15" s="61" t="str">
         <f t="shared" si="19"/>
         <v>21B3</v>
       </c>
-      <c r="BE15" s="67" t="str">
+      <c r="BE15" s="61" t="str">
         <f t="shared" si="20"/>
         <v>21B4</v>
       </c>
-      <c r="BF15" s="67" t="str">
+      <c r="BF15" s="61" t="str">
         <f t="shared" si="21"/>
         <v>21B5</v>
       </c>
-      <c r="BG15" s="67" t="str">
+      <c r="BG15" s="61" t="str">
         <f t="shared" si="22"/>
         <v>21B6</v>
       </c>
-      <c r="BH15" s="67" t="str">
+      <c r="BH15" s="61" t="str">
         <f t="shared" si="23"/>
         <v>21B7</v>
       </c>
-      <c r="BI15" s="67" t="str">
+      <c r="BI15" s="61" t="str">
         <f t="shared" si="24"/>
         <v>21B8</v>
       </c>
-      <c r="BJ15" s="67" t="str">
+      <c r="BJ15" s="61" t="str">
         <f t="shared" si="25"/>
         <v>21B9</v>
       </c>
-      <c r="BK15" s="67" t="str">
+      <c r="BK15" s="61" t="str">
         <f t="shared" si="26"/>
         <v>21BA</v>
       </c>
-      <c r="BL15" s="67" t="str">
+      <c r="BL15" s="61" t="str">
         <f t="shared" si="27"/>
         <v>21BB</v>
       </c>
-      <c r="BM15" s="67" t="str">
+      <c r="BM15" s="61" t="str">
         <f t="shared" si="28"/>
         <v>21BC</v>
       </c>
-      <c r="BN15" s="67" t="str">
+      <c r="BN15" s="61" t="str">
         <f t="shared" si="29"/>
         <v>21BD</v>
       </c>
-      <c r="BO15" s="67" t="str">
+      <c r="BO15" s="61" t="str">
         <f t="shared" si="30"/>
         <v>21BE</v>
       </c>
-      <c r="BP15" s="68" t="str">
+      <c r="BP15" s="62" t="str">
         <f t="shared" si="31"/>
         <v>21BF</v>
       </c>
@@ -8298,134 +8476,134 @@
         <f t="shared" si="47"/>
         <v>479</v>
       </c>
-      <c r="AJ16" s="65">
+      <c r="AJ16" s="59">
         <v>14</v>
       </c>
-      <c r="AK16" s="66" t="str">
+      <c r="AK16" s="60" t="str">
         <f t="shared" si="33"/>
         <v>21C0</v>
       </c>
-      <c r="AL16" s="67" t="str">
+      <c r="AL16" s="61" t="str">
         <f t="shared" si="1"/>
         <v>21C1</v>
       </c>
-      <c r="AM16" s="67" t="str">
+      <c r="AM16" s="61" t="str">
         <f t="shared" si="2"/>
         <v>21C2</v>
       </c>
-      <c r="AN16" s="67" t="str">
+      <c r="AN16" s="61" t="str">
         <f t="shared" si="3"/>
         <v>21C3</v>
       </c>
-      <c r="AO16" s="67" t="str">
+      <c r="AO16" s="61" t="str">
         <f t="shared" si="4"/>
         <v>21C4</v>
       </c>
-      <c r="AP16" s="67" t="str">
+      <c r="AP16" s="61" t="str">
         <f t="shared" si="5"/>
         <v>21C5</v>
       </c>
-      <c r="AQ16" s="67" t="str">
+      <c r="AQ16" s="61" t="str">
         <f t="shared" si="6"/>
         <v>21C6</v>
       </c>
-      <c r="AR16" s="67" t="str">
+      <c r="AR16" s="61" t="str">
         <f t="shared" si="7"/>
         <v>21C7</v>
       </c>
-      <c r="AS16" s="67" t="str">
+      <c r="AS16" s="61" t="str">
         <f t="shared" si="8"/>
         <v>21C8</v>
       </c>
-      <c r="AT16" s="67" t="str">
+      <c r="AT16" s="61" t="str">
         <f t="shared" si="9"/>
         <v>21C9</v>
       </c>
-      <c r="AU16" s="67" t="str">
+      <c r="AU16" s="61" t="str">
         <f t="shared" si="10"/>
         <v>21CA</v>
       </c>
-      <c r="AV16" s="67" t="str">
+      <c r="AV16" s="61" t="str">
         <f t="shared" si="11"/>
         <v>21CB</v>
       </c>
-      <c r="AW16" s="67" t="str">
+      <c r="AW16" s="61" t="str">
         <f t="shared" si="12"/>
         <v>21CC</v>
       </c>
-      <c r="AX16" s="67" t="str">
+      <c r="AX16" s="61" t="str">
         <f t="shared" si="13"/>
         <v>21CD</v>
       </c>
-      <c r="AY16" s="67" t="str">
+      <c r="AY16" s="61" t="str">
         <f t="shared" si="14"/>
         <v>21CE</v>
       </c>
-      <c r="AZ16" s="67" t="str">
+      <c r="AZ16" s="61" t="str">
         <f t="shared" si="15"/>
         <v>21CF</v>
       </c>
-      <c r="BA16" s="67" t="str">
+      <c r="BA16" s="61" t="str">
         <f t="shared" si="16"/>
         <v>21D0</v>
       </c>
-      <c r="BB16" s="67" t="str">
+      <c r="BB16" s="61" t="str">
         <f t="shared" si="17"/>
         <v>21D1</v>
       </c>
-      <c r="BC16" s="67" t="str">
+      <c r="BC16" s="61" t="str">
         <f t="shared" si="18"/>
         <v>21D2</v>
       </c>
-      <c r="BD16" s="67" t="str">
+      <c r="BD16" s="61" t="str">
         <f t="shared" si="19"/>
         <v>21D3</v>
       </c>
-      <c r="BE16" s="67" t="str">
+      <c r="BE16" s="61" t="str">
         <f t="shared" si="20"/>
         <v>21D4</v>
       </c>
-      <c r="BF16" s="67" t="str">
+      <c r="BF16" s="61" t="str">
         <f t="shared" si="21"/>
         <v>21D5</v>
       </c>
-      <c r="BG16" s="67" t="str">
+      <c r="BG16" s="61" t="str">
         <f t="shared" si="22"/>
         <v>21D6</v>
       </c>
-      <c r="BH16" s="67" t="str">
+      <c r="BH16" s="61" t="str">
         <f t="shared" si="23"/>
         <v>21D7</v>
       </c>
-      <c r="BI16" s="67" t="str">
+      <c r="BI16" s="61" t="str">
         <f t="shared" si="24"/>
         <v>21D8</v>
       </c>
-      <c r="BJ16" s="67" t="str">
+      <c r="BJ16" s="61" t="str">
         <f t="shared" si="25"/>
         <v>21D9</v>
       </c>
-      <c r="BK16" s="67" t="str">
+      <c r="BK16" s="61" t="str">
         <f t="shared" si="26"/>
         <v>21DA</v>
       </c>
-      <c r="BL16" s="67" t="str">
+      <c r="BL16" s="61" t="str">
         <f t="shared" si="27"/>
         <v>21DB</v>
       </c>
-      <c r="BM16" s="67" t="str">
+      <c r="BM16" s="61" t="str">
         <f t="shared" si="28"/>
         <v>21DC</v>
       </c>
-      <c r="BN16" s="67" t="str">
+      <c r="BN16" s="61" t="str">
         <f t="shared" si="29"/>
         <v>21DD</v>
       </c>
-      <c r="BO16" s="67" t="str">
+      <c r="BO16" s="61" t="str">
         <f t="shared" si="30"/>
         <v>21DE</v>
       </c>
-      <c r="BP16" s="68" t="str">
+      <c r="BP16" s="62" t="str">
         <f t="shared" si="31"/>
         <v>21DF</v>
       </c>
@@ -8562,134 +8740,134 @@
         <f t="shared" si="48"/>
         <v>511</v>
       </c>
-      <c r="AJ17" s="65">
+      <c r="AJ17" s="59">
         <v>15</v>
       </c>
-      <c r="AK17" s="66" t="str">
+      <c r="AK17" s="60" t="str">
         <f t="shared" si="33"/>
         <v>21E0</v>
       </c>
-      <c r="AL17" s="67" t="str">
+      <c r="AL17" s="61" t="str">
         <f t="shared" si="1"/>
         <v>21E1</v>
       </c>
-      <c r="AM17" s="67" t="str">
+      <c r="AM17" s="61" t="str">
         <f t="shared" si="2"/>
         <v>21E2</v>
       </c>
-      <c r="AN17" s="67" t="str">
+      <c r="AN17" s="61" t="str">
         <f t="shared" si="3"/>
         <v>21E3</v>
       </c>
-      <c r="AO17" s="67" t="str">
+      <c r="AO17" s="61" t="str">
         <f t="shared" si="4"/>
         <v>21E4</v>
       </c>
-      <c r="AP17" s="67" t="str">
+      <c r="AP17" s="61" t="str">
         <f t="shared" si="5"/>
         <v>21E5</v>
       </c>
-      <c r="AQ17" s="67" t="str">
+      <c r="AQ17" s="61" t="str">
         <f t="shared" si="6"/>
         <v>21E6</v>
       </c>
-      <c r="AR17" s="67" t="str">
+      <c r="AR17" s="61" t="str">
         <f t="shared" si="7"/>
         <v>21E7</v>
       </c>
-      <c r="AS17" s="67" t="str">
+      <c r="AS17" s="61" t="str">
         <f t="shared" si="8"/>
         <v>21E8</v>
       </c>
-      <c r="AT17" s="67" t="str">
+      <c r="AT17" s="61" t="str">
         <f t="shared" si="9"/>
         <v>21E9</v>
       </c>
-      <c r="AU17" s="67" t="str">
+      <c r="AU17" s="61" t="str">
         <f t="shared" si="10"/>
         <v>21EA</v>
       </c>
-      <c r="AV17" s="67" t="str">
+      <c r="AV17" s="61" t="str">
         <f t="shared" si="11"/>
         <v>21EB</v>
       </c>
-      <c r="AW17" s="67" t="str">
+      <c r="AW17" s="61" t="str">
         <f t="shared" si="12"/>
         <v>21EC</v>
       </c>
-      <c r="AX17" s="67" t="str">
+      <c r="AX17" s="61" t="str">
         <f t="shared" si="13"/>
         <v>21ED</v>
       </c>
-      <c r="AY17" s="67" t="str">
+      <c r="AY17" s="61" t="str">
         <f t="shared" si="14"/>
         <v>21EE</v>
       </c>
-      <c r="AZ17" s="67" t="str">
+      <c r="AZ17" s="61" t="str">
         <f t="shared" si="15"/>
         <v>21EF</v>
       </c>
-      <c r="BA17" s="67" t="str">
+      <c r="BA17" s="61" t="str">
         <f t="shared" si="16"/>
         <v>21F0</v>
       </c>
-      <c r="BB17" s="67" t="str">
+      <c r="BB17" s="61" t="str">
         <f t="shared" si="17"/>
         <v>21F1</v>
       </c>
-      <c r="BC17" s="67" t="str">
+      <c r="BC17" s="61" t="str">
         <f t="shared" si="18"/>
         <v>21F2</v>
       </c>
-      <c r="BD17" s="67" t="str">
+      <c r="BD17" s="61" t="str">
         <f t="shared" si="19"/>
         <v>21F3</v>
       </c>
-      <c r="BE17" s="67" t="str">
+      <c r="BE17" s="61" t="str">
         <f t="shared" si="20"/>
         <v>21F4</v>
       </c>
-      <c r="BF17" s="67" t="str">
+      <c r="BF17" s="61" t="str">
         <f t="shared" si="21"/>
         <v>21F5</v>
       </c>
-      <c r="BG17" s="67" t="str">
+      <c r="BG17" s="61" t="str">
         <f t="shared" si="22"/>
         <v>21F6</v>
       </c>
-      <c r="BH17" s="67" t="str">
+      <c r="BH17" s="61" t="str">
         <f t="shared" si="23"/>
         <v>21F7</v>
       </c>
-      <c r="BI17" s="67" t="str">
+      <c r="BI17" s="61" t="str">
         <f t="shared" si="24"/>
         <v>21F8</v>
       </c>
-      <c r="BJ17" s="67" t="str">
+      <c r="BJ17" s="61" t="str">
         <f t="shared" si="25"/>
         <v>21F9</v>
       </c>
-      <c r="BK17" s="67" t="str">
+      <c r="BK17" s="61" t="str">
         <f t="shared" si="26"/>
         <v>21FA</v>
       </c>
-      <c r="BL17" s="67" t="str">
+      <c r="BL17" s="61" t="str">
         <f t="shared" si="27"/>
         <v>21FB</v>
       </c>
-      <c r="BM17" s="67" t="str">
+      <c r="BM17" s="61" t="str">
         <f t="shared" si="28"/>
         <v>21FC</v>
       </c>
-      <c r="BN17" s="67" t="str">
+      <c r="BN17" s="61" t="str">
         <f t="shared" si="29"/>
         <v>21FD</v>
       </c>
-      <c r="BO17" s="67" t="str">
+      <c r="BO17" s="61" t="str">
         <f t="shared" si="30"/>
         <v>21FE</v>
       </c>
-      <c r="BP17" s="68" t="str">
+      <c r="BP17" s="62" t="str">
         <f t="shared" si="31"/>
         <v>21FF</v>
       </c>
@@ -8826,134 +9004,134 @@
         <f t="shared" si="49"/>
         <v>543</v>
       </c>
-      <c r="AJ18" s="65">
+      <c r="AJ18" s="59">
         <v>16</v>
       </c>
-      <c r="AK18" s="66" t="str">
+      <c r="AK18" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2200</v>
       </c>
-      <c r="AL18" s="67" t="str">
+      <c r="AL18" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2201</v>
       </c>
-      <c r="AM18" s="67" t="str">
+      <c r="AM18" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2202</v>
       </c>
-      <c r="AN18" s="67" t="str">
+      <c r="AN18" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2203</v>
       </c>
-      <c r="AO18" s="67" t="str">
+      <c r="AO18" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2204</v>
       </c>
-      <c r="AP18" s="67" t="str">
+      <c r="AP18" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2205</v>
       </c>
-      <c r="AQ18" s="67" t="str">
+      <c r="AQ18" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2206</v>
       </c>
-      <c r="AR18" s="67" t="str">
+      <c r="AR18" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2207</v>
       </c>
-      <c r="AS18" s="67" t="str">
+      <c r="AS18" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2208</v>
       </c>
-      <c r="AT18" s="67" t="str">
+      <c r="AT18" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2209</v>
       </c>
-      <c r="AU18" s="67" t="str">
+      <c r="AU18" s="61" t="str">
         <f t="shared" si="10"/>
         <v>220A</v>
       </c>
-      <c r="AV18" s="67" t="str">
+      <c r="AV18" s="61" t="str">
         <f t="shared" si="11"/>
         <v>220B</v>
       </c>
-      <c r="AW18" s="67" t="str">
+      <c r="AW18" s="61" t="str">
         <f t="shared" si="12"/>
         <v>220C</v>
       </c>
-      <c r="AX18" s="67" t="str">
+      <c r="AX18" s="61" t="str">
         <f t="shared" si="13"/>
         <v>220D</v>
       </c>
-      <c r="AY18" s="67" t="str">
+      <c r="AY18" s="61" t="str">
         <f t="shared" si="14"/>
         <v>220E</v>
       </c>
-      <c r="AZ18" s="67" t="str">
+      <c r="AZ18" s="61" t="str">
         <f t="shared" si="15"/>
         <v>220F</v>
       </c>
-      <c r="BA18" s="67" t="str">
+      <c r="BA18" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2210</v>
       </c>
-      <c r="BB18" s="67" t="str">
+      <c r="BB18" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2211</v>
       </c>
-      <c r="BC18" s="67" t="str">
+      <c r="BC18" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2212</v>
       </c>
-      <c r="BD18" s="67" t="str">
+      <c r="BD18" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2213</v>
       </c>
-      <c r="BE18" s="67" t="str">
+      <c r="BE18" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2214</v>
       </c>
-      <c r="BF18" s="67" t="str">
+      <c r="BF18" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2215</v>
       </c>
-      <c r="BG18" s="67" t="str">
+      <c r="BG18" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2216</v>
       </c>
-      <c r="BH18" s="67" t="str">
+      <c r="BH18" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2217</v>
       </c>
-      <c r="BI18" s="67" t="str">
+      <c r="BI18" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2218</v>
       </c>
-      <c r="BJ18" s="67" t="str">
+      <c r="BJ18" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2219</v>
       </c>
-      <c r="BK18" s="67" t="str">
+      <c r="BK18" s="61" t="str">
         <f t="shared" si="26"/>
         <v>221A</v>
       </c>
-      <c r="BL18" s="67" t="str">
+      <c r="BL18" s="61" t="str">
         <f t="shared" si="27"/>
         <v>221B</v>
       </c>
-      <c r="BM18" s="67" t="str">
+      <c r="BM18" s="61" t="str">
         <f t="shared" si="28"/>
         <v>221C</v>
       </c>
-      <c r="BN18" s="67" t="str">
+      <c r="BN18" s="61" t="str">
         <f t="shared" si="29"/>
         <v>221D</v>
       </c>
-      <c r="BO18" s="67" t="str">
+      <c r="BO18" s="61" t="str">
         <f t="shared" si="30"/>
         <v>221E</v>
       </c>
-      <c r="BP18" s="68" t="str">
+      <c r="BP18" s="62" t="str">
         <f t="shared" si="31"/>
         <v>221F</v>
       </c>
@@ -9090,134 +9268,134 @@
         <f t="shared" si="50"/>
         <v>575</v>
       </c>
-      <c r="AJ19" s="65">
+      <c r="AJ19" s="59">
         <v>17</v>
       </c>
-      <c r="AK19" s="66" t="str">
+      <c r="AK19" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2220</v>
       </c>
-      <c r="AL19" s="67" t="str">
+      <c r="AL19" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2221</v>
       </c>
-      <c r="AM19" s="67" t="str">
+      <c r="AM19" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2222</v>
       </c>
-      <c r="AN19" s="67" t="str">
+      <c r="AN19" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2223</v>
       </c>
-      <c r="AO19" s="67" t="str">
+      <c r="AO19" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2224</v>
       </c>
-      <c r="AP19" s="67" t="str">
+      <c r="AP19" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2225</v>
       </c>
-      <c r="AQ19" s="67" t="str">
+      <c r="AQ19" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2226</v>
       </c>
-      <c r="AR19" s="67" t="str">
+      <c r="AR19" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2227</v>
       </c>
-      <c r="AS19" s="67" t="str">
+      <c r="AS19" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2228</v>
       </c>
-      <c r="AT19" s="67" t="str">
+      <c r="AT19" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2229</v>
       </c>
-      <c r="AU19" s="67" t="str">
+      <c r="AU19" s="61" t="str">
         <f t="shared" si="10"/>
         <v>222A</v>
       </c>
-      <c r="AV19" s="67" t="str">
+      <c r="AV19" s="61" t="str">
         <f t="shared" si="11"/>
         <v>222B</v>
       </c>
-      <c r="AW19" s="67" t="str">
+      <c r="AW19" s="61" t="str">
         <f t="shared" si="12"/>
         <v>222C</v>
       </c>
-      <c r="AX19" s="67" t="str">
+      <c r="AX19" s="61" t="str">
         <f t="shared" si="13"/>
         <v>222D</v>
       </c>
-      <c r="AY19" s="67" t="str">
+      <c r="AY19" s="61" t="str">
         <f t="shared" si="14"/>
         <v>222E</v>
       </c>
-      <c r="AZ19" s="67" t="str">
+      <c r="AZ19" s="61" t="str">
         <f t="shared" si="15"/>
         <v>222F</v>
       </c>
-      <c r="BA19" s="67" t="str">
+      <c r="BA19" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2230</v>
       </c>
-      <c r="BB19" s="67" t="str">
+      <c r="BB19" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2231</v>
       </c>
-      <c r="BC19" s="67" t="str">
+      <c r="BC19" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2232</v>
       </c>
-      <c r="BD19" s="67" t="str">
+      <c r="BD19" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2233</v>
       </c>
-      <c r="BE19" s="67" t="str">
+      <c r="BE19" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2234</v>
       </c>
-      <c r="BF19" s="67" t="str">
+      <c r="BF19" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2235</v>
       </c>
-      <c r="BG19" s="67" t="str">
+      <c r="BG19" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2236</v>
       </c>
-      <c r="BH19" s="67" t="str">
+      <c r="BH19" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2237</v>
       </c>
-      <c r="BI19" s="67" t="str">
+      <c r="BI19" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2238</v>
       </c>
-      <c r="BJ19" s="67" t="str">
+      <c r="BJ19" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2239</v>
       </c>
-      <c r="BK19" s="67" t="str">
+      <c r="BK19" s="61" t="str">
         <f t="shared" si="26"/>
         <v>223A</v>
       </c>
-      <c r="BL19" s="67" t="str">
+      <c r="BL19" s="61" t="str">
         <f t="shared" si="27"/>
         <v>223B</v>
       </c>
-      <c r="BM19" s="67" t="str">
+      <c r="BM19" s="61" t="str">
         <f t="shared" si="28"/>
         <v>223C</v>
       </c>
-      <c r="BN19" s="67" t="str">
+      <c r="BN19" s="61" t="str">
         <f t="shared" si="29"/>
         <v>223D</v>
       </c>
-      <c r="BO19" s="67" t="str">
+      <c r="BO19" s="61" t="str">
         <f t="shared" si="30"/>
         <v>223E</v>
       </c>
-      <c r="BP19" s="68" t="str">
+      <c r="BP19" s="62" t="str">
         <f t="shared" si="31"/>
         <v>223F</v>
       </c>
@@ -9354,134 +9532,134 @@
         <f t="shared" si="51"/>
         <v>607</v>
       </c>
-      <c r="AJ20" s="65">
+      <c r="AJ20" s="59">
         <v>18</v>
       </c>
-      <c r="AK20" s="66" t="str">
+      <c r="AK20" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2240</v>
       </c>
-      <c r="AL20" s="67" t="str">
+      <c r="AL20" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2241</v>
       </c>
-      <c r="AM20" s="67" t="str">
+      <c r="AM20" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2242</v>
       </c>
-      <c r="AN20" s="67" t="str">
+      <c r="AN20" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2243</v>
       </c>
-      <c r="AO20" s="67" t="str">
+      <c r="AO20" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2244</v>
       </c>
-      <c r="AP20" s="67" t="str">
+      <c r="AP20" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2245</v>
       </c>
-      <c r="AQ20" s="67" t="str">
+      <c r="AQ20" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2246</v>
       </c>
-      <c r="AR20" s="67" t="str">
+      <c r="AR20" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2247</v>
       </c>
-      <c r="AS20" s="67" t="str">
+      <c r="AS20" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2248</v>
       </c>
-      <c r="AT20" s="67" t="str">
+      <c r="AT20" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2249</v>
       </c>
-      <c r="AU20" s="67" t="str">
+      <c r="AU20" s="61" t="str">
         <f t="shared" si="10"/>
         <v>224A</v>
       </c>
-      <c r="AV20" s="67" t="str">
+      <c r="AV20" s="61" t="str">
         <f t="shared" si="11"/>
         <v>224B</v>
       </c>
-      <c r="AW20" s="67" t="str">
+      <c r="AW20" s="61" t="str">
         <f t="shared" si="12"/>
         <v>224C</v>
       </c>
-      <c r="AX20" s="67" t="str">
+      <c r="AX20" s="61" t="str">
         <f t="shared" si="13"/>
         <v>224D</v>
       </c>
-      <c r="AY20" s="67" t="str">
+      <c r="AY20" s="61" t="str">
         <f t="shared" si="14"/>
         <v>224E</v>
       </c>
-      <c r="AZ20" s="67" t="str">
+      <c r="AZ20" s="61" t="str">
         <f t="shared" si="15"/>
         <v>224F</v>
       </c>
-      <c r="BA20" s="67" t="str">
+      <c r="BA20" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2250</v>
       </c>
-      <c r="BB20" s="67" t="str">
+      <c r="BB20" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2251</v>
       </c>
-      <c r="BC20" s="67" t="str">
+      <c r="BC20" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2252</v>
       </c>
-      <c r="BD20" s="67" t="str">
+      <c r="BD20" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2253</v>
       </c>
-      <c r="BE20" s="67" t="str">
+      <c r="BE20" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2254</v>
       </c>
-      <c r="BF20" s="67" t="str">
+      <c r="BF20" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2255</v>
       </c>
-      <c r="BG20" s="67" t="str">
+      <c r="BG20" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2256</v>
       </c>
-      <c r="BH20" s="67" t="str">
+      <c r="BH20" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2257</v>
       </c>
-      <c r="BI20" s="67" t="str">
+      <c r="BI20" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2258</v>
       </c>
-      <c r="BJ20" s="67" t="str">
+      <c r="BJ20" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2259</v>
       </c>
-      <c r="BK20" s="67" t="str">
+      <c r="BK20" s="61" t="str">
         <f t="shared" si="26"/>
         <v>225A</v>
       </c>
-      <c r="BL20" s="67" t="str">
+      <c r="BL20" s="61" t="str">
         <f t="shared" si="27"/>
         <v>225B</v>
       </c>
-      <c r="BM20" s="67" t="str">
+      <c r="BM20" s="61" t="str">
         <f t="shared" si="28"/>
         <v>225C</v>
       </c>
-      <c r="BN20" s="67" t="str">
+      <c r="BN20" s="61" t="str">
         <f t="shared" si="29"/>
         <v>225D</v>
       </c>
-      <c r="BO20" s="67" t="str">
+      <c r="BO20" s="61" t="str">
         <f t="shared" si="30"/>
         <v>225E</v>
       </c>
-      <c r="BP20" s="68" t="str">
+      <c r="BP20" s="62" t="str">
         <f t="shared" si="31"/>
         <v>225F</v>
       </c>
@@ -9618,134 +9796,134 @@
         <f t="shared" si="52"/>
         <v>639</v>
       </c>
-      <c r="AJ21" s="65">
+      <c r="AJ21" s="59">
         <v>19</v>
       </c>
-      <c r="AK21" s="66" t="str">
+      <c r="AK21" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2260</v>
       </c>
-      <c r="AL21" s="67" t="str">
+      <c r="AL21" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2261</v>
       </c>
-      <c r="AM21" s="67" t="str">
+      <c r="AM21" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2262</v>
       </c>
-      <c r="AN21" s="67" t="str">
+      <c r="AN21" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2263</v>
       </c>
-      <c r="AO21" s="67" t="str">
+      <c r="AO21" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2264</v>
       </c>
-      <c r="AP21" s="67" t="str">
+      <c r="AP21" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2265</v>
       </c>
-      <c r="AQ21" s="67" t="str">
+      <c r="AQ21" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2266</v>
       </c>
-      <c r="AR21" s="67" t="str">
+      <c r="AR21" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2267</v>
       </c>
-      <c r="AS21" s="67" t="str">
+      <c r="AS21" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2268</v>
       </c>
-      <c r="AT21" s="67" t="str">
+      <c r="AT21" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2269</v>
       </c>
-      <c r="AU21" s="67" t="str">
+      <c r="AU21" s="61" t="str">
         <f t="shared" si="10"/>
         <v>226A</v>
       </c>
-      <c r="AV21" s="67" t="str">
+      <c r="AV21" s="61" t="str">
         <f t="shared" si="11"/>
         <v>226B</v>
       </c>
-      <c r="AW21" s="67" t="str">
+      <c r="AW21" s="61" t="str">
         <f t="shared" si="12"/>
         <v>226C</v>
       </c>
-      <c r="AX21" s="67" t="str">
+      <c r="AX21" s="61" t="str">
         <f t="shared" si="13"/>
         <v>226D</v>
       </c>
-      <c r="AY21" s="67" t="str">
+      <c r="AY21" s="61" t="str">
         <f t="shared" si="14"/>
         <v>226E</v>
       </c>
-      <c r="AZ21" s="67" t="str">
+      <c r="AZ21" s="61" t="str">
         <f t="shared" si="15"/>
         <v>226F</v>
       </c>
-      <c r="BA21" s="67" t="str">
+      <c r="BA21" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2270</v>
       </c>
-      <c r="BB21" s="67" t="str">
+      <c r="BB21" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2271</v>
       </c>
-      <c r="BC21" s="67" t="str">
+      <c r="BC21" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2272</v>
       </c>
-      <c r="BD21" s="67" t="str">
+      <c r="BD21" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2273</v>
       </c>
-      <c r="BE21" s="67" t="str">
+      <c r="BE21" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2274</v>
       </c>
-      <c r="BF21" s="67" t="str">
+      <c r="BF21" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2275</v>
       </c>
-      <c r="BG21" s="67" t="str">
+      <c r="BG21" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2276</v>
       </c>
-      <c r="BH21" s="67" t="str">
+      <c r="BH21" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2277</v>
       </c>
-      <c r="BI21" s="67" t="str">
+      <c r="BI21" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2278</v>
       </c>
-      <c r="BJ21" s="67" t="str">
+      <c r="BJ21" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2279</v>
       </c>
-      <c r="BK21" s="67" t="str">
+      <c r="BK21" s="61" t="str">
         <f t="shared" si="26"/>
         <v>227A</v>
       </c>
-      <c r="BL21" s="67" t="str">
+      <c r="BL21" s="61" t="str">
         <f t="shared" si="27"/>
         <v>227B</v>
       </c>
-      <c r="BM21" s="67" t="str">
+      <c r="BM21" s="61" t="str">
         <f t="shared" si="28"/>
         <v>227C</v>
       </c>
-      <c r="BN21" s="67" t="str">
+      <c r="BN21" s="61" t="str">
         <f t="shared" si="29"/>
         <v>227D</v>
       </c>
-      <c r="BO21" s="67" t="str">
+      <c r="BO21" s="61" t="str">
         <f t="shared" si="30"/>
         <v>227E</v>
       </c>
-      <c r="BP21" s="68" t="str">
+      <c r="BP21" s="62" t="str">
         <f t="shared" si="31"/>
         <v>227F</v>
       </c>
@@ -9882,134 +10060,134 @@
         <f t="shared" si="53"/>
         <v>671</v>
       </c>
-      <c r="AJ22" s="65">
+      <c r="AJ22" s="59">
         <v>20</v>
       </c>
-      <c r="AK22" s="66" t="str">
+      <c r="AK22" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2280</v>
       </c>
-      <c r="AL22" s="67" t="str">
+      <c r="AL22" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2281</v>
       </c>
-      <c r="AM22" s="67" t="str">
+      <c r="AM22" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2282</v>
       </c>
-      <c r="AN22" s="67" t="str">
+      <c r="AN22" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2283</v>
       </c>
-      <c r="AO22" s="67" t="str">
+      <c r="AO22" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2284</v>
       </c>
-      <c r="AP22" s="67" t="str">
+      <c r="AP22" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2285</v>
       </c>
-      <c r="AQ22" s="67" t="str">
+      <c r="AQ22" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2286</v>
       </c>
-      <c r="AR22" s="67" t="str">
+      <c r="AR22" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2287</v>
       </c>
-      <c r="AS22" s="67" t="str">
+      <c r="AS22" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2288</v>
       </c>
-      <c r="AT22" s="67" t="str">
+      <c r="AT22" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2289</v>
       </c>
-      <c r="AU22" s="67" t="str">
+      <c r="AU22" s="61" t="str">
         <f t="shared" si="10"/>
         <v>228A</v>
       </c>
-      <c r="AV22" s="67" t="str">
+      <c r="AV22" s="61" t="str">
         <f t="shared" si="11"/>
         <v>228B</v>
       </c>
-      <c r="AW22" s="67" t="str">
+      <c r="AW22" s="61" t="str">
         <f t="shared" si="12"/>
         <v>228C</v>
       </c>
-      <c r="AX22" s="67" t="str">
+      <c r="AX22" s="61" t="str">
         <f t="shared" si="13"/>
         <v>228D</v>
       </c>
-      <c r="AY22" s="67" t="str">
+      <c r="AY22" s="61" t="str">
         <f t="shared" si="14"/>
         <v>228E</v>
       </c>
-      <c r="AZ22" s="67" t="str">
+      <c r="AZ22" s="61" t="str">
         <f t="shared" si="15"/>
         <v>228F</v>
       </c>
-      <c r="BA22" s="67" t="str">
+      <c r="BA22" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2290</v>
       </c>
-      <c r="BB22" s="67" t="str">
+      <c r="BB22" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2291</v>
       </c>
-      <c r="BC22" s="67" t="str">
+      <c r="BC22" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2292</v>
       </c>
-      <c r="BD22" s="67" t="str">
+      <c r="BD22" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2293</v>
       </c>
-      <c r="BE22" s="67" t="str">
+      <c r="BE22" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2294</v>
       </c>
-      <c r="BF22" s="67" t="str">
+      <c r="BF22" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2295</v>
       </c>
-      <c r="BG22" s="67" t="str">
+      <c r="BG22" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2296</v>
       </c>
-      <c r="BH22" s="67" t="str">
+      <c r="BH22" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2297</v>
       </c>
-      <c r="BI22" s="67" t="str">
+      <c r="BI22" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2298</v>
       </c>
-      <c r="BJ22" s="67" t="str">
+      <c r="BJ22" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2299</v>
       </c>
-      <c r="BK22" s="67" t="str">
+      <c r="BK22" s="61" t="str">
         <f t="shared" si="26"/>
         <v>229A</v>
       </c>
-      <c r="BL22" s="67" t="str">
+      <c r="BL22" s="61" t="str">
         <f t="shared" si="27"/>
         <v>229B</v>
       </c>
-      <c r="BM22" s="67" t="str">
+      <c r="BM22" s="61" t="str">
         <f t="shared" si="28"/>
         <v>229C</v>
       </c>
-      <c r="BN22" s="67" t="str">
+      <c r="BN22" s="61" t="str">
         <f t="shared" si="29"/>
         <v>229D</v>
       </c>
-      <c r="BO22" s="67" t="str">
+      <c r="BO22" s="61" t="str">
         <f t="shared" si="30"/>
         <v>229E</v>
       </c>
-      <c r="BP22" s="68" t="str">
+      <c r="BP22" s="62" t="str">
         <f t="shared" si="31"/>
         <v>229F</v>
       </c>
@@ -10146,134 +10324,134 @@
         <f t="shared" si="54"/>
         <v>703</v>
       </c>
-      <c r="AJ23" s="65">
+      <c r="AJ23" s="59">
         <v>21</v>
       </c>
-      <c r="AK23" s="66" t="str">
+      <c r="AK23" s="60" t="str">
         <f t="shared" si="33"/>
         <v>22A0</v>
       </c>
-      <c r="AL23" s="67" t="str">
+      <c r="AL23" s="61" t="str">
         <f t="shared" si="1"/>
         <v>22A1</v>
       </c>
-      <c r="AM23" s="67" t="str">
+      <c r="AM23" s="61" t="str">
         <f t="shared" si="2"/>
         <v>22A2</v>
       </c>
-      <c r="AN23" s="67" t="str">
+      <c r="AN23" s="61" t="str">
         <f t="shared" si="3"/>
         <v>22A3</v>
       </c>
-      <c r="AO23" s="67" t="str">
+      <c r="AO23" s="61" t="str">
         <f t="shared" si="4"/>
         <v>22A4</v>
       </c>
-      <c r="AP23" s="67" t="str">
+      <c r="AP23" s="61" t="str">
         <f t="shared" si="5"/>
         <v>22A5</v>
       </c>
-      <c r="AQ23" s="67" t="str">
+      <c r="AQ23" s="61" t="str">
         <f t="shared" si="6"/>
         <v>22A6</v>
       </c>
-      <c r="AR23" s="67" t="str">
+      <c r="AR23" s="61" t="str">
         <f t="shared" si="7"/>
         <v>22A7</v>
       </c>
-      <c r="AS23" s="67" t="str">
+      <c r="AS23" s="61" t="str">
         <f t="shared" si="8"/>
         <v>22A8</v>
       </c>
-      <c r="AT23" s="67" t="str">
+      <c r="AT23" s="61" t="str">
         <f t="shared" si="9"/>
         <v>22A9</v>
       </c>
-      <c r="AU23" s="67" t="str">
+      <c r="AU23" s="61" t="str">
         <f t="shared" si="10"/>
         <v>22AA</v>
       </c>
-      <c r="AV23" s="67" t="str">
+      <c r="AV23" s="61" t="str">
         <f t="shared" si="11"/>
         <v>22AB</v>
       </c>
-      <c r="AW23" s="67" t="str">
+      <c r="AW23" s="61" t="str">
         <f t="shared" si="12"/>
         <v>22AC</v>
       </c>
-      <c r="AX23" s="67" t="str">
+      <c r="AX23" s="61" t="str">
         <f t="shared" si="13"/>
         <v>22AD</v>
       </c>
-      <c r="AY23" s="67" t="str">
+      <c r="AY23" s="61" t="str">
         <f t="shared" si="14"/>
         <v>22AE</v>
       </c>
-      <c r="AZ23" s="67" t="str">
+      <c r="AZ23" s="61" t="str">
         <f t="shared" si="15"/>
         <v>22AF</v>
       </c>
-      <c r="BA23" s="67" t="str">
+      <c r="BA23" s="61" t="str">
         <f t="shared" si="16"/>
         <v>22B0</v>
       </c>
-      <c r="BB23" s="67" t="str">
+      <c r="BB23" s="61" t="str">
         <f t="shared" si="17"/>
         <v>22B1</v>
       </c>
-      <c r="BC23" s="67" t="str">
+      <c r="BC23" s="61" t="str">
         <f t="shared" si="18"/>
         <v>22B2</v>
       </c>
-      <c r="BD23" s="67" t="str">
+      <c r="BD23" s="61" t="str">
         <f t="shared" si="19"/>
         <v>22B3</v>
       </c>
-      <c r="BE23" s="67" t="str">
+      <c r="BE23" s="61" t="str">
         <f t="shared" si="20"/>
         <v>22B4</v>
       </c>
-      <c r="BF23" s="67" t="str">
+      <c r="BF23" s="61" t="str">
         <f t="shared" si="21"/>
         <v>22B5</v>
       </c>
-      <c r="BG23" s="67" t="str">
+      <c r="BG23" s="61" t="str">
         <f t="shared" si="22"/>
         <v>22B6</v>
       </c>
-      <c r="BH23" s="67" t="str">
+      <c r="BH23" s="61" t="str">
         <f t="shared" si="23"/>
         <v>22B7</v>
       </c>
-      <c r="BI23" s="67" t="str">
+      <c r="BI23" s="61" t="str">
         <f t="shared" si="24"/>
         <v>22B8</v>
       </c>
-      <c r="BJ23" s="67" t="str">
+      <c r="BJ23" s="61" t="str">
         <f t="shared" si="25"/>
         <v>22B9</v>
       </c>
-      <c r="BK23" s="67" t="str">
+      <c r="BK23" s="61" t="str">
         <f t="shared" si="26"/>
         <v>22BA</v>
       </c>
-      <c r="BL23" s="67" t="str">
+      <c r="BL23" s="61" t="str">
         <f t="shared" si="27"/>
         <v>22BB</v>
       </c>
-      <c r="BM23" s="67" t="str">
+      <c r="BM23" s="61" t="str">
         <f t="shared" si="28"/>
         <v>22BC</v>
       </c>
-      <c r="BN23" s="67" t="str">
+      <c r="BN23" s="61" t="str">
         <f t="shared" si="29"/>
         <v>22BD</v>
       </c>
-      <c r="BO23" s="67" t="str">
+      <c r="BO23" s="61" t="str">
         <f t="shared" si="30"/>
         <v>22BE</v>
       </c>
-      <c r="BP23" s="68" t="str">
+      <c r="BP23" s="62" t="str">
         <f t="shared" si="31"/>
         <v>22BF</v>
       </c>
@@ -10410,134 +10588,134 @@
         <f t="shared" si="55"/>
         <v>735</v>
       </c>
-      <c r="AJ24" s="65">
+      <c r="AJ24" s="59">
         <v>22</v>
       </c>
-      <c r="AK24" s="66" t="str">
+      <c r="AK24" s="60" t="str">
         <f t="shared" si="33"/>
         <v>22C0</v>
       </c>
-      <c r="AL24" s="67" t="str">
+      <c r="AL24" s="61" t="str">
         <f t="shared" si="1"/>
         <v>22C1</v>
       </c>
-      <c r="AM24" s="67" t="str">
+      <c r="AM24" s="61" t="str">
         <f t="shared" si="2"/>
         <v>22C2</v>
       </c>
-      <c r="AN24" s="67" t="str">
+      <c r="AN24" s="61" t="str">
         <f t="shared" si="3"/>
         <v>22C3</v>
       </c>
-      <c r="AO24" s="67" t="str">
+      <c r="AO24" s="61" t="str">
         <f t="shared" si="4"/>
         <v>22C4</v>
       </c>
-      <c r="AP24" s="67" t="str">
+      <c r="AP24" s="61" t="str">
         <f t="shared" si="5"/>
         <v>22C5</v>
       </c>
-      <c r="AQ24" s="67" t="str">
+      <c r="AQ24" s="61" t="str">
         <f t="shared" si="6"/>
         <v>22C6</v>
       </c>
-      <c r="AR24" s="67" t="str">
+      <c r="AR24" s="61" t="str">
         <f t="shared" si="7"/>
         <v>22C7</v>
       </c>
-      <c r="AS24" s="67" t="str">
+      <c r="AS24" s="61" t="str">
         <f t="shared" si="8"/>
         <v>22C8</v>
       </c>
-      <c r="AT24" s="67" t="str">
+      <c r="AT24" s="61" t="str">
         <f t="shared" si="9"/>
         <v>22C9</v>
       </c>
-      <c r="AU24" s="67" t="str">
+      <c r="AU24" s="61" t="str">
         <f t="shared" si="10"/>
         <v>22CA</v>
       </c>
-      <c r="AV24" s="67" t="str">
+      <c r="AV24" s="61" t="str">
         <f t="shared" si="11"/>
         <v>22CB</v>
       </c>
-      <c r="AW24" s="67" t="str">
+      <c r="AW24" s="61" t="str">
         <f t="shared" si="12"/>
         <v>22CC</v>
       </c>
-      <c r="AX24" s="67" t="str">
+      <c r="AX24" s="61" t="str">
         <f t="shared" si="13"/>
         <v>22CD</v>
       </c>
-      <c r="AY24" s="67" t="str">
+      <c r="AY24" s="61" t="str">
         <f t="shared" si="14"/>
         <v>22CE</v>
       </c>
-      <c r="AZ24" s="67" t="str">
+      <c r="AZ24" s="61" t="str">
         <f t="shared" si="15"/>
         <v>22CF</v>
       </c>
-      <c r="BA24" s="67" t="str">
+      <c r="BA24" s="61" t="str">
         <f t="shared" si="16"/>
         <v>22D0</v>
       </c>
-      <c r="BB24" s="67" t="str">
+      <c r="BB24" s="61" t="str">
         <f t="shared" si="17"/>
         <v>22D1</v>
       </c>
-      <c r="BC24" s="67" t="str">
+      <c r="BC24" s="61" t="str">
         <f t="shared" si="18"/>
         <v>22D2</v>
       </c>
-      <c r="BD24" s="67" t="str">
+      <c r="BD24" s="61" t="str">
         <f t="shared" si="19"/>
         <v>22D3</v>
       </c>
-      <c r="BE24" s="67" t="str">
+      <c r="BE24" s="61" t="str">
         <f t="shared" si="20"/>
         <v>22D4</v>
       </c>
-      <c r="BF24" s="67" t="str">
+      <c r="BF24" s="61" t="str">
         <f t="shared" si="21"/>
         <v>22D5</v>
       </c>
-      <c r="BG24" s="67" t="str">
+      <c r="BG24" s="61" t="str">
         <f t="shared" si="22"/>
         <v>22D6</v>
       </c>
-      <c r="BH24" s="67" t="str">
+      <c r="BH24" s="61" t="str">
         <f t="shared" si="23"/>
         <v>22D7</v>
       </c>
-      <c r="BI24" s="67" t="str">
+      <c r="BI24" s="61" t="str">
         <f t="shared" si="24"/>
         <v>22D8</v>
       </c>
-      <c r="BJ24" s="67" t="str">
+      <c r="BJ24" s="61" t="str">
         <f t="shared" si="25"/>
         <v>22D9</v>
       </c>
-      <c r="BK24" s="67" t="str">
+      <c r="BK24" s="61" t="str">
         <f t="shared" si="26"/>
         <v>22DA</v>
       </c>
-      <c r="BL24" s="67" t="str">
+      <c r="BL24" s="61" t="str">
         <f t="shared" si="27"/>
         <v>22DB</v>
       </c>
-      <c r="BM24" s="67" t="str">
+      <c r="BM24" s="61" t="str">
         <f t="shared" si="28"/>
         <v>22DC</v>
       </c>
-      <c r="BN24" s="67" t="str">
+      <c r="BN24" s="61" t="str">
         <f t="shared" si="29"/>
         <v>22DD</v>
       </c>
-      <c r="BO24" s="67" t="str">
+      <c r="BO24" s="61" t="str">
         <f t="shared" si="30"/>
         <v>22DE</v>
       </c>
-      <c r="BP24" s="68" t="str">
+      <c r="BP24" s="62" t="str">
         <f t="shared" si="31"/>
         <v>22DF</v>
       </c>
@@ -10674,134 +10852,134 @@
         <f t="shared" si="56"/>
         <v>767</v>
       </c>
-      <c r="AJ25" s="65">
+      <c r="AJ25" s="59">
         <v>23</v>
       </c>
-      <c r="AK25" s="66" t="str">
+      <c r="AK25" s="60" t="str">
         <f t="shared" si="33"/>
         <v>22E0</v>
       </c>
-      <c r="AL25" s="67" t="str">
+      <c r="AL25" s="61" t="str">
         <f t="shared" si="1"/>
         <v>22E1</v>
       </c>
-      <c r="AM25" s="67" t="str">
+      <c r="AM25" s="61" t="str">
         <f t="shared" si="2"/>
         <v>22E2</v>
       </c>
-      <c r="AN25" s="67" t="str">
+      <c r="AN25" s="61" t="str">
         <f t="shared" si="3"/>
         <v>22E3</v>
       </c>
-      <c r="AO25" s="67" t="str">
+      <c r="AO25" s="61" t="str">
         <f t="shared" si="4"/>
         <v>22E4</v>
       </c>
-      <c r="AP25" s="67" t="str">
+      <c r="AP25" s="61" t="str">
         <f t="shared" si="5"/>
         <v>22E5</v>
       </c>
-      <c r="AQ25" s="67" t="str">
+      <c r="AQ25" s="61" t="str">
         <f t="shared" si="6"/>
         <v>22E6</v>
       </c>
-      <c r="AR25" s="67" t="str">
+      <c r="AR25" s="61" t="str">
         <f t="shared" si="7"/>
         <v>22E7</v>
       </c>
-      <c r="AS25" s="67" t="str">
+      <c r="AS25" s="61" t="str">
         <f t="shared" si="8"/>
         <v>22E8</v>
       </c>
-      <c r="AT25" s="67" t="str">
+      <c r="AT25" s="61" t="str">
         <f t="shared" si="9"/>
         <v>22E9</v>
       </c>
-      <c r="AU25" s="67" t="str">
+      <c r="AU25" s="61" t="str">
         <f t="shared" si="10"/>
         <v>22EA</v>
       </c>
-      <c r="AV25" s="67" t="str">
+      <c r="AV25" s="61" t="str">
         <f t="shared" si="11"/>
         <v>22EB</v>
       </c>
-      <c r="AW25" s="67" t="str">
+      <c r="AW25" s="61" t="str">
         <f t="shared" si="12"/>
         <v>22EC</v>
       </c>
-      <c r="AX25" s="67" t="str">
+      <c r="AX25" s="61" t="str">
         <f t="shared" si="13"/>
         <v>22ED</v>
       </c>
-      <c r="AY25" s="67" t="str">
+      <c r="AY25" s="61" t="str">
         <f t="shared" si="14"/>
         <v>22EE</v>
       </c>
-      <c r="AZ25" s="67" t="str">
+      <c r="AZ25" s="61" t="str">
         <f t="shared" si="15"/>
         <v>22EF</v>
       </c>
-      <c r="BA25" s="67" t="str">
+      <c r="BA25" s="61" t="str">
         <f t="shared" si="16"/>
         <v>22F0</v>
       </c>
-      <c r="BB25" s="67" t="str">
+      <c r="BB25" s="61" t="str">
         <f t="shared" si="17"/>
         <v>22F1</v>
       </c>
-      <c r="BC25" s="67" t="str">
+      <c r="BC25" s="61" t="str">
         <f t="shared" si="18"/>
         <v>22F2</v>
       </c>
-      <c r="BD25" s="67" t="str">
+      <c r="BD25" s="61" t="str">
         <f t="shared" si="19"/>
         <v>22F3</v>
       </c>
-      <c r="BE25" s="67" t="str">
+      <c r="BE25" s="61" t="str">
         <f t="shared" si="20"/>
         <v>22F4</v>
       </c>
-      <c r="BF25" s="67" t="str">
+      <c r="BF25" s="61" t="str">
         <f t="shared" si="21"/>
         <v>22F5</v>
       </c>
-      <c r="BG25" s="67" t="str">
+      <c r="BG25" s="61" t="str">
         <f t="shared" si="22"/>
         <v>22F6</v>
       </c>
-      <c r="BH25" s="67" t="str">
+      <c r="BH25" s="61" t="str">
         <f t="shared" si="23"/>
         <v>22F7</v>
       </c>
-      <c r="BI25" s="67" t="str">
+      <c r="BI25" s="61" t="str">
         <f t="shared" si="24"/>
         <v>22F8</v>
       </c>
-      <c r="BJ25" s="67" t="str">
+      <c r="BJ25" s="61" t="str">
         <f t="shared" si="25"/>
         <v>22F9</v>
       </c>
-      <c r="BK25" s="67" t="str">
+      <c r="BK25" s="61" t="str">
         <f t="shared" si="26"/>
         <v>22FA</v>
       </c>
-      <c r="BL25" s="67" t="str">
+      <c r="BL25" s="61" t="str">
         <f t="shared" si="27"/>
         <v>22FB</v>
       </c>
-      <c r="BM25" s="67" t="str">
+      <c r="BM25" s="61" t="str">
         <f t="shared" si="28"/>
         <v>22FC</v>
       </c>
-      <c r="BN25" s="67" t="str">
+      <c r="BN25" s="61" t="str">
         <f t="shared" si="29"/>
         <v>22FD</v>
       </c>
-      <c r="BO25" s="67" t="str">
+      <c r="BO25" s="61" t="str">
         <f t="shared" si="30"/>
         <v>22FE</v>
       </c>
-      <c r="BP25" s="68" t="str">
+      <c r="BP25" s="62" t="str">
         <f t="shared" si="31"/>
         <v>22FF</v>
       </c>
@@ -10938,134 +11116,134 @@
         <f t="shared" si="57"/>
         <v>799</v>
       </c>
-      <c r="AJ26" s="65">
+      <c r="AJ26" s="59">
         <v>24</v>
       </c>
-      <c r="AK26" s="66" t="str">
+      <c r="AK26" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2300</v>
       </c>
-      <c r="AL26" s="67" t="str">
+      <c r="AL26" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2301</v>
       </c>
-      <c r="AM26" s="67" t="str">
+      <c r="AM26" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2302</v>
       </c>
-      <c r="AN26" s="67" t="str">
+      <c r="AN26" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2303</v>
       </c>
-      <c r="AO26" s="67" t="str">
+      <c r="AO26" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2304</v>
       </c>
-      <c r="AP26" s="67" t="str">
+      <c r="AP26" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2305</v>
       </c>
-      <c r="AQ26" s="67" t="str">
+      <c r="AQ26" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2306</v>
       </c>
-      <c r="AR26" s="67" t="str">
+      <c r="AR26" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2307</v>
       </c>
-      <c r="AS26" s="67" t="str">
+      <c r="AS26" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2308</v>
       </c>
-      <c r="AT26" s="67" t="str">
+      <c r="AT26" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2309</v>
       </c>
-      <c r="AU26" s="67" t="str">
+      <c r="AU26" s="61" t="str">
         <f t="shared" si="10"/>
         <v>230A</v>
       </c>
-      <c r="AV26" s="67" t="str">
+      <c r="AV26" s="61" t="str">
         <f t="shared" si="11"/>
         <v>230B</v>
       </c>
-      <c r="AW26" s="67" t="str">
+      <c r="AW26" s="61" t="str">
         <f t="shared" si="12"/>
         <v>230C</v>
       </c>
-      <c r="AX26" s="67" t="str">
+      <c r="AX26" s="61" t="str">
         <f t="shared" si="13"/>
         <v>230D</v>
       </c>
-      <c r="AY26" s="67" t="str">
+      <c r="AY26" s="61" t="str">
         <f t="shared" si="14"/>
         <v>230E</v>
       </c>
-      <c r="AZ26" s="67" t="str">
+      <c r="AZ26" s="61" t="str">
         <f t="shared" si="15"/>
         <v>230F</v>
       </c>
-      <c r="BA26" s="67" t="str">
+      <c r="BA26" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2310</v>
       </c>
-      <c r="BB26" s="67" t="str">
+      <c r="BB26" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2311</v>
       </c>
-      <c r="BC26" s="67" t="str">
+      <c r="BC26" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2312</v>
       </c>
-      <c r="BD26" s="67" t="str">
+      <c r="BD26" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2313</v>
       </c>
-      <c r="BE26" s="67" t="str">
+      <c r="BE26" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2314</v>
       </c>
-      <c r="BF26" s="67" t="str">
+      <c r="BF26" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2315</v>
       </c>
-      <c r="BG26" s="67" t="str">
+      <c r="BG26" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2316</v>
       </c>
-      <c r="BH26" s="67" t="str">
+      <c r="BH26" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2317</v>
       </c>
-      <c r="BI26" s="67" t="str">
+      <c r="BI26" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2318</v>
       </c>
-      <c r="BJ26" s="67" t="str">
+      <c r="BJ26" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2319</v>
       </c>
-      <c r="BK26" s="67" t="str">
+      <c r="BK26" s="61" t="str">
         <f t="shared" si="26"/>
         <v>231A</v>
       </c>
-      <c r="BL26" s="67" t="str">
+      <c r="BL26" s="61" t="str">
         <f t="shared" si="27"/>
         <v>231B</v>
       </c>
-      <c r="BM26" s="67" t="str">
+      <c r="BM26" s="61" t="str">
         <f t="shared" si="28"/>
         <v>231C</v>
       </c>
-      <c r="BN26" s="67" t="str">
+      <c r="BN26" s="61" t="str">
         <f t="shared" si="29"/>
         <v>231D</v>
       </c>
-      <c r="BO26" s="67" t="str">
+      <c r="BO26" s="61" t="str">
         <f t="shared" si="30"/>
         <v>231E</v>
       </c>
-      <c r="BP26" s="68" t="str">
+      <c r="BP26" s="62" t="str">
         <f t="shared" si="31"/>
         <v>231F</v>
       </c>
@@ -11202,134 +11380,134 @@
         <f t="shared" si="58"/>
         <v>831</v>
       </c>
-      <c r="AJ27" s="65">
+      <c r="AJ27" s="59">
         <v>25</v>
       </c>
-      <c r="AK27" s="66" t="str">
+      <c r="AK27" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2320</v>
       </c>
-      <c r="AL27" s="67" t="str">
+      <c r="AL27" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2321</v>
       </c>
-      <c r="AM27" s="67" t="str">
+      <c r="AM27" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2322</v>
       </c>
-      <c r="AN27" s="67" t="str">
+      <c r="AN27" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2323</v>
       </c>
-      <c r="AO27" s="67" t="str">
+      <c r="AO27" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2324</v>
       </c>
-      <c r="AP27" s="67" t="str">
+      <c r="AP27" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2325</v>
       </c>
-      <c r="AQ27" s="67" t="str">
+      <c r="AQ27" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2326</v>
       </c>
-      <c r="AR27" s="67" t="str">
+      <c r="AR27" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2327</v>
       </c>
-      <c r="AS27" s="67" t="str">
+      <c r="AS27" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2328</v>
       </c>
-      <c r="AT27" s="67" t="str">
+      <c r="AT27" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2329</v>
       </c>
-      <c r="AU27" s="67" t="str">
+      <c r="AU27" s="61" t="str">
         <f t="shared" si="10"/>
         <v>232A</v>
       </c>
-      <c r="AV27" s="67" t="str">
+      <c r="AV27" s="61" t="str">
         <f t="shared" si="11"/>
         <v>232B</v>
       </c>
-      <c r="AW27" s="67" t="str">
+      <c r="AW27" s="61" t="str">
         <f t="shared" si="12"/>
         <v>232C</v>
       </c>
-      <c r="AX27" s="67" t="str">
+      <c r="AX27" s="61" t="str">
         <f t="shared" si="13"/>
         <v>232D</v>
       </c>
-      <c r="AY27" s="67" t="str">
+      <c r="AY27" s="61" t="str">
         <f t="shared" si="14"/>
         <v>232E</v>
       </c>
-      <c r="AZ27" s="67" t="str">
+      <c r="AZ27" s="61" t="str">
         <f t="shared" si="15"/>
         <v>232F</v>
       </c>
-      <c r="BA27" s="67" t="str">
+      <c r="BA27" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2330</v>
       </c>
-      <c r="BB27" s="67" t="str">
+      <c r="BB27" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2331</v>
       </c>
-      <c r="BC27" s="67" t="str">
+      <c r="BC27" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2332</v>
       </c>
-      <c r="BD27" s="67" t="str">
+      <c r="BD27" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2333</v>
       </c>
-      <c r="BE27" s="67" t="str">
+      <c r="BE27" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2334</v>
       </c>
-      <c r="BF27" s="67" t="str">
+      <c r="BF27" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2335</v>
       </c>
-      <c r="BG27" s="67" t="str">
+      <c r="BG27" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2336</v>
       </c>
-      <c r="BH27" s="67" t="str">
+      <c r="BH27" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2337</v>
       </c>
-      <c r="BI27" s="67" t="str">
+      <c r="BI27" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2338</v>
       </c>
-      <c r="BJ27" s="67" t="str">
+      <c r="BJ27" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2339</v>
       </c>
-      <c r="BK27" s="67" t="str">
+      <c r="BK27" s="61" t="str">
         <f t="shared" si="26"/>
         <v>233A</v>
       </c>
-      <c r="BL27" s="67" t="str">
+      <c r="BL27" s="61" t="str">
         <f t="shared" si="27"/>
         <v>233B</v>
       </c>
-      <c r="BM27" s="67" t="str">
+      <c r="BM27" s="61" t="str">
         <f t="shared" si="28"/>
         <v>233C</v>
       </c>
-      <c r="BN27" s="67" t="str">
+      <c r="BN27" s="61" t="str">
         <f t="shared" si="29"/>
         <v>233D</v>
       </c>
-      <c r="BO27" s="67" t="str">
+      <c r="BO27" s="61" t="str">
         <f t="shared" si="30"/>
         <v>233E</v>
       </c>
-      <c r="BP27" s="68" t="str">
+      <c r="BP27" s="62" t="str">
         <f t="shared" si="31"/>
         <v>233F</v>
       </c>
@@ -11466,134 +11644,134 @@
         <f t="shared" si="59"/>
         <v>863</v>
       </c>
-      <c r="AJ28" s="65">
+      <c r="AJ28" s="59">
         <v>26</v>
       </c>
-      <c r="AK28" s="66" t="str">
+      <c r="AK28" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2340</v>
       </c>
-      <c r="AL28" s="67" t="str">
+      <c r="AL28" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2341</v>
       </c>
-      <c r="AM28" s="67" t="str">
+      <c r="AM28" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2342</v>
       </c>
-      <c r="AN28" s="67" t="str">
+      <c r="AN28" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2343</v>
       </c>
-      <c r="AO28" s="67" t="str">
+      <c r="AO28" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2344</v>
       </c>
-      <c r="AP28" s="67" t="str">
+      <c r="AP28" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2345</v>
       </c>
-      <c r="AQ28" s="67" t="str">
+      <c r="AQ28" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2346</v>
       </c>
-      <c r="AR28" s="67" t="str">
+      <c r="AR28" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2347</v>
       </c>
-      <c r="AS28" s="67" t="str">
+      <c r="AS28" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2348</v>
       </c>
-      <c r="AT28" s="67" t="str">
+      <c r="AT28" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2349</v>
       </c>
-      <c r="AU28" s="67" t="str">
+      <c r="AU28" s="61" t="str">
         <f t="shared" si="10"/>
         <v>234A</v>
       </c>
-      <c r="AV28" s="67" t="str">
+      <c r="AV28" s="61" t="str">
         <f t="shared" si="11"/>
         <v>234B</v>
       </c>
-      <c r="AW28" s="67" t="str">
+      <c r="AW28" s="61" t="str">
         <f t="shared" si="12"/>
         <v>234C</v>
       </c>
-      <c r="AX28" s="67" t="str">
+      <c r="AX28" s="61" t="str">
         <f t="shared" si="13"/>
         <v>234D</v>
       </c>
-      <c r="AY28" s="67" t="str">
+      <c r="AY28" s="61" t="str">
         <f t="shared" si="14"/>
         <v>234E</v>
       </c>
-      <c r="AZ28" s="67" t="str">
+      <c r="AZ28" s="61" t="str">
         <f t="shared" si="15"/>
         <v>234F</v>
       </c>
-      <c r="BA28" s="67" t="str">
+      <c r="BA28" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2350</v>
       </c>
-      <c r="BB28" s="67" t="str">
+      <c r="BB28" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2351</v>
       </c>
-      <c r="BC28" s="67" t="str">
+      <c r="BC28" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2352</v>
       </c>
-      <c r="BD28" s="67" t="str">
+      <c r="BD28" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2353</v>
       </c>
-      <c r="BE28" s="67" t="str">
+      <c r="BE28" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2354</v>
       </c>
-      <c r="BF28" s="67" t="str">
+      <c r="BF28" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2355</v>
       </c>
-      <c r="BG28" s="67" t="str">
+      <c r="BG28" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2356</v>
       </c>
-      <c r="BH28" s="67" t="str">
+      <c r="BH28" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2357</v>
       </c>
-      <c r="BI28" s="67" t="str">
+      <c r="BI28" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2358</v>
       </c>
-      <c r="BJ28" s="67" t="str">
+      <c r="BJ28" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2359</v>
       </c>
-      <c r="BK28" s="67" t="str">
+      <c r="BK28" s="61" t="str">
         <f t="shared" si="26"/>
         <v>235A</v>
       </c>
-      <c r="BL28" s="67" t="str">
+      <c r="BL28" s="61" t="str">
         <f t="shared" si="27"/>
         <v>235B</v>
       </c>
-      <c r="BM28" s="67" t="str">
+      <c r="BM28" s="61" t="str">
         <f t="shared" si="28"/>
         <v>235C</v>
       </c>
-      <c r="BN28" s="67" t="str">
+      <c r="BN28" s="61" t="str">
         <f t="shared" si="29"/>
         <v>235D</v>
       </c>
-      <c r="BO28" s="67" t="str">
+      <c r="BO28" s="61" t="str">
         <f t="shared" si="30"/>
         <v>235E</v>
       </c>
-      <c r="BP28" s="68" t="str">
+      <c r="BP28" s="62" t="str">
         <f t="shared" si="31"/>
         <v>235F</v>
       </c>
@@ -11730,134 +11908,134 @@
         <f t="shared" si="60"/>
         <v>895</v>
       </c>
-      <c r="AJ29" s="65">
+      <c r="AJ29" s="59">
         <v>27</v>
       </c>
-      <c r="AK29" s="66" t="str">
+      <c r="AK29" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2360</v>
       </c>
-      <c r="AL29" s="67" t="str">
+      <c r="AL29" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2361</v>
       </c>
-      <c r="AM29" s="67" t="str">
+      <c r="AM29" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2362</v>
       </c>
-      <c r="AN29" s="67" t="str">
+      <c r="AN29" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2363</v>
       </c>
-      <c r="AO29" s="67" t="str">
+      <c r="AO29" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2364</v>
       </c>
-      <c r="AP29" s="67" t="str">
+      <c r="AP29" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2365</v>
       </c>
-      <c r="AQ29" s="67" t="str">
+      <c r="AQ29" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2366</v>
       </c>
-      <c r="AR29" s="67" t="str">
+      <c r="AR29" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2367</v>
       </c>
-      <c r="AS29" s="67" t="str">
+      <c r="AS29" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2368</v>
       </c>
-      <c r="AT29" s="67" t="str">
+      <c r="AT29" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2369</v>
       </c>
-      <c r="AU29" s="67" t="str">
+      <c r="AU29" s="61" t="str">
         <f t="shared" si="10"/>
         <v>236A</v>
       </c>
-      <c r="AV29" s="67" t="str">
+      <c r="AV29" s="61" t="str">
         <f t="shared" si="11"/>
         <v>236B</v>
       </c>
-      <c r="AW29" s="67" t="str">
+      <c r="AW29" s="61" t="str">
         <f t="shared" si="12"/>
         <v>236C</v>
       </c>
-      <c r="AX29" s="67" t="str">
+      <c r="AX29" s="61" t="str">
         <f t="shared" si="13"/>
         <v>236D</v>
       </c>
-      <c r="AY29" s="67" t="str">
+      <c r="AY29" s="61" t="str">
         <f t="shared" si="14"/>
         <v>236E</v>
       </c>
-      <c r="AZ29" s="67" t="str">
+      <c r="AZ29" s="61" t="str">
         <f t="shared" si="15"/>
         <v>236F</v>
       </c>
-      <c r="BA29" s="67" t="str">
+      <c r="BA29" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2370</v>
       </c>
-      <c r="BB29" s="67" t="str">
+      <c r="BB29" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2371</v>
       </c>
-      <c r="BC29" s="67" t="str">
+      <c r="BC29" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2372</v>
       </c>
-      <c r="BD29" s="67" t="str">
+      <c r="BD29" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2373</v>
       </c>
-      <c r="BE29" s="67" t="str">
+      <c r="BE29" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2374</v>
       </c>
-      <c r="BF29" s="67" t="str">
+      <c r="BF29" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2375</v>
       </c>
-      <c r="BG29" s="67" t="str">
+      <c r="BG29" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2376</v>
       </c>
-      <c r="BH29" s="67" t="str">
+      <c r="BH29" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2377</v>
       </c>
-      <c r="BI29" s="67" t="str">
+      <c r="BI29" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2378</v>
       </c>
-      <c r="BJ29" s="67" t="str">
+      <c r="BJ29" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2379</v>
       </c>
-      <c r="BK29" s="67" t="str">
+      <c r="BK29" s="61" t="str">
         <f t="shared" si="26"/>
         <v>237A</v>
       </c>
-      <c r="BL29" s="67" t="str">
+      <c r="BL29" s="61" t="str">
         <f t="shared" si="27"/>
         <v>237B</v>
       </c>
-      <c r="BM29" s="67" t="str">
+      <c r="BM29" s="61" t="str">
         <f t="shared" si="28"/>
         <v>237C</v>
       </c>
-      <c r="BN29" s="67" t="str">
+      <c r="BN29" s="61" t="str">
         <f t="shared" si="29"/>
         <v>237D</v>
       </c>
-      <c r="BO29" s="67" t="str">
+      <c r="BO29" s="61" t="str">
         <f t="shared" si="30"/>
         <v>237E</v>
       </c>
-      <c r="BP29" s="68" t="str">
+      <c r="BP29" s="62" t="str">
         <f t="shared" si="31"/>
         <v>237F</v>
       </c>
@@ -11994,134 +12172,134 @@
         <f t="shared" si="61"/>
         <v>927</v>
       </c>
-      <c r="AJ30" s="65">
+      <c r="AJ30" s="59">
         <v>28</v>
       </c>
-      <c r="AK30" s="66" t="str">
+      <c r="AK30" s="60" t="str">
         <f t="shared" si="33"/>
         <v>2380</v>
       </c>
-      <c r="AL30" s="67" t="str">
+      <c r="AL30" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2381</v>
       </c>
-      <c r="AM30" s="67" t="str">
+      <c r="AM30" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2382</v>
       </c>
-      <c r="AN30" s="67" t="str">
+      <c r="AN30" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2383</v>
       </c>
-      <c r="AO30" s="67" t="str">
+      <c r="AO30" s="61" t="str">
         <f t="shared" si="4"/>
         <v>2384</v>
       </c>
-      <c r="AP30" s="67" t="str">
+      <c r="AP30" s="61" t="str">
         <f t="shared" si="5"/>
         <v>2385</v>
       </c>
-      <c r="AQ30" s="67" t="str">
+      <c r="AQ30" s="61" t="str">
         <f t="shared" si="6"/>
         <v>2386</v>
       </c>
-      <c r="AR30" s="67" t="str">
+      <c r="AR30" s="61" t="str">
         <f t="shared" si="7"/>
         <v>2387</v>
       </c>
-      <c r="AS30" s="67" t="str">
+      <c r="AS30" s="61" t="str">
         <f t="shared" si="8"/>
         <v>2388</v>
       </c>
-      <c r="AT30" s="67" t="str">
+      <c r="AT30" s="61" t="str">
         <f t="shared" si="9"/>
         <v>2389</v>
       </c>
-      <c r="AU30" s="67" t="str">
+      <c r="AU30" s="61" t="str">
         <f t="shared" si="10"/>
         <v>238A</v>
       </c>
-      <c r="AV30" s="67" t="str">
+      <c r="AV30" s="61" t="str">
         <f t="shared" si="11"/>
         <v>238B</v>
       </c>
-      <c r="AW30" s="67" t="str">
+      <c r="AW30" s="61" t="str">
         <f t="shared" si="12"/>
         <v>238C</v>
       </c>
-      <c r="AX30" s="67" t="str">
+      <c r="AX30" s="61" t="str">
         <f t="shared" si="13"/>
         <v>238D</v>
       </c>
-      <c r="AY30" s="67" t="str">
+      <c r="AY30" s="61" t="str">
         <f t="shared" si="14"/>
         <v>238E</v>
       </c>
-      <c r="AZ30" s="67" t="str">
+      <c r="AZ30" s="61" t="str">
         <f t="shared" si="15"/>
         <v>238F</v>
       </c>
-      <c r="BA30" s="67" t="str">
+      <c r="BA30" s="61" t="str">
         <f t="shared" si="16"/>
         <v>2390</v>
       </c>
-      <c r="BB30" s="67" t="str">
+      <c r="BB30" s="61" t="str">
         <f t="shared" si="17"/>
         <v>2391</v>
       </c>
-      <c r="BC30" s="67" t="str">
+      <c r="BC30" s="61" t="str">
         <f t="shared" si="18"/>
         <v>2392</v>
       </c>
-      <c r="BD30" s="67" t="str">
+      <c r="BD30" s="61" t="str">
         <f t="shared" si="19"/>
         <v>2393</v>
       </c>
-      <c r="BE30" s="67" t="str">
+      <c r="BE30" s="61" t="str">
         <f t="shared" si="20"/>
         <v>2394</v>
       </c>
-      <c r="BF30" s="67" t="str">
+      <c r="BF30" s="61" t="str">
         <f t="shared" si="21"/>
         <v>2395</v>
       </c>
-      <c r="BG30" s="67" t="str">
+      <c r="BG30" s="61" t="str">
         <f t="shared" si="22"/>
         <v>2396</v>
       </c>
-      <c r="BH30" s="67" t="str">
+      <c r="BH30" s="61" t="str">
         <f t="shared" si="23"/>
         <v>2397</v>
       </c>
-      <c r="BI30" s="67" t="str">
+      <c r="BI30" s="61" t="str">
         <f t="shared" si="24"/>
         <v>2398</v>
       </c>
-      <c r="BJ30" s="67" t="str">
+      <c r="BJ30" s="61" t="str">
         <f t="shared" si="25"/>
         <v>2399</v>
       </c>
-      <c r="BK30" s="67" t="str">
+      <c r="BK30" s="61" t="str">
         <f t="shared" si="26"/>
         <v>239A</v>
       </c>
-      <c r="BL30" s="67" t="str">
+      <c r="BL30" s="61" t="str">
         <f t="shared" si="27"/>
         <v>239B</v>
       </c>
-      <c r="BM30" s="67" t="str">
+      <c r="BM30" s="61" t="str">
         <f t="shared" si="28"/>
         <v>239C</v>
       </c>
-      <c r="BN30" s="67" t="str">
+      <c r="BN30" s="61" t="str">
         <f t="shared" si="29"/>
         <v>239D</v>
       </c>
-      <c r="BO30" s="67" t="str">
+      <c r="BO30" s="61" t="str">
         <f t="shared" si="30"/>
         <v>239E</v>
       </c>
-      <c r="BP30" s="68" t="str">
+      <c r="BP30" s="62" t="str">
         <f t="shared" si="31"/>
         <v>239F</v>
       </c>
@@ -12258,134 +12436,134 @@
         <f t="shared" si="62"/>
         <v>959</v>
       </c>
-      <c r="AJ31" s="65">
+      <c r="AJ31" s="59">
         <v>29</v>
       </c>
-      <c r="AK31" s="69" t="str">
+      <c r="AK31" s="63" t="str">
         <f t="shared" si="33"/>
         <v>23A0</v>
       </c>
-      <c r="AL31" s="70" t="str">
+      <c r="AL31" s="64" t="str">
         <f t="shared" si="1"/>
         <v>23A1</v>
       </c>
-      <c r="AM31" s="70" t="str">
+      <c r="AM31" s="64" t="str">
         <f t="shared" si="2"/>
         <v>23A2</v>
       </c>
-      <c r="AN31" s="70" t="str">
+      <c r="AN31" s="64" t="str">
         <f t="shared" si="3"/>
         <v>23A3</v>
       </c>
-      <c r="AO31" s="70" t="str">
+      <c r="AO31" s="64" t="str">
         <f t="shared" si="4"/>
         <v>23A4</v>
       </c>
-      <c r="AP31" s="70" t="str">
+      <c r="AP31" s="64" t="str">
         <f t="shared" si="5"/>
         <v>23A5</v>
       </c>
-      <c r="AQ31" s="70" t="str">
+      <c r="AQ31" s="64" t="str">
         <f t="shared" si="6"/>
         <v>23A6</v>
       </c>
-      <c r="AR31" s="70" t="str">
+      <c r="AR31" s="64" t="str">
         <f t="shared" si="7"/>
         <v>23A7</v>
       </c>
-      <c r="AS31" s="70" t="str">
+      <c r="AS31" s="64" t="str">
         <f t="shared" si="8"/>
         <v>23A8</v>
       </c>
-      <c r="AT31" s="70" t="str">
+      <c r="AT31" s="64" t="str">
         <f t="shared" si="9"/>
         <v>23A9</v>
       </c>
-      <c r="AU31" s="70" t="str">
+      <c r="AU31" s="64" t="str">
         <f t="shared" si="10"/>
         <v>23AA</v>
       </c>
-      <c r="AV31" s="70" t="str">
+      <c r="AV31" s="64" t="str">
         <f t="shared" si="11"/>
         <v>23AB</v>
       </c>
-      <c r="AW31" s="70" t="str">
+      <c r="AW31" s="64" t="str">
         <f t="shared" si="12"/>
         <v>23AC</v>
       </c>
-      <c r="AX31" s="70" t="str">
+      <c r="AX31" s="64" t="str">
         <f t="shared" si="13"/>
         <v>23AD</v>
       </c>
-      <c r="AY31" s="70" t="str">
+      <c r="AY31" s="64" t="str">
         <f t="shared" si="14"/>
         <v>23AE</v>
       </c>
-      <c r="AZ31" s="70" t="str">
+      <c r="AZ31" s="64" t="str">
         <f t="shared" si="15"/>
         <v>23AF</v>
       </c>
-      <c r="BA31" s="70" t="str">
+      <c r="BA31" s="64" t="str">
         <f t="shared" si="16"/>
         <v>23B0</v>
       </c>
-      <c r="BB31" s="70" t="str">
+      <c r="BB31" s="64" t="str">
         <f t="shared" si="17"/>
         <v>23B1</v>
       </c>
-      <c r="BC31" s="70" t="str">
+      <c r="BC31" s="64" t="str">
         <f t="shared" si="18"/>
         <v>23B2</v>
       </c>
-      <c r="BD31" s="70" t="str">
+      <c r="BD31" s="64" t="str">
         <f t="shared" si="19"/>
         <v>23B3</v>
       </c>
-      <c r="BE31" s="70" t="str">
+      <c r="BE31" s="64" t="str">
         <f t="shared" si="20"/>
         <v>23B4</v>
       </c>
-      <c r="BF31" s="70" t="str">
+      <c r="BF31" s="64" t="str">
         <f t="shared" si="21"/>
         <v>23B5</v>
       </c>
-      <c r="BG31" s="70" t="str">
+      <c r="BG31" s="64" t="str">
         <f t="shared" si="22"/>
         <v>23B6</v>
       </c>
-      <c r="BH31" s="70" t="str">
+      <c r="BH31" s="64" t="str">
         <f t="shared" si="23"/>
         <v>23B7</v>
       </c>
-      <c r="BI31" s="70" t="str">
+      <c r="BI31" s="64" t="str">
         <f t="shared" si="24"/>
         <v>23B8</v>
       </c>
-      <c r="BJ31" s="70" t="str">
+      <c r="BJ31" s="64" t="str">
         <f t="shared" si="25"/>
         <v>23B9</v>
       </c>
-      <c r="BK31" s="70" t="str">
+      <c r="BK31" s="64" t="str">
         <f t="shared" si="26"/>
         <v>23BA</v>
       </c>
-      <c r="BL31" s="70" t="str">
+      <c r="BL31" s="64" t="str">
         <f t="shared" si="27"/>
         <v>23BB</v>
       </c>
-      <c r="BM31" s="70" t="str">
+      <c r="BM31" s="64" t="str">
         <f t="shared" si="28"/>
         <v>23BC</v>
       </c>
-      <c r="BN31" s="70" t="str">
+      <c r="BN31" s="64" t="str">
         <f t="shared" si="29"/>
         <v>23BD</v>
       </c>
-      <c r="BO31" s="70" t="str">
+      <c r="BO31" s="64" t="str">
         <f t="shared" si="30"/>
         <v>23BE</v>
       </c>
-      <c r="BP31" s="71" t="str">
+      <c r="BP31" s="65" t="str">
         <f t="shared" si="31"/>
         <v>23BF</v>
       </c>
@@ -13820,10 +13998,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="73" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="50" t="s">
@@ -13831,8 +14009,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="51" t="s">
         <v>186</v>
       </c>
@@ -13871,10 +14049,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="73" t="s">
         <v>196</v>
       </c>
       <c r="C13" s="50" t="s">
@@ -13882,8 +14060,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="51" t="s">
         <v>198</v>
       </c>
@@ -14022,10 +14200,10 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="73" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="50" t="s">
@@ -14033,8 +14211,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="51" t="s">
         <v>218</v>
       </c>
@@ -14062,10 +14240,10 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="73" t="s">
         <v>223</v>
       </c>
       <c r="C33" s="50" t="s">
@@ -14073,8 +14251,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="51" t="s">
         <v>225</v>
       </c>
@@ -14174,22 +14352,22 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="73" t="s">
         <v>230</v>
       </c>
       <c r="B47" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="73" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A48" s="64"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="64"/>
+      <c r="C48" s="74"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" s="47" t="s">
@@ -14213,22 +14391,22 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="73" t="s">
         <v>230</v>
       </c>
       <c r="B52" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="73" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A53" s="64"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="64"/>
+      <c r="C53" s="74"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" s="47" t="s">
@@ -14252,25 +14430,31 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="63" t="s">
+      <c r="A57" s="73" t="s">
         <v>230</v>
       </c>
       <c r="B57" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="73" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A58" s="64"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C58" s="64"/>
+      <c r="C58" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -14279,12 +14463,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/super-duper-display-image.xlsx
+++ b/doc/super-duper-display-image.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\super-duper-nes\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="top page" sheetId="2" r:id="rId1"/>
@@ -20,9 +15,9 @@
     <sheet name="ascii" sheetId="4" r:id="rId6"/>
     <sheet name="io port" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="297">
   <si>
     <t>文</t>
   </si>
@@ -794,24 +789,153 @@
   </si>
   <si>
     <t>ent</t>
+  </si>
+  <si>
+    <t>0x4014 (スプライトDMAレジスタ)</t>
+  </si>
+  <si>
+    <t>W1 : WRAMからSpriteRAMにデータを転送します。設定したアドレスから0x100バイト分転送します。</t>
+  </si>
+  <si>
+    <t>WRAMベースアドレス</t>
+  </si>
+  <si>
+    <t>N x 0x100</t>
+  </si>
+  <si>
+    <t>0x4016 (ジョイパッド1レジスタ)</t>
+  </si>
+  <si>
+    <t>R1 / W1 : 1P側のジョイパッドの状態を取得、または拡張パッドの設定を行います。</t>
+  </si>
+  <si>
+    <t>bit7-5</t>
+  </si>
+  <si>
+    <t>(R)Zapperスプライト</t>
+  </si>
+  <si>
+    <t>(W)未使用</t>
+  </si>
+  <si>
+    <t>0:スプライト未検出</t>
+  </si>
+  <si>
+    <t>1:スプライト検出</t>
+  </si>
+  <si>
+    <t>(R)Zapperトリガ</t>
+  </si>
+  <si>
+    <t>0:入力なし, 1:入力あり</t>
+  </si>
+  <si>
+    <t>bit2-1</t>
+  </si>
+  <si>
+    <t>(R)拡張ポートから読み込んだデータ</t>
+  </si>
+  <si>
+    <t>(W)拡張ポートへ書き込むデータ</t>
+  </si>
+  <si>
+    <t>(R)ボタン入力情報</t>
+  </si>
+  <si>
+    <t>(W)入力情報のセット</t>
+  </si>
+  <si>
+    <t>(R)0:入力なし, 1:入力あり</t>
+  </si>
+  <si>
+    <t>(W)0:クリア, 1:リセット</t>
+  </si>
+  <si>
+    <t>0x4017 (ジョイパッド2レジスタ)</t>
+  </si>
+  <si>
+    <t>R1 : 2P側のジョイパッドの状態を取得します。</t>
+  </si>
+  <si>
+    <t>Zapperスプライト</t>
+  </si>
+  <si>
+    <t>Zapperトリガ</t>
+  </si>
+  <si>
+    <t>拡張ポートから読み込んだデータ</t>
+  </si>
+  <si>
+    <t>ボタン入力情報</t>
+  </si>
+  <si>
+    <t>入力の検出</t>
+  </si>
+  <si>
+    <t>読み込み回数とボタン関係</t>
+  </si>
+  <si>
+    <t>例えばI/O【0x4016】から4回ロードを繰り返すした後、読み出したデータの0bitがセットされていれば1P側のスタートボタンが押されていたと言う事です。読み込み回数とボタン関係は次のような表になります。</t>
+  </si>
+  <si>
+    <t>回数</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>セレクトボタン</t>
+  </si>
+  <si>
+    <t>スタートボタン</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>アクセス方法</t>
+  </si>
+  <si>
+    <t>ジョイパッドには次のような手順でアクセスを行います。</t>
+  </si>
+  <si>
+    <t>1. I/O【0x4016】のbit0をセットする。</t>
+  </si>
+  <si>
+    <t>2. I/O【0x4016】のbit0をクリアする。</t>
+  </si>
+  <si>
+    <t>3. 入力をチェックしたいボタンになるまで1P側はI/O【0x4016】、2P側はI/O【0x4017】を連続で読み込む。</t>
+  </si>
+  <si>
+    <t>4. 読み込んだ値のbit0が0なら入力無し、1なら入力ありと言う事になる。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -879,6 +1003,13 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1266,7 +1397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1486,10 +1617,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2719,10 +2880,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2742,7 +2903,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3686,7 +3847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3721,7 +3882,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3898,21 +4059,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="27" spans="16:16">
       <c r="P27" t="s">
@@ -3920,20 +4081,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C14:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="14" spans="3:18">
       <c r="C14" t="s">
@@ -4136,20 +4298,21 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="Q18:R18"/>
   </mergeCells>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C14:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="14" spans="5:17" s="56" customFormat="1"/>
     <row r="15" spans="5:17" s="56" customFormat="1"/>
@@ -4225,20 +4388,21 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="I20:K20"/>
   </mergeCells>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C16:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="16" spans="3:18">
       <c r="C16" s="53"/>
@@ -4436,23 +4600,24 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="Q18:R18"/>
   </mergeCells>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="AJ1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="AY6" sqref="AY6:AY14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="68" width="4.85546875" style="59"/>
+    <col min="36" max="68" width="4.875" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1">
@@ -12569,26 +12734,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="5.28515625" style="1"/>
+    <col min="1" max="16384" width="5.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:25">
+    <row r="2" spans="2:25" ht="14.25" thickBot="1"/>
+    <row r="3" spans="2:25" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -12662,7 +12828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="15.75" thickBot="1">
+    <row r="4" spans="2:25" ht="15" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -12736,7 +12902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="15.75" thickBot="1">
+    <row r="5" spans="2:25" ht="15" thickBot="1">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -12810,7 +12976,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="15.75" thickBot="1">
+    <row r="6" spans="2:25" ht="15" thickBot="1">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -12884,7 +13050,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="15.75" thickBot="1">
+    <row r="7" spans="2:25" ht="15" thickBot="1">
       <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
@@ -12958,7 +13124,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15.75" thickBot="1">
+    <row r="8" spans="2:25" ht="15" thickBot="1">
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -13032,7 +13198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15.75" thickBot="1">
+    <row r="9" spans="2:25" ht="15" thickBot="1">
       <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
@@ -13106,7 +13272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="15.75" thickBot="1">
+    <row r="10" spans="2:25" ht="15" thickBot="1">
       <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
@@ -13180,7 +13346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="15.75" thickBot="1">
+    <row r="11" spans="2:25" ht="15" thickBot="1">
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
@@ -13254,7 +13420,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="15.75" thickBot="1">
+    <row r="12" spans="2:25" ht="15" thickBot="1">
       <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
@@ -13328,7 +13494,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="15.75" thickBot="1">
+    <row r="13" spans="2:25" ht="15" thickBot="1">
       <c r="B13" s="8" t="s">
         <v>59</v>
       </c>
@@ -13402,7 +13568,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="15.75" thickBot="1">
+    <row r="14" spans="2:25" ht="15" thickBot="1">
       <c r="B14" s="11" t="s">
         <v>66</v>
       </c>
@@ -13476,7 +13642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="15.75" thickBot="1">
+    <row r="15" spans="2:25" ht="15" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>73</v>
       </c>
@@ -13550,7 +13716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="15.75" thickBot="1">
+    <row r="16" spans="2:25" ht="15" thickBot="1">
       <c r="B16" s="11" t="s">
         <v>89</v>
       </c>
@@ -13624,7 +13790,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="15.75" thickBot="1">
+    <row r="17" spans="2:25" ht="15" thickBot="1">
       <c r="B17" s="8" t="s">
         <v>105</v>
       </c>
@@ -13698,7 +13864,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="15.75" thickBot="1">
+    <row r="18" spans="2:25" ht="15" thickBot="1">
       <c r="B18" s="11" t="s">
         <v>121</v>
       </c>
@@ -13772,7 +13938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:25" ht="15.75" thickBot="1">
+    <row r="19" spans="2:25" ht="15" thickBot="1">
       <c r="B19" s="8" t="s">
         <v>137</v>
       </c>
@@ -13846,7 +14012,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:25" ht="15.75" thickBot="1">
+    <row r="20" spans="2:25" ht="15" thickBot="1">
       <c r="B20" s="30" t="s">
         <v>153</v>
       </c>
@@ -13920,30 +14086,31 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="2:25">
+    <row r="21" spans="2:25" ht="14.25">
       <c r="B21" s="45" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="59.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
@@ -13951,7 +14118,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1">
       <c r="A3" s="47" t="s">
         <v>171</v>
       </c>
@@ -13959,12 +14126,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+    <row r="4" spans="1:3" ht="14.25" thickBot="1">
       <c r="A4" s="48" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+    <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="49" t="s">
         <v>174</v>
       </c>
@@ -13975,7 +14142,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="49" t="s">
         <v>177</v>
       </c>
@@ -13986,7 +14153,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+    <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="49" t="s">
         <v>180</v>
       </c>
@@ -13997,7 +14164,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="73" t="s">
         <v>183</v>
       </c>
@@ -14008,14 +14175,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+    <row r="9" spans="1:3" ht="15" thickBot="1">
       <c r="A9" s="74"/>
       <c r="B9" s="74"/>
       <c r="C9" s="51" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+    <row r="10" spans="1:3" ht="15" thickBot="1">
       <c r="A10" s="49" t="s">
         <v>187</v>
       </c>
@@ -14026,7 +14193,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.25" thickBot="1">
+    <row r="11" spans="1:3" ht="15" thickBot="1">
       <c r="A11" s="49" t="s">
         <v>190</v>
       </c>
@@ -14037,7 +14204,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+    <row r="12" spans="1:3" ht="15" thickBot="1">
       <c r="A12" s="49" t="s">
         <v>192</v>
       </c>
@@ -14048,7 +14215,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="73" t="s">
         <v>195</v>
       </c>
@@ -14059,14 +14226,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+    <row r="14" spans="1:3" ht="15" thickBot="1">
       <c r="A14" s="74"/>
       <c r="B14" s="74"/>
       <c r="C14" s="51" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+    <row r="15" spans="1:3" ht="15" thickBot="1">
       <c r="A15" s="47" t="s">
         <v>199</v>
       </c>
@@ -14074,12 +14241,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+    <row r="16" spans="1:3" ht="14.25" thickBot="1">
       <c r="A16" s="48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15" thickBot="1">
       <c r="A17" s="49" t="s">
         <v>174</v>
       </c>
@@ -14090,7 +14257,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" s="49" t="s">
         <v>177</v>
       </c>
@@ -14101,7 +14268,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15" thickBot="1">
       <c r="A19" s="49" t="s">
         <v>180</v>
       </c>
@@ -14112,7 +14279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15" thickBot="1">
       <c r="A20" s="49" t="s">
         <v>183</v>
       </c>
@@ -14123,7 +14290,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" s="49" t="s">
         <v>187</v>
       </c>
@@ -14134,7 +14301,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15" thickBot="1">
       <c r="A22" s="49" t="s">
         <v>190</v>
       </c>
@@ -14145,7 +14312,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29.25" thickBot="1">
+    <row r="23" spans="1:3" ht="15" thickBot="1">
       <c r="A23" s="49" t="s">
         <v>192</v>
       </c>
@@ -14156,7 +14323,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="49" t="s">
         <v>209</v>
       </c>
@@ -14167,7 +14334,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15" thickBot="1">
       <c r="A25" s="49" t="s">
         <v>211</v>
       </c>
@@ -14178,17 +14345,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15" thickBot="1">
       <c r="A26" s="47" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="14.25" thickBot="1">
       <c r="A27" s="48" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15" thickBot="1">
       <c r="A28" s="49" t="s">
         <v>174</v>
       </c>
@@ -14199,7 +14366,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="14.25">
       <c r="A29" s="73" t="s">
         <v>177</v>
       </c>
@@ -14210,14 +14377,14 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15" thickBot="1">
       <c r="A30" s="74"/>
       <c r="B30" s="74"/>
       <c r="C30" s="51" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="29.25" thickBot="1">
+    <row r="31" spans="1:3" ht="15" thickBot="1">
       <c r="A31" s="49" t="s">
         <v>180</v>
       </c>
@@ -14228,7 +14395,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29.25" thickBot="1">
+    <row r="32" spans="1:3" ht="15" thickBot="1">
       <c r="A32" s="49" t="s">
         <v>183</v>
       </c>
@@ -14239,7 +14406,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="14.25">
       <c r="A33" s="73" t="s">
         <v>187</v>
       </c>
@@ -14250,14 +14417,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15" thickBot="1">
       <c r="A34" s="74"/>
       <c r="B34" s="74"/>
       <c r="C34" s="51" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15" thickBot="1">
       <c r="A35" s="49" t="s">
         <v>226</v>
       </c>
@@ -14266,17 +14433,17 @@
       </c>
       <c r="C35" s="49"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15" thickBot="1">
       <c r="A36" s="47" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="14.25" thickBot="1">
       <c r="A37" s="48" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+    <row r="38" spans="1:3" ht="15" thickBot="1">
       <c r="A38" s="49" t="s">
         <v>174</v>
       </c>
@@ -14287,7 +14454,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="39" spans="1:3" ht="15" thickBot="1">
       <c r="A39" s="49" t="s">
         <v>230</v>
       </c>
@@ -14298,17 +14465,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15" thickBot="1">
       <c r="A40" s="47" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="14.25" thickBot="1">
       <c r="A41" s="48" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15" thickBot="1">
       <c r="A42" s="49" t="s">
         <v>174</v>
       </c>
@@ -14319,7 +14486,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15" thickBot="1">
       <c r="A43" s="49" t="s">
         <v>230</v>
       </c>
@@ -14330,17 +14497,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15" thickBot="1">
       <c r="A44" s="47" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="39" thickBot="1">
+    <row r="45" spans="1:3" ht="26.25" thickBot="1">
       <c r="A45" s="48" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+    <row r="46" spans="1:3" ht="15" thickBot="1">
       <c r="A46" s="49" t="s">
         <v>174</v>
       </c>
@@ -14351,7 +14518,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="14.25">
       <c r="A47" s="73" t="s">
         <v>230</v>
       </c>
@@ -14362,24 +14529,24 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+    <row r="48" spans="1:3" ht="15" thickBot="1">
       <c r="A48" s="74"/>
       <c r="B48" s="51" t="s">
         <v>239</v>
       </c>
       <c r="C48" s="74"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="47" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="39" thickBot="1">
+    <row r="50" spans="1:3" ht="26.25" thickBot="1">
       <c r="A50" s="48" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15" thickBot="1">
       <c r="A51" s="49" t="s">
         <v>174</v>
       </c>
@@ -14390,7 +14557,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="14.25">
       <c r="A52" s="73" t="s">
         <v>230</v>
       </c>
@@ -14401,24 +14568,24 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+    <row r="53" spans="1:3" ht="15" thickBot="1">
       <c r="A53" s="74"/>
       <c r="B53" s="51" t="s">
         <v>243</v>
       </c>
       <c r="C53" s="74"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+    <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="47" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="26.25" thickBot="1">
+    <row r="55" spans="1:3" ht="14.25" thickBot="1">
       <c r="A55" s="48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15" thickBot="1">
       <c r="A56" s="49" t="s">
         <v>174</v>
       </c>
@@ -14429,7 +14596,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="14.25">
       <c r="A57" s="73" t="s">
         <v>230</v>
       </c>
@@ -14440,21 +14607,374 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+    <row r="58" spans="1:3" ht="15" thickBot="1">
       <c r="A58" s="74"/>
       <c r="B58" s="51" t="s">
         <v>247</v>
       </c>
       <c r="C58" s="74"/>
     </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1">
+      <c r="A62" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A63" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A64" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A65" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="77" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1">
+      <c r="A70" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A71" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1">
+      <c r="A72" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1">
+      <c r="A73" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" s="78"/>
+    </row>
+    <row r="74" spans="1:3" ht="14.25">
+      <c r="A74" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" s="79" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1">
+      <c r="A75" s="82"/>
+      <c r="B75" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" s="80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25">
+      <c r="A76" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="81" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1">
+      <c r="A77" s="82"/>
+      <c r="B77" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="82"/>
+    </row>
+    <row r="78" spans="1:3" ht="14.25">
+      <c r="A78" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="B78" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1">
+      <c r="A79" s="82"/>
+      <c r="B79" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="82"/>
+    </row>
+    <row r="80" spans="1:3" ht="14.25">
+      <c r="A80" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="79" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1">
+      <c r="A81" s="82"/>
+      <c r="B81" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="80" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1">
+      <c r="A82" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1">
+      <c r="A83" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1">
+      <c r="A84" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1">
+      <c r="A85" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="78"/>
+    </row>
+    <row r="86" spans="1:3" ht="14.25">
+      <c r="A86" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" s="79" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1">
+      <c r="A87" s="82"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1">
+      <c r="A88" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="78" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1">
+      <c r="A89" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" s="78" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1">
+      <c r="A90" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="78" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1">
+      <c r="A94" s="75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="25.5">
+      <c r="A98" s="84" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="25.5">
+      <c r="A99" s="84" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A102" s="83" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A103" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="1:2" ht="39" thickBot="1">
+      <c r="A104" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1">
+      <c r="A105" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B105" s="78" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1">
+      <c r="A106" s="78">
+        <v>1</v>
+      </c>
+      <c r="B106" s="78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1">
+      <c r="A107" s="78">
+        <v>2</v>
+      </c>
+      <c r="B107" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1">
+      <c r="A108" s="78">
+        <v>3</v>
+      </c>
+      <c r="B108" s="78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1">
+      <c r="A109" s="78">
+        <v>4</v>
+      </c>
+      <c r="B109" s="78" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1">
+      <c r="A110" s="78">
+        <v>5</v>
+      </c>
+      <c r="B110" s="78" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1">
+      <c r="A111" s="78">
+        <v>6</v>
+      </c>
+      <c r="B111" s="78" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1">
+      <c r="A112" s="78">
+        <v>7</v>
+      </c>
+      <c r="B112" s="78" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1">
+      <c r="A113" s="78">
+        <v>8</v>
+      </c>
+      <c r="B113" s="78" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
+  <mergeCells count="22">
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -14463,7 +14983,14 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/super-duper-display-image.xlsx
+++ b/doc/super-duper-display-image.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\super-duper-nes\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="top page" sheetId="2" r:id="rId1"/>
@@ -15,9 +20,9 @@
     <sheet name="ascii" sheetId="4" r:id="rId6"/>
     <sheet name="io port" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -923,19 +928,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1006,7 +1011,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1599,6 +1604,30 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1617,40 +1646,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2883,7 +2888,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2903,7 +2908,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3447,6 +3452,153 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>207065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2087217" y="7280412"/>
+          <a:ext cx="8439979" cy="2774675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8256"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="182880" tIns="182880" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>1 2 3 4 5 6 7 8 9 0 - =</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3200" spc="500" baseline="0">
+            <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>q w e r t y u i o p [ ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3200" spc="500" baseline="0">
+            <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>a s d f g h j k l ; '</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3200" spc="500" baseline="0">
+            <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>z x c v b n m , . /</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -3801,6 +3953,117 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3702326" y="10544944"/>
+          <a:ext cx="4886739" cy="2037523"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8256"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="182880" tIns="182880" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>1234567890-=</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>qwertyuiop[]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>asdfghjkl;'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="2700"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" spc="500" baseline="0">
+              <a:latin typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="Simplified Arabic Fixed" panose="02070309020205020404" pitchFamily="49" charset="-78"/>
+            </a:rPr>
+            <a:t>zxcvbnm,./</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4059,21 +4322,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="27" spans="16:16">
       <c r="P27" t="s">
@@ -4088,14 +4351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C14:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="14" spans="3:18">
       <c r="C14" t="s">
@@ -4227,16 +4490,16 @@
       <c r="P18" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="69" t="s">
+      <c r="Q18" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="R18" s="70"/>
+      <c r="R18" s="78"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54" t="s">
         <v>87</v>
@@ -4279,11 +4542,11 @@
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="70"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="78"/>
       <c r="L20" s="53"/>
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
@@ -4305,14 +4568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C14:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="14" spans="5:17" s="56" customFormat="1"/>
     <row r="15" spans="5:17" s="56" customFormat="1"/>
@@ -4362,8 +4625,8 @@
       <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="3:17" s="56" customFormat="1">
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
@@ -4379,9 +4642,9 @@
       <c r="Q19" s="57"/>
     </row>
     <row r="20" spans="3:17" s="56" customFormat="1">
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4395,14 +4658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C16:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="16" spans="3:18">
       <c r="C16" s="53"/>
@@ -4529,16 +4792,16 @@
       <c r="P18" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="69" t="s">
+      <c r="Q18" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="R18" s="70"/>
+      <c r="R18" s="78"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54" t="s">
         <v>87</v>
@@ -4581,11 +4844,11 @@
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="70"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="78"/>
       <c r="L20" s="53"/>
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
@@ -4607,17 +4870,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP31"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AY6" sqref="AY6:AY14"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AK20" activePane="bottomRight" state="frozenSplit"/>
+      <selection activeCell="AJ1" sqref="AJ1"/>
+      <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
+      <selection pane="bottomLeft" activeCell="AJ2" sqref="AJ2"/>
+      <selection pane="bottomRight" activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="68" width="4.875" style="59"/>
+    <col min="36" max="68" width="4.85546875" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1">
@@ -12741,20 +13008,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="5.25" style="1"/>
+    <col min="1" max="16384" width="5.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="14.25" thickBot="1"/>
-    <row r="3" spans="2:25" ht="14.25">
+    <row r="2" spans="2:25" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -12828,7 +13095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="15" thickBot="1">
+    <row r="4" spans="2:25" ht="15.75" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -12902,7 +13169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="15" thickBot="1">
+    <row r="5" spans="2:25" ht="15.75" thickBot="1">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -12976,7 +13243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="15" thickBot="1">
+    <row r="6" spans="2:25" ht="15.75" thickBot="1">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -13050,7 +13317,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="15" thickBot="1">
+    <row r="7" spans="2:25" ht="15.75" thickBot="1">
       <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
@@ -13124,7 +13391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15" thickBot="1">
+    <row r="8" spans="2:25" ht="15.75" thickBot="1">
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -13198,7 +13465,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15" thickBot="1">
+    <row r="9" spans="2:25" ht="15.75" thickBot="1">
       <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
@@ -13272,7 +13539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="15" thickBot="1">
+    <row r="10" spans="2:25" ht="15.75" thickBot="1">
       <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
@@ -13346,7 +13613,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="15" thickBot="1">
+    <row r="11" spans="2:25" ht="15.75" thickBot="1">
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
@@ -13420,7 +13687,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="15" thickBot="1">
+    <row r="12" spans="2:25" ht="15.75" thickBot="1">
       <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
@@ -13494,7 +13761,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="15" thickBot="1">
+    <row r="13" spans="2:25" ht="15.75" thickBot="1">
       <c r="B13" s="8" t="s">
         <v>59</v>
       </c>
@@ -13568,7 +13835,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="15" thickBot="1">
+    <row r="14" spans="2:25" ht="15.75" thickBot="1">
       <c r="B14" s="11" t="s">
         <v>66</v>
       </c>
@@ -13642,7 +13909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="15" thickBot="1">
+    <row r="15" spans="2:25" ht="15.75" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>73</v>
       </c>
@@ -13716,7 +13983,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="15" thickBot="1">
+    <row r="16" spans="2:25" ht="15.75" thickBot="1">
       <c r="B16" s="11" t="s">
         <v>89</v>
       </c>
@@ -13790,7 +14057,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="15" thickBot="1">
+    <row r="17" spans="2:25" ht="15.75" thickBot="1">
       <c r="B17" s="8" t="s">
         <v>105</v>
       </c>
@@ -13864,7 +14131,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="15" thickBot="1">
+    <row r="18" spans="2:25" ht="15.75" thickBot="1">
       <c r="B18" s="11" t="s">
         <v>121</v>
       </c>
@@ -13938,7 +14205,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:25" ht="15" thickBot="1">
+    <row r="19" spans="2:25" ht="15.75" thickBot="1">
       <c r="B19" s="8" t="s">
         <v>137</v>
       </c>
@@ -14012,7 +14279,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:25" ht="15" thickBot="1">
+    <row r="20" spans="2:25" ht="15.75" thickBot="1">
       <c r="B20" s="30" t="s">
         <v>153</v>
       </c>
@@ -14086,7 +14353,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="14.25">
+    <row r="21" spans="2:25">
       <c r="B21" s="45" t="s">
         <v>169</v>
       </c>
@@ -14098,19 +14365,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="59.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
@@ -14118,7 +14385,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="47" t="s">
         <v>171</v>
       </c>
@@ -14126,12 +14393,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" thickBot="1">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="48" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
       <c r="A5" s="49" t="s">
         <v>174</v>
       </c>
@@ -14142,7 +14409,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="49" t="s">
         <v>177</v>
       </c>
@@ -14153,7 +14420,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
       <c r="A7" s="49" t="s">
         <v>180</v>
       </c>
@@ -14164,25 +14431,25 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="73" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="81" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="51" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10" s="49" t="s">
         <v>187</v>
       </c>
@@ -14193,7 +14460,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1">
+    <row r="11" spans="1:3" ht="29.25" thickBot="1">
       <c r="A11" s="49" t="s">
         <v>190</v>
       </c>
@@ -14204,7 +14471,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
       <c r="A12" s="49" t="s">
         <v>192</v>
       </c>
@@ -14215,25 +14482,25 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="73" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="81" t="s">
         <v>196</v>
       </c>
       <c r="C13" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="51" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
       <c r="A15" s="47" t="s">
         <v>199</v>
       </c>
@@ -14241,12 +14508,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" thickBot="1">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
       <c r="A16" s="48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="49" t="s">
         <v>174</v>
       </c>
@@ -14257,7 +14524,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
       <c r="A18" s="49" t="s">
         <v>177</v>
       </c>
@@ -14268,7 +14535,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
       <c r="A19" s="49" t="s">
         <v>180</v>
       </c>
@@ -14279,7 +14546,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
       <c r="A20" s="49" t="s">
         <v>183</v>
       </c>
@@ -14290,7 +14557,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
       <c r="A21" s="49" t="s">
         <v>187</v>
       </c>
@@ -14301,7 +14568,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
       <c r="A22" s="49" t="s">
         <v>190</v>
       </c>
@@ -14312,7 +14579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1">
+    <row r="23" spans="1:3" ht="29.25" thickBot="1">
       <c r="A23" s="49" t="s">
         <v>192</v>
       </c>
@@ -14323,7 +14590,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
       <c r="A24" s="49" t="s">
         <v>209</v>
       </c>
@@ -14334,7 +14601,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
       <c r="A25" s="49" t="s">
         <v>211</v>
       </c>
@@ -14345,17 +14612,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
       <c r="A26" s="47" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
       <c r="A27" s="48" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
       <c r="A28" s="49" t="s">
         <v>174</v>
       </c>
@@ -14366,25 +14633,25 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="73" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="81" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="51" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1">
+    <row r="31" spans="1:3" ht="29.25" thickBot="1">
       <c r="A31" s="49" t="s">
         <v>180</v>
       </c>
@@ -14395,7 +14662,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1">
+    <row r="32" spans="1:3" ht="29.25" thickBot="1">
       <c r="A32" s="49" t="s">
         <v>183</v>
       </c>
@@ -14406,25 +14673,25 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="73" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="81" t="s">
         <v>223</v>
       </c>
       <c r="C33" s="50" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="51" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1">
       <c r="A35" s="49" t="s">
         <v>226</v>
       </c>
@@ -14433,17 +14700,17 @@
       </c>
       <c r="C35" s="49"/>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36" s="47" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
       <c r="A37" s="48" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="49" t="s">
         <v>174</v>
       </c>
@@ -14454,7 +14721,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1">
       <c r="A39" s="49" t="s">
         <v>230</v>
       </c>
@@ -14465,17 +14732,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1">
       <c r="A40" s="47" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1">
       <c r="A41" s="48" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1">
       <c r="A42" s="49" t="s">
         <v>174</v>
       </c>
@@ -14486,7 +14753,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1">
       <c r="A43" s="49" t="s">
         <v>230</v>
       </c>
@@ -14497,17 +14764,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1">
       <c r="A44" s="47" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="26.25" thickBot="1">
+    <row r="45" spans="1:3" ht="39" thickBot="1">
       <c r="A45" s="48" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1">
       <c r="A46" s="49" t="s">
         <v>174</v>
       </c>
@@ -14518,35 +14785,35 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="73" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="81" t="s">
         <v>230</v>
       </c>
       <c r="B47" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="81" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="74"/>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A48" s="82"/>
       <c r="B48" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="74"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1">
+      <c r="C48" s="82"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" s="47" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="26.25" thickBot="1">
+    <row r="50" spans="1:3" ht="39" thickBot="1">
       <c r="A50" s="48" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" s="49" t="s">
         <v>174</v>
       </c>
@@ -14557,35 +14824,35 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="73" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="81" t="s">
         <v>230</v>
       </c>
       <c r="B52" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="81" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="74"/>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A53" s="82"/>
       <c r="B53" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="74"/>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1">
+      <c r="C53" s="82"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" s="47" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" thickBot="1">
+    <row r="55" spans="1:3" ht="26.25" thickBot="1">
       <c r="A55" s="48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1">
       <c r="A56" s="49" t="s">
         <v>174</v>
       </c>
@@ -14596,372 +14863,372 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="73" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="81" t="s">
         <v>230</v>
       </c>
       <c r="B57" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="73" t="s">
+      <c r="C57" s="81" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="74"/>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A58" s="82"/>
       <c r="B58" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C58" s="74"/>
-    </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1">
-      <c r="A62" s="75" t="s">
+      <c r="C58" s="82"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A62" s="69" t="s">
         <v>254</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A63" s="76" t="s">
+    <row r="63" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A63" s="70" t="s">
         <v>255</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A64" s="77" t="s">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A64" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="B64" s="77" t="s">
+      <c r="B64" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="C64" s="77" t="s">
+      <c r="C64" s="71" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A65" s="77" t="s">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A65" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="B65" s="77" t="s">
+      <c r="B65" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="C65" s="77" t="s">
+      <c r="C65" s="71" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" thickBot="1">
-      <c r="A70" s="75" t="s">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A70" s="69" t="s">
         <v>258</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A71" s="76" t="s">
+    <row r="71" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A71" s="70" t="s">
         <v>259</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" ht="15" thickBot="1">
-      <c r="A72" s="78" t="s">
+    <row r="72" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A72" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="78" t="s">
+      <c r="B72" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C72" s="72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" thickBot="1">
-      <c r="A73" s="78" t="s">
+    <row r="73" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A73" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="B73" s="78" t="s">
+      <c r="B73" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="78"/>
-    </row>
-    <row r="74" spans="1:3" ht="14.25">
-      <c r="A74" s="81" t="s">
+      <c r="C73" s="72"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="B74" s="79" t="s">
+      <c r="B74" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="C74" s="79" t="s">
+      <c r="C74" s="73" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15" thickBot="1">
-      <c r="A75" s="82"/>
-      <c r="B75" s="80" t="s">
+    <row r="75" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A75" s="84"/>
+      <c r="B75" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="C75" s="80" t="s">
+      <c r="C75" s="74" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.25">
-      <c r="A76" s="81" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="83" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" thickBot="1">
-      <c r="A77" s="82"/>
-      <c r="B77" s="80" t="s">
+    <row r="77" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A77" s="84"/>
+      <c r="B77" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="C77" s="82"/>
-    </row>
-    <row r="78" spans="1:3" ht="14.25">
-      <c r="A78" s="81" t="s">
+      <c r="C77" s="84"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="79" t="s">
+      <c r="B78" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="81" t="s">
+      <c r="C78" s="83" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1">
-      <c r="A79" s="82"/>
-      <c r="B79" s="80" t="s">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A79" s="84"/>
+      <c r="B79" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="C79" s="82"/>
-    </row>
-    <row r="80" spans="1:3" ht="14.25">
-      <c r="A80" s="81" t="s">
+      <c r="C79" s="84"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="B80" s="79" t="s">
+      <c r="B80" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="79" t="s">
+      <c r="C80" s="73" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" thickBot="1">
-      <c r="A81" s="82"/>
-      <c r="B81" s="80" t="s">
+    <row r="81" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A81" s="84"/>
+      <c r="B81" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="C81" s="80" t="s">
+      <c r="C81" s="74" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" thickBot="1">
-      <c r="A82" s="75" t="s">
+    <row r="82" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A82" s="69" t="s">
         <v>274</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3" ht="15" thickBot="1">
-      <c r="A83" s="76" t="s">
+    <row r="83" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A83" s="70" t="s">
         <v>275</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:3" ht="15" thickBot="1">
-      <c r="A84" s="78" t="s">
+    <row r="84" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A84" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="78" t="s">
+      <c r="B84" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="78" t="s">
+      <c r="C84" s="72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1">
-      <c r="A85" s="78" t="s">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A85" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="78" t="s">
+      <c r="B85" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="C85" s="78"/>
-    </row>
-    <row r="86" spans="1:3" ht="14.25">
-      <c r="A86" s="81" t="s">
+      <c r="C85" s="72"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="B86" s="81" t="s">
+      <c r="B86" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="C86" s="79" t="s">
+      <c r="C86" s="73" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" thickBot="1">
-      <c r="A87" s="82"/>
-      <c r="B87" s="82"/>
-      <c r="C87" s="80" t="s">
+    <row r="87" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A87" s="84"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="74" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" thickBot="1">
-      <c r="A88" s="78" t="s">
+    <row r="88" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A88" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="B88" s="78" t="s">
+      <c r="B88" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C88" s="72" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" thickBot="1">
-      <c r="A89" s="78" t="s">
+    <row r="89" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A89" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="B89" s="78" t="s">
+      <c r="B89" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="C89" s="72" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" thickBot="1">
-      <c r="A90" s="78" t="s">
+    <row r="90" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A90" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="B90" s="78" t="s">
+      <c r="B90" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="C90" s="78" t="s">
+      <c r="C90" s="72" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" thickBot="1">
-      <c r="A94" s="75" t="s">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A94" s="69" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="76" t="s">
+      <c r="A95" s="70" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="84" t="s">
+      <c r="A96" s="76" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="84" t="s">
+      <c r="A97" s="76" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="25.5">
-      <c r="A98" s="84" t="s">
+    <row r="98" spans="1:2" ht="38.25">
+      <c r="A98" s="76" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="25.5">
-      <c r="A99" s="84" t="s">
+    <row r="99" spans="1:2" ht="38.25">
+      <c r="A99" s="76" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A102" s="83" t="s">
+    <row r="102" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A102" s="75" t="s">
         <v>280</v>
       </c>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A103" s="75" t="s">
+    <row r="103" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A103" s="69" t="s">
         <v>281</v>
       </c>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:2" ht="39" thickBot="1">
-      <c r="A104" s="76" t="s">
+    <row r="104" spans="1:2" ht="52.5" thickBot="1">
+      <c r="A104" s="70" t="s">
         <v>282</v>
       </c>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" ht="15" thickBot="1">
-      <c r="A105" s="78" t="s">
+    <row r="105" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A105" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="B105" s="78" t="s">
+      <c r="B105" s="72" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" thickBot="1">
-      <c r="A106" s="78">
+    <row r="106" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A106" s="72">
         <v>1</v>
       </c>
-      <c r="B106" s="78" t="s">
+      <c r="B106" s="72" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1">
-      <c r="A107" s="78">
+    <row r="107" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A107" s="72">
         <v>2</v>
       </c>
-      <c r="B107" s="78" t="s">
+      <c r="B107" s="72" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" thickBot="1">
-      <c r="A108" s="78">
+    <row r="108" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A108" s="72">
         <v>3</v>
       </c>
-      <c r="B108" s="78" t="s">
+      <c r="B108" s="72" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" thickBot="1">
-      <c r="A109" s="78">
+    <row r="109" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A109" s="72">
         <v>4</v>
       </c>
-      <c r="B109" s="78" t="s">
+      <c r="B109" s="72" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" thickBot="1">
-      <c r="A110" s="78">
+    <row r="110" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A110" s="72">
         <v>5</v>
       </c>
-      <c r="B110" s="78" t="s">
+      <c r="B110" s="72" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" thickBot="1">
-      <c r="A111" s="78">
+    <row r="111" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A111" s="72">
         <v>6</v>
       </c>
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="72" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" thickBot="1">
-      <c r="A112" s="78">
+    <row r="112" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A112" s="72">
         <v>7</v>
       </c>
-      <c r="B112" s="78" t="s">
+      <c r="B112" s="72" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" thickBot="1">
-      <c r="A113" s="78">
+    <row r="113" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A113" s="72">
         <v>8</v>
       </c>
-      <c r="B113" s="78" t="s">
+      <c r="B113" s="72" t="s">
         <v>290</v>
       </c>
     </row>

--- a/doc/super-duper-display-image.xlsx
+++ b/doc/super-duper-display-image.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daisuke\nes\super-duper-nes\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\970.moto-proj\super-duper-nes\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="top page" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="disp map" sheetId="9" r:id="rId5"/>
     <sheet name="shell" sheetId="10" r:id="rId6"/>
     <sheet name="ascii" sheetId="4" r:id="rId7"/>
-    <sheet name="io port" sheetId="5" r:id="rId8"/>
+    <sheet name="chrrom" sheetId="11" r:id="rId8"/>
+    <sheet name="io port" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="298">
   <si>
     <t>文</t>
   </si>
@@ -924,24 +925,27 @@
   </si>
   <si>
     <t>4. 読み込んだ値のbit0が0なら入力無し、1なら入力ありと言う事になる。</t>
+  </si>
+  <si>
+    <t>ascii '0' (0x30) is placed at 0x8310.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1012,7 +1016,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1641,22 +1645,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1691,7 +1695,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1753,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1887,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1950,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2090,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2149,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2242,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2340,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2410,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2490,7 @@
         <xdr:cNvPr id="8" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2550,7 @@
         <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2627,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2686,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2775,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2844,7 +2848,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2914,7 +2918,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +2983,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3044,7 @@
         <xdr:cNvPr id="10" name="Rounded Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3123,7 @@
         <xdr:cNvPr id="11" name="Rounded Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,7 +3191,7 @@
         <xdr:cNvPr id="13" name="Rounded Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3267,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3326,7 @@
         <xdr:cNvPr id="7" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3386,7 @@
         <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3454,7 +3458,7 @@
         <xdr:cNvPr id="10" name="Rounded Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3546,7 +3550,7 @@
         <xdr:cNvPr id="11" name="Rounded Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3619,7 +3623,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,7 +3776,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3956,7 +3960,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4140,7 +4144,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4266,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D2AF78-8443-4B76-8335-B99CC8FB1242}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D2AF78-8443-4B76-8335-B99CC8FB1242}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4415,7 +4419,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EA46A8-D46B-483F-91EB-012B372AE11B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86EA46A8-D46B-483F-91EB-012B372AE11B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4642,7 +4646,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B769B88A-DE40-483C-98A8-F96253B2CCEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B769B88A-DE40-483C-98A8-F96253B2CCEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4759,7 +4763,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094F8DA8-D9D4-4E4D-9218-B8A075169A1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{094F8DA8-D9D4-4E4D-9218-B8A075169A1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4811,6 +4815,545 @@
             </a:rPr>
             <a:t>| abc</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>551695</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6038095" cy="4580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect r="44946" b="-1260"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="85724"/>
+          <a:ext cx="3324225" cy="4638675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="4429125"/>
+          <a:ext cx="819150" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="1085850"/>
+          <a:ext cx="1238250" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -323070"/>
+            <a:gd name="adj2" fmla="val -69257"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>'0' is ascii 0x30</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangular Callout 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="4972050"/>
+          <a:ext cx="2076450" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -424"/>
+            <a:gd name="adj2" fmla="val -85613"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>.nes file header: 0x10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>.nes 0x0010</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> - 0x8010 : prg rom</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.nes </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0x8010 - 0x10010 : chr rom</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648449" y="1571625"/>
+          <a:ext cx="2162175" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect r="49678" b="-2507"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11715750" y="295274"/>
+          <a:ext cx="3038475" cy="4695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangular Callout 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13496925" y="1371600"/>
+          <a:ext cx="1238250" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -169993"/>
+            <a:gd name="adj2" fmla="val -71854"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Drawing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> object is chr code 0x8X</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="4667250"/>
+          <a:ext cx="819150" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5081,16 +5624,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="16:16">
       <c r="P27" t="s">
         <v>248</v>
       </c>
@@ -5103,21 +5646,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C14:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:18">
       <c r="C14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:18">
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54" t="s">
@@ -5161,7 +5704,7 @@
       </c>
       <c r="R16" s="53"/>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:18">
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54" t="s">
@@ -5205,7 +5748,7 @@
       </c>
       <c r="R17" s="53"/>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:18">
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
@@ -5247,7 +5790,7 @@
       </c>
       <c r="R18" s="78"/>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:18">
       <c r="C19" s="77" t="s">
         <v>250</v>
       </c>
@@ -5287,7 +5830,7 @@
       <c r="Q19" s="54"/>
       <c r="R19" s="53"/>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:18">
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -5320,18 +5863,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C14:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="14" spans="5:17" s="56" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="5:17" s="56" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="5:17" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="5:17" s="56" customFormat="1"/>
+    <row r="15" spans="5:17" s="56" customFormat="1"/>
+    <row r="16" spans="5:17" s="56" customFormat="1">
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
@@ -5346,7 +5889,7 @@
       <c r="P16" s="58"/>
       <c r="Q16" s="58"/>
     </row>
-    <row r="17" spans="3:17" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:17" s="56" customFormat="1">
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
@@ -5361,7 +5904,7 @@
       <c r="P17" s="57"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="3:17" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:17" s="56" customFormat="1">
       <c r="E18" s="57"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
@@ -5376,7 +5919,7 @@
       <c r="P18" s="58"/>
       <c r="Q18" s="57"/>
     </row>
-    <row r="19" spans="3:17" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:17" s="56" customFormat="1">
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
       <c r="E19" s="57"/>
@@ -5393,7 +5936,7 @@
       <c r="P19" s="57"/>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="3:17" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:17" s="56" customFormat="1">
       <c r="I20" s="80"/>
       <c r="J20" s="80"/>
       <c r="K20" s="80"/>
@@ -5410,16 +5953,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C16:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:18">
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54" t="s">
@@ -5463,7 +6006,7 @@
       </c>
       <c r="R16" s="53"/>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:18">
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54" t="s">
@@ -5507,7 +6050,7 @@
       </c>
       <c r="R17" s="53"/>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:18">
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
@@ -5549,7 +6092,7 @@
       </c>
       <c r="R18" s="78"/>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:18">
       <c r="C19" s="77" t="s">
         <v>250</v>
       </c>
@@ -5589,7 +6132,7 @@
       <c r="Q19" s="54"/>
       <c r="R19" s="53"/>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:18">
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -5622,7 +6165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView topLeftCell="AJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5630,16 +6173,16 @@
       <selection activeCell="AJ1" sqref="AJ1"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="AJ2" sqref="AJ2"/>
-      <selection pane="bottomRight" activeCell="AO15" sqref="AO15"/>
+      <selection pane="bottomRight" activeCell="BS11" sqref="BS11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="68" width="4.875" style="59"/>
+    <col min="36" max="68" width="4.85546875" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1">
       <c r="B1">
         <v>0</v>
       </c>
@@ -5833,7 +6376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:68" ht="27" customHeight="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6096,7 +6639,7 @@
         <v>201F</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:68" ht="27" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6360,7 +6903,7 @@
         <v>203F</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:68" ht="27" customHeight="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6624,7 +7167,7 @@
         <v>205F</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:68" ht="27" customHeight="1">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6888,7 +7431,7 @@
         <v>207F</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:68" ht="27" customHeight="1">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7152,7 +7695,7 @@
         <v>209F</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:68" ht="27" customHeight="1">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7416,7 +7959,7 @@
         <v>20BF</v>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:68" ht="27" customHeight="1">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7680,7 +8223,7 @@
         <v>20DF</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:68" ht="27" customHeight="1">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7944,7 +8487,7 @@
         <v>20FF</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:68" ht="27" customHeight="1">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8208,7 +8751,7 @@
         <v>211F</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:68" ht="27" customHeight="1">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8472,7 +9015,7 @@
         <v>213F</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:68" ht="27" customHeight="1">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8736,7 +9279,7 @@
         <v>215F</v>
       </c>
     </row>
-    <row r="13" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:68" ht="27" customHeight="1">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9000,7 +9543,7 @@
         <v>217F</v>
       </c>
     </row>
-    <row r="14" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:68" ht="27" customHeight="1">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9264,7 +9807,7 @@
         <v>219F</v>
       </c>
     </row>
-    <row r="15" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:68" ht="27" customHeight="1">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9528,7 +10071,7 @@
         <v>21BF</v>
       </c>
     </row>
-    <row r="16" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:68" ht="27" customHeight="1">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9792,7 +10335,7 @@
         <v>21DF</v>
       </c>
     </row>
-    <row r="17" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:68" ht="27" customHeight="1">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10056,7 +10599,7 @@
         <v>21FF</v>
       </c>
     </row>
-    <row r="18" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:68" ht="27" customHeight="1">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10320,7 +10863,7 @@
         <v>221F</v>
       </c>
     </row>
-    <row r="19" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:68" ht="27" customHeight="1">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10584,7 +11127,7 @@
         <v>223F</v>
       </c>
     </row>
-    <row r="20" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:68" ht="27" customHeight="1">
       <c r="A20">
         <v>18</v>
       </c>
@@ -10848,7 +11391,7 @@
         <v>225F</v>
       </c>
     </row>
-    <row r="21" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:68" ht="27" customHeight="1">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11112,7 +11655,7 @@
         <v>227F</v>
       </c>
     </row>
-    <row r="22" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:68" ht="27" customHeight="1">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11376,7 +11919,7 @@
         <v>229F</v>
       </c>
     </row>
-    <row r="23" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:68" ht="27" customHeight="1">
       <c r="A23">
         <v>21</v>
       </c>
@@ -11640,7 +12183,7 @@
         <v>22BF</v>
       </c>
     </row>
-    <row r="24" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:68" ht="27" customHeight="1">
       <c r="A24">
         <v>22</v>
       </c>
@@ -11904,7 +12447,7 @@
         <v>22DF</v>
       </c>
     </row>
-    <row r="25" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:68" ht="27" customHeight="1">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12168,7 +12711,7 @@
         <v>22FF</v>
       </c>
     </row>
-    <row r="26" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:68" ht="27" customHeight="1">
       <c r="A26">
         <v>24</v>
       </c>
@@ -12432,7 +12975,7 @@
         <v>231F</v>
       </c>
     </row>
-    <row r="27" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:68" ht="27" customHeight="1">
       <c r="A27">
         <v>25</v>
       </c>
@@ -12696,7 +13239,7 @@
         <v>233F</v>
       </c>
     </row>
-    <row r="28" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:68" ht="27" customHeight="1">
       <c r="A28">
         <v>26</v>
       </c>
@@ -12960,7 +13503,7 @@
         <v>235F</v>
       </c>
     </row>
-    <row r="29" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:68" ht="27" customHeight="1">
       <c r="A29">
         <v>27</v>
       </c>
@@ -13224,7 +13767,7 @@
         <v>237F</v>
       </c>
     </row>
-    <row r="30" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:68" ht="27" customHeight="1">
       <c r="A30">
         <v>28</v>
       </c>
@@ -13488,7 +14031,7 @@
         <v>239F</v>
       </c>
     </row>
-    <row r="31" spans="1:68" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" ht="27" customHeight="1" thickBot="1">
       <c r="A31">
         <v>29</v>
       </c>
@@ -13760,24 +14303,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD621C5E-94B6-45EE-BBA4-12B279F31EA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView topLeftCell="AJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AK14" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="AJ1" sqref="AJ1"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="AJ2" sqref="AJ2"/>
-      <selection pane="bottomRight" activeCell="AM18" sqref="AM18:BO18"/>
+      <selection pane="bottomRight" activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="68" width="4.875" style="59"/>
+    <col min="36" max="68" width="4.85546875" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1">
       <c r="B1">
         <v>0</v>
       </c>
@@ -13971,7 +14514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:68" ht="27" customHeight="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14110,7 +14653,7 @@
         <v>2000</v>
       </c>
       <c r="AL2" s="67" t="str">
-        <f t="shared" ref="AL2:BA31" si="1">DEC2HEX(8192+C2)</f>
+        <f t="shared" ref="AL2:BA17" si="1">DEC2HEX(8192+C2)</f>
         <v>2001</v>
       </c>
       <c r="AM2" s="67" t="str">
@@ -14174,7 +14717,7 @@
         <v>2010</v>
       </c>
       <c r="BB2" s="67" t="str">
-        <f t="shared" ref="BB2:BP31" si="2">DEC2HEX(8192+S2)</f>
+        <f t="shared" ref="BB2:BP18" si="2">DEC2HEX(8192+S2)</f>
         <v>2011</v>
       </c>
       <c r="BC2" s="67" t="str">
@@ -14234,7 +14777,7 @@
         <v>201F</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:68" ht="27" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14498,7 +15041,7 @@
         <v>203F</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:68" ht="27" customHeight="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14762,7 +15305,7 @@
         <v>205F</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:68" ht="27" customHeight="1">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15026,7 +15569,7 @@
         <v>207F</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:68" ht="27" customHeight="1">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15290,7 +15833,7 @@
         <v>209F</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:68" ht="27" customHeight="1">
       <c r="A7">
         <v>5</v>
       </c>
@@ -15554,7 +16097,7 @@
         <v>20BF</v>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:68" ht="27" customHeight="1">
       <c r="A8">
         <v>6</v>
       </c>
@@ -15818,7 +16361,7 @@
         <v>20DF</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:68" ht="27" customHeight="1">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16082,7 +16625,7 @@
         <v>20FF</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:68" ht="27" customHeight="1">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16346,7 +16889,7 @@
         <v>211F</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:68" ht="27" customHeight="1">
       <c r="A11">
         <v>9</v>
       </c>
@@ -16610,7 +17153,7 @@
         <v>213F</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:68" ht="27" customHeight="1">
       <c r="A12">
         <v>10</v>
       </c>
@@ -16874,7 +17417,7 @@
         <v>215F</v>
       </c>
     </row>
-    <row r="13" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:68" ht="27" customHeight="1">
       <c r="A13">
         <v>11</v>
       </c>
@@ -17138,7 +17681,7 @@
         <v>217F</v>
       </c>
     </row>
-    <row r="14" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:68" ht="27" customHeight="1">
       <c r="A14">
         <v>12</v>
       </c>
@@ -17402,7 +17945,7 @@
         <v>219F</v>
       </c>
     </row>
-    <row r="15" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:68" ht="27" customHeight="1">
       <c r="A15">
         <v>13</v>
       </c>
@@ -17666,7 +18209,7 @@
         <v>21BF</v>
       </c>
     </row>
-    <row r="16" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:68" ht="27" customHeight="1">
       <c r="A16">
         <v>14</v>
       </c>
@@ -17930,7 +18473,7 @@
         <v>21DF</v>
       </c>
     </row>
-    <row r="17" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:68" ht="27" customHeight="1">
       <c r="A17">
         <v>15</v>
       </c>
@@ -18130,7 +18673,7 @@
         <v>21EF</v>
       </c>
       <c r="BA17" s="61" t="str">
-        <f t="shared" ref="BA17:BP46" si="8">DEC2HEX(8192+R17)</f>
+        <f t="shared" ref="BA17:BP31" si="8">DEC2HEX(8192+R17)</f>
         <v>21F0</v>
       </c>
       <c r="BB17" s="61" t="str">
@@ -18194,7 +18737,7 @@
         <v>21FF</v>
       </c>
     </row>
-    <row r="18" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:68" ht="27" customHeight="1">
       <c r="A18">
         <v>16</v>
       </c>
@@ -18458,7 +19001,7 @@
         <v>221F</v>
       </c>
     </row>
-    <row r="19" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:68" ht="27" customHeight="1">
       <c r="A19">
         <v>17</v>
       </c>
@@ -18722,7 +19265,7 @@
         <v>223F</v>
       </c>
     </row>
-    <row r="20" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:68" ht="27" customHeight="1">
       <c r="A20">
         <v>18</v>
       </c>
@@ -18986,7 +19529,7 @@
         <v>225F</v>
       </c>
     </row>
-    <row r="21" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:68" ht="27" customHeight="1">
       <c r="A21">
         <v>19</v>
       </c>
@@ -19250,7 +19793,7 @@
         <v>227F</v>
       </c>
     </row>
-    <row r="22" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:68" ht="27" customHeight="1">
       <c r="A22">
         <v>20</v>
       </c>
@@ -19514,7 +20057,7 @@
         <v>229F</v>
       </c>
     </row>
-    <row r="23" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:68" ht="27" customHeight="1">
       <c r="A23">
         <v>21</v>
       </c>
@@ -19778,7 +20321,7 @@
         <v>22BF</v>
       </c>
     </row>
-    <row r="24" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:68" ht="27" customHeight="1">
       <c r="A24">
         <v>22</v>
       </c>
@@ -20042,7 +20585,7 @@
         <v>22DF</v>
       </c>
     </row>
-    <row r="25" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:68" ht="27" customHeight="1">
       <c r="A25">
         <v>23</v>
       </c>
@@ -20306,7 +20849,7 @@
         <v>22FF</v>
       </c>
     </row>
-    <row r="26" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:68" ht="27" customHeight="1">
       <c r="A26">
         <v>24</v>
       </c>
@@ -20570,7 +21113,7 @@
         <v>231F</v>
       </c>
     </row>
-    <row r="27" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:68" ht="27" customHeight="1">
       <c r="A27">
         <v>25</v>
       </c>
@@ -20834,7 +21377,7 @@
         <v>233F</v>
       </c>
     </row>
-    <row r="28" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:68" ht="27" customHeight="1">
       <c r="A28">
         <v>26</v>
       </c>
@@ -21098,7 +21641,7 @@
         <v>235F</v>
       </c>
     </row>
-    <row r="29" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:68" ht="27" customHeight="1">
       <c r="A29">
         <v>27</v>
       </c>
@@ -21362,7 +21905,7 @@
         <v>237F</v>
       </c>
     </row>
-    <row r="30" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:68" ht="27" customHeight="1">
       <c r="A30">
         <v>28</v>
       </c>
@@ -21626,7 +22169,7 @@
         <v>239F</v>
       </c>
     </row>
-    <row r="31" spans="1:68" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" ht="27" customHeight="1" thickBot="1">
       <c r="A31">
         <v>29</v>
       </c>
@@ -21898,20 +22441,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="5.25" style="1"/>
+    <col min="1" max="16384" width="5.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:25" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -21985,7 +22528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" ht="15.75" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -22059,7 +22602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" ht="15.75" thickBot="1">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -22133,7 +22676,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" ht="15.75" thickBot="1">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -22207,7 +22750,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="15.75" thickBot="1">
       <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
@@ -22281,7 +22824,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="15.75" thickBot="1">
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -22355,7 +22898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="15.75" thickBot="1">
       <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
@@ -22429,7 +22972,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="15.75" thickBot="1">
       <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
@@ -22503,7 +23046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="15.75" thickBot="1">
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
@@ -22577,7 +23120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="15.75" thickBot="1">
       <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
@@ -22651,7 +23194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="15.75" thickBot="1">
       <c r="B13" s="8" t="s">
         <v>59</v>
       </c>
@@ -22725,7 +23268,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="15.75" thickBot="1">
       <c r="B14" s="11" t="s">
         <v>66</v>
       </c>
@@ -22799,7 +23342,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="15.75" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>73</v>
       </c>
@@ -22873,7 +23416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="15.75" thickBot="1">
       <c r="B16" s="11" t="s">
         <v>89</v>
       </c>
@@ -22947,7 +23490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" ht="15.75" thickBot="1">
       <c r="B17" s="8" t="s">
         <v>105</v>
       </c>
@@ -23021,7 +23564,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" ht="15.75" thickBot="1">
       <c r="B18" s="11" t="s">
         <v>121</v>
       </c>
@@ -23095,7 +23638,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" ht="15.75" thickBot="1">
       <c r="B19" s="8" t="s">
         <v>137</v>
       </c>
@@ -23169,7 +23712,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" ht="15.75" thickBot="1">
       <c r="B20" s="30" t="s">
         <v>153</v>
       </c>
@@ -23243,7 +23786,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:25">
       <c r="B21" s="45" t="s">
         <v>169</v>
       </c>
@@ -23255,27 +23798,48 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="27" spans="15:15">
+      <c r="O27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C113"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="59.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="47" t="s">
         <v>171</v>
       </c>
@@ -23283,12 +23847,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="48" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
       <c r="A5" s="49" t="s">
         <v>174</v>
       </c>
@@ -23299,7 +23863,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="49" t="s">
         <v>177</v>
       </c>
@@ -23310,7 +23874,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
       <c r="A7" s="49" t="s">
         <v>180</v>
       </c>
@@ -23321,25 +23885,25 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="83" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="81" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="51" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10" s="49" t="s">
         <v>187</v>
       </c>
@@ -23350,7 +23914,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="29.25" thickBot="1">
       <c r="A11" s="49" t="s">
         <v>190</v>
       </c>
@@ -23361,7 +23925,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
       <c r="A12" s="49" t="s">
         <v>192</v>
       </c>
@@ -23372,25 +23936,25 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="83" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="81" t="s">
         <v>196</v>
       </c>
       <c r="C13" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="51" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
       <c r="A15" s="47" t="s">
         <v>199</v>
       </c>
@@ -23398,12 +23962,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
       <c r="A16" s="48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="49" t="s">
         <v>174</v>
       </c>
@@ -23414,7 +23978,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
       <c r="A18" s="49" t="s">
         <v>177</v>
       </c>
@@ -23425,7 +23989,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
       <c r="A19" s="49" t="s">
         <v>180</v>
       </c>
@@ -23436,7 +24000,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
       <c r="A20" s="49" t="s">
         <v>183</v>
       </c>
@@ -23447,7 +24011,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
       <c r="A21" s="49" t="s">
         <v>187</v>
       </c>
@@ -23458,7 +24022,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
       <c r="A22" s="49" t="s">
         <v>190</v>
       </c>
@@ -23469,7 +24033,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="29.25" thickBot="1">
       <c r="A23" s="49" t="s">
         <v>192</v>
       </c>
@@ -23480,7 +24044,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
       <c r="A24" s="49" t="s">
         <v>209</v>
       </c>
@@ -23491,7 +24055,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
       <c r="A25" s="49" t="s">
         <v>211</v>
       </c>
@@ -23502,17 +24066,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
       <c r="A26" s="47" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
       <c r="A27" s="48" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
       <c r="A28" s="49" t="s">
         <v>174</v>
       </c>
@@ -23523,25 +24087,25 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="83" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="81" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84"/>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="51" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="29.25" thickBot="1">
       <c r="A31" s="49" t="s">
         <v>180</v>
       </c>
@@ -23552,7 +24116,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="29.25" thickBot="1">
       <c r="A32" s="49" t="s">
         <v>183</v>
       </c>
@@ -23563,25 +24127,25 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="83" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="81" t="s">
         <v>223</v>
       </c>
       <c r="C33" s="50" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="84"/>
-      <c r="B34" s="84"/>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="51" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1">
       <c r="A35" s="49" t="s">
         <v>226</v>
       </c>
@@ -23590,17 +24154,17 @@
       </c>
       <c r="C35" s="49"/>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36" s="47" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
       <c r="A37" s="48" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="49" t="s">
         <v>174</v>
       </c>
@@ -23611,7 +24175,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1">
       <c r="A39" s="49" t="s">
         <v>230</v>
       </c>
@@ -23622,17 +24186,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1">
       <c r="A40" s="47" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1">
       <c r="A41" s="48" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1">
       <c r="A42" s="49" t="s">
         <v>174</v>
       </c>
@@ -23643,7 +24207,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1">
       <c r="A43" s="49" t="s">
         <v>230</v>
       </c>
@@ -23654,17 +24218,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1">
       <c r="A44" s="47" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="39" thickBot="1">
       <c r="A45" s="48" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1">
       <c r="A46" s="49" t="s">
         <v>174</v>
       </c>
@@ -23675,35 +24239,35 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="83" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="81" t="s">
         <v>230</v>
       </c>
       <c r="B47" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="81" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="84"/>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A48" s="82"/>
       <c r="B48" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="84"/>
+      <c r="C48" s="82"/>
     </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" s="47" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="39" thickBot="1">
       <c r="A50" s="48" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" s="49" t="s">
         <v>174</v>
       </c>
@@ -23714,35 +24278,35 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="83" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="81" t="s">
         <v>230</v>
       </c>
       <c r="B52" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="81" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="84"/>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A53" s="82"/>
       <c r="B53" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="84"/>
+      <c r="C53" s="82"/>
     </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" s="47" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="26.25" thickBot="1">
       <c r="A55" s="48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1">
       <c r="A56" s="49" t="s">
         <v>174</v>
       </c>
@@ -23753,39 +24317,39 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="83" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="81" t="s">
         <v>230</v>
       </c>
       <c r="B57" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="81" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="84"/>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A58" s="82"/>
       <c r="B58" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C58" s="84"/>
+      <c r="C58" s="82"/>
     </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1">
       <c r="A62" s="69" t="s">
         <v>254</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="39.75" thickBot="1">
       <c r="A63" s="70" t="s">
         <v>255</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1">
       <c r="A64" s="71" t="s">
         <v>174</v>
       </c>
@@ -23796,7 +24360,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1">
       <c r="A65" s="71" t="s">
         <v>230</v>
       </c>
@@ -23807,21 +24371,21 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1">
       <c r="A70" s="69" t="s">
         <v>258</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="39.75" thickBot="1">
       <c r="A71" s="70" t="s">
         <v>259</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15.75" thickBot="1">
       <c r="A72" s="72" t="s">
         <v>174</v>
       </c>
@@ -23832,7 +24396,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.75" thickBot="1">
       <c r="A73" s="72" t="s">
         <v>260</v>
       </c>
@@ -23841,8 +24405,8 @@
       </c>
       <c r="C73" s="72"/>
     </row>
-    <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="81" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="83" t="s">
         <v>187</v>
       </c>
       <c r="B74" s="73" t="s">
@@ -23852,8 +24416,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="82"/>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A75" s="84"/>
       <c r="B75" s="74" t="s">
         <v>262</v>
       </c>
@@ -23861,44 +24425,44 @@
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="81" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="83" t="s">
         <v>190</v>
       </c>
       <c r="B76" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="83" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="82"/>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A77" s="84"/>
       <c r="B77" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="C77" s="82"/>
+      <c r="C77" s="84"/>
     </row>
-    <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="81" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="83" t="s">
         <v>267</v>
       </c>
       <c r="B78" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="81" t="s">
+      <c r="C78" s="83" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="82"/>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A79" s="84"/>
       <c r="B79" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="C79" s="82"/>
+      <c r="C79" s="84"/>
     </row>
-    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="81" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="83" t="s">
         <v>211</v>
       </c>
       <c r="B80" s="73" t="s">
@@ -23908,8 +24472,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="82"/>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A81" s="84"/>
       <c r="B81" s="74" t="s">
         <v>271</v>
       </c>
@@ -23917,21 +24481,21 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15.75" thickBot="1">
       <c r="A82" s="69" t="s">
         <v>274</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15.75" thickBot="1">
       <c r="A83" s="70" t="s">
         <v>275</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15.75" thickBot="1">
       <c r="A84" s="72" t="s">
         <v>174</v>
       </c>
@@ -23942,7 +24506,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1">
       <c r="A85" s="72" t="s">
         <v>260</v>
       </c>
@@ -23951,25 +24515,25 @@
       </c>
       <c r="C85" s="72"/>
     </row>
-    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="81" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="B86" s="81" t="s">
+      <c r="B86" s="83" t="s">
         <v>276</v>
       </c>
       <c r="C86" s="73" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="82"/>
-      <c r="B87" s="82"/>
+    <row r="87" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A87" s="84"/>
+      <c r="B87" s="84"/>
       <c r="C87" s="74" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="15.75" thickBot="1">
       <c r="A88" s="72" t="s">
         <v>190</v>
       </c>
@@ -23980,7 +24544,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="15.75" thickBot="1">
       <c r="A89" s="72" t="s">
         <v>267</v>
       </c>
@@ -23991,7 +24555,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="15.75" thickBot="1">
       <c r="A90" s="72" t="s">
         <v>211</v>
       </c>
@@ -24002,55 +24566,55 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1">
       <c r="A94" s="69" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="70" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="76" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="76" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="38.25">
       <c r="A98" s="76" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="38.25">
       <c r="A99" s="76" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16.5" thickBot="1">
       <c r="A102" s="75" t="s">
         <v>280</v>
       </c>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A103" s="69" t="s">
         <v>281</v>
       </c>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="52.5" thickBot="1">
       <c r="A104" s="70" t="s">
         <v>282</v>
       </c>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15.75" thickBot="1">
       <c r="A105" s="72" t="s">
         <v>283</v>
       </c>
@@ -24058,7 +24622,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="15.75" thickBot="1">
       <c r="A106" s="72">
         <v>1</v>
       </c>
@@ -24066,7 +24630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15.75" thickBot="1">
       <c r="A107" s="72">
         <v>2</v>
       </c>
@@ -24074,7 +24638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15.75" thickBot="1">
       <c r="A108" s="72">
         <v>3</v>
       </c>
@@ -24082,7 +24646,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15.75" thickBot="1">
       <c r="A109" s="72">
         <v>4</v>
       </c>
@@ -24090,7 +24654,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="15.75" thickBot="1">
       <c r="A110" s="72">
         <v>5</v>
       </c>
@@ -24098,7 +24662,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15.75" thickBot="1">
       <c r="A111" s="72">
         <v>6</v>
       </c>
@@ -24106,7 +24670,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15.75" thickBot="1">
       <c r="A112" s="72">
         <v>7</v>
       </c>
@@ -24114,7 +24678,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="15.75" thickBot="1">
       <c r="A113" s="72">
         <v>8</v>
       </c>
@@ -24124,28 +24688,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/super-duper-display-image.xlsx
+++ b/doc/super-duper-display-image.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\970.moto-proj\super-duper-nes\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daisuke\nes\super-duper-nes\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top page" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="shell screen" sheetId="8" r:id="rId4"/>
     <sheet name="disp map" sheetId="9" r:id="rId5"/>
     <sheet name="shell" sheetId="10" r:id="rId6"/>
-    <sheet name="ascii" sheetId="4" r:id="rId7"/>
-    <sheet name="chrrom" sheetId="11" r:id="rId8"/>
-    <sheet name="io port" sheetId="5" r:id="rId9"/>
+    <sheet name="shell key map" sheetId="12" r:id="rId7"/>
+    <sheet name="ascii" sheetId="4" r:id="rId8"/>
+    <sheet name="chrrom" sheetId="11" r:id="rId9"/>
+    <sheet name="io port" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -933,19 +934,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1016,7 +1017,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1645,22 +1646,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1695,7 +1696,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1754,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1888,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1951,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2091,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2150,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2243,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2341,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2411,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2491,7 @@
         <xdr:cNvPr id="8" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2551,7 @@
         <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,7 +2628,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2687,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2776,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2848,7 +2849,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2919,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +2984,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,7 +3045,7 @@
         <xdr:cNvPr id="10" name="Rounded Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3124,7 @@
         <xdr:cNvPr id="11" name="Rounded Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3191,7 +3192,7 @@
         <xdr:cNvPr id="13" name="Rounded Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3268,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,7 +3327,7 @@
         <xdr:cNvPr id="7" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3386,7 +3387,7 @@
         <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +3459,7 @@
         <xdr:cNvPr id="10" name="Rounded Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3550,7 +3551,7 @@
         <xdr:cNvPr id="11" name="Rounded Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3623,7 +3624,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3776,7 +3777,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3960,7 +3961,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4145,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4266,7 +4267,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D2AF78-8443-4B76-8335-B99CC8FB1242}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D2AF78-8443-4B76-8335-B99CC8FB1242}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4419,7 +4420,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86EA46A8-D46B-483F-91EB-012B372AE11B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EA46A8-D46B-483F-91EB-012B372AE11B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4646,7 +4647,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B769B88A-DE40-483C-98A8-F96253B2CCEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B769B88A-DE40-483C-98A8-F96253B2CCEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4763,7 +4764,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{094F8DA8-D9D4-4E4D-9218-B8A075169A1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094F8DA8-D9D4-4E4D-9218-B8A075169A1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4827,6 +4828,413 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB638918-A8F3-49FB-B81F-DF16063B91D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1543050" y="1543050"/>
+          <a:ext cx="3914775" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123541</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171734</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D2FF6F-9C63-4590-8387-27523F885AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981166" y="3052011"/>
+          <a:ext cx="819718" cy="430129"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1785"/>
+            <a:gd name="adj2" fmla="val -90909"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>kb input</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18766</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66959</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24671E0B-8B55-4766-934E-7D6B279E394B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3104866" y="1680411"/>
+          <a:ext cx="819718" cy="430129"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22617"/>
+            <a:gd name="adj2" fmla="val 112821"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>space</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133065</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C712CB-F235-409F-85DF-33E481C16EF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4247865" y="1000125"/>
+          <a:ext cx="1381409" cy="710365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12548"/>
+            <a:gd name="adj2" fmla="val 111480"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>enter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>cmd + enter is send ctl </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> msg</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209266</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>284</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>148390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE41E64-E006-4F74-B5EA-A26E271355FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2523841" y="3147261"/>
+          <a:ext cx="819718" cy="430129"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28427"/>
+            <a:gd name="adj2" fmla="val -95338"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>cmd btn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5468D7-289C-4D73-A52B-7A5D15AAD2A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="1428199"/>
+          <a:ext cx="1200150" cy="629752"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37723"/>
+            <a:gd name="adj2" fmla="val 81818"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>cmd btn + key is cursor move</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -4840,7 +5248,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4878,7 +5292,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4915,7 +5335,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4975,7 +5401,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5033,7 +5465,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5152,7 +5590,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5214,7 +5658,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5251,7 +5701,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangular Callout 9"/>
+        <xdr:cNvPr id="10" name="Rectangular Callout 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5314,7 +5770,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5624,16 +6086,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="27" spans="16:16">
+    <row r="27" spans="16:16" x14ac:dyDescent="0.15">
       <c r="P27" t="s">
         <v>248</v>
       </c>
@@ -5645,22 +6107,921 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A2:C113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="59.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="49"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="84"/>
+      <c r="B48" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="84"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="84"/>
+      <c r="B53" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="84"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="84"/>
+      <c r="B58" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="84"/>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" s="72"/>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" s="73" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="82"/>
+      <c r="B75" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" s="74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="81" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="82"/>
+      <c r="B77" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="82"/>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="B78" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="82"/>
+      <c r="B79" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="82"/>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="73" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="82"/>
+      <c r="B81" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="74" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="72"/>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" s="73" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="82"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" s="72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="70" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="76" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="76" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="76" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="76" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="B105" s="72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="72">
+        <v>1</v>
+      </c>
+      <c r="B106" s="72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="72">
+        <v>2</v>
+      </c>
+      <c r="B107" s="72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="72">
+        <v>3</v>
+      </c>
+      <c r="B108" s="72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="72">
+        <v>4</v>
+      </c>
+      <c r="B109" s="72" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="72">
+        <v>5</v>
+      </c>
+      <c r="B110" s="72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="72">
+        <v>6</v>
+      </c>
+      <c r="B111" s="72" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="72">
+        <v>7</v>
+      </c>
+      <c r="B112" s="72" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="72">
+        <v>8</v>
+      </c>
+      <c r="B113" s="72" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C14:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="14" spans="3:18">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="3:18">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54" t="s">
@@ -5704,7 +7065,7 @@
       </c>
       <c r="R16" s="53"/>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54" t="s">
@@ -5748,7 +7109,7 @@
       </c>
       <c r="R17" s="53"/>
     </row>
-    <row r="18" spans="3:18">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
@@ -5790,7 +7151,7 @@
       </c>
       <c r="R18" s="78"/>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C19" s="77" t="s">
         <v>250</v>
       </c>
@@ -5830,7 +7191,7 @@
       <c r="Q19" s="54"/>
       <c r="R19" s="53"/>
     </row>
-    <row r="20" spans="3:18">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -5863,18 +7224,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C14:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="14" spans="5:17" s="56" customFormat="1"/>
-    <row r="15" spans="5:17" s="56" customFormat="1"/>
-    <row r="16" spans="5:17" s="56" customFormat="1">
+    <row r="14" spans="5:17" s="56" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="5:17" s="56" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="5:17" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
@@ -5889,7 +7250,7 @@
       <c r="P16" s="58"/>
       <c r="Q16" s="58"/>
     </row>
-    <row r="17" spans="3:17" s="56" customFormat="1">
+    <row r="17" spans="3:17" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
@@ -5904,7 +7265,7 @@
       <c r="P17" s="57"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="3:17" s="56" customFormat="1">
+    <row r="18" spans="3:17" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E18" s="57"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
@@ -5919,7 +7280,7 @@
       <c r="P18" s="58"/>
       <c r="Q18" s="57"/>
     </row>
-    <row r="19" spans="3:17" s="56" customFormat="1">
+    <row r="19" spans="3:17" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
       <c r="E19" s="57"/>
@@ -5936,7 +7297,7 @@
       <c r="P19" s="57"/>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="3:17" s="56" customFormat="1">
+    <row r="20" spans="3:17" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I20" s="80"/>
       <c r="J20" s="80"/>
       <c r="K20" s="80"/>
@@ -5953,16 +7314,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C16:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="16" spans="3:18">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54" t="s">
@@ -6006,7 +7367,7 @@
       </c>
       <c r="R16" s="53"/>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54" t="s">
@@ -6050,7 +7411,7 @@
       </c>
       <c r="R17" s="53"/>
     </row>
-    <row r="18" spans="3:18">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
@@ -6092,7 +7453,7 @@
       </c>
       <c r="R18" s="78"/>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C19" s="77" t="s">
         <v>250</v>
       </c>
@@ -6132,7 +7493,7 @@
       <c r="Q19" s="54"/>
       <c r="R19" s="53"/>
     </row>
-    <row r="20" spans="3:18">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -6165,7 +7526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView topLeftCell="AJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6176,13 +7537,13 @@
       <selection pane="bottomRight" activeCell="BS11" sqref="BS11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="68" width="4.85546875" style="59"/>
+    <col min="36" max="68" width="4.875" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1">
+    <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -6376,7 +7737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="27" customHeight="1">
+    <row r="2" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6639,7 +8000,7 @@
         <v>201F</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="27" customHeight="1">
+    <row r="3" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6903,7 +8264,7 @@
         <v>203F</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="27" customHeight="1">
+    <row r="4" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7167,7 +8528,7 @@
         <v>205F</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="27" customHeight="1">
+    <row r="5" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7431,7 +8792,7 @@
         <v>207F</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="27" customHeight="1">
+    <row r="6" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7695,7 +9056,7 @@
         <v>209F</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="27" customHeight="1">
+    <row r="7" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7959,7 +9320,7 @@
         <v>20BF</v>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="27" customHeight="1">
+    <row r="8" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8223,7 +9584,7 @@
         <v>20DF</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="27" customHeight="1">
+    <row r="9" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8487,7 +9848,7 @@
         <v>20FF</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="27" customHeight="1">
+    <row r="10" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8751,7 +10112,7 @@
         <v>211F</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="27" customHeight="1">
+    <row r="11" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9015,7 +10376,7 @@
         <v>213F</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="27" customHeight="1">
+    <row r="12" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9279,7 +10640,7 @@
         <v>215F</v>
       </c>
     </row>
-    <row r="13" spans="1:68" ht="27" customHeight="1">
+    <row r="13" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9543,7 +10904,7 @@
         <v>217F</v>
       </c>
     </row>
-    <row r="14" spans="1:68" ht="27" customHeight="1">
+    <row r="14" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9807,7 +11168,7 @@
         <v>219F</v>
       </c>
     </row>
-    <row r="15" spans="1:68" ht="27" customHeight="1">
+    <row r="15" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10071,7 +11432,7 @@
         <v>21BF</v>
       </c>
     </row>
-    <row r="16" spans="1:68" ht="27" customHeight="1">
+    <row r="16" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10335,7 +11696,7 @@
         <v>21DF</v>
       </c>
     </row>
-    <row r="17" spans="1:68" ht="27" customHeight="1">
+    <row r="17" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10599,7 +11960,7 @@
         <v>21FF</v>
       </c>
     </row>
-    <row r="18" spans="1:68" ht="27" customHeight="1">
+    <row r="18" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10863,7 +12224,7 @@
         <v>221F</v>
       </c>
     </row>
-    <row r="19" spans="1:68" ht="27" customHeight="1">
+    <row r="19" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11127,7 +12488,7 @@
         <v>223F</v>
       </c>
     </row>
-    <row r="20" spans="1:68" ht="27" customHeight="1">
+    <row r="20" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11391,7 +12752,7 @@
         <v>225F</v>
       </c>
     </row>
-    <row r="21" spans="1:68" ht="27" customHeight="1">
+    <row r="21" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11655,7 +13016,7 @@
         <v>227F</v>
       </c>
     </row>
-    <row r="22" spans="1:68" ht="27" customHeight="1">
+    <row r="22" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11919,7 +13280,7 @@
         <v>229F</v>
       </c>
     </row>
-    <row r="23" spans="1:68" ht="27" customHeight="1">
+    <row r="23" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12183,7 +13544,7 @@
         <v>22BF</v>
       </c>
     </row>
-    <row r="24" spans="1:68" ht="27" customHeight="1">
+    <row r="24" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12447,7 +13808,7 @@
         <v>22DF</v>
       </c>
     </row>
-    <row r="25" spans="1:68" ht="27" customHeight="1">
+    <row r="25" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12711,7 +14072,7 @@
         <v>22FF</v>
       </c>
     </row>
-    <row r="26" spans="1:68" ht="27" customHeight="1">
+    <row r="26" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -12975,7 +14336,7 @@
         <v>231F</v>
       </c>
     </row>
-    <row r="27" spans="1:68" ht="27" customHeight="1">
+    <row r="27" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -13239,7 +14600,7 @@
         <v>233F</v>
       </c>
     </row>
-    <row r="28" spans="1:68" ht="27" customHeight="1">
+    <row r="28" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -13503,7 +14864,7 @@
         <v>235F</v>
       </c>
     </row>
-    <row r="29" spans="1:68" ht="27" customHeight="1">
+    <row r="29" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -13767,7 +15128,7 @@
         <v>237F</v>
       </c>
     </row>
-    <row r="30" spans="1:68" ht="27" customHeight="1">
+    <row r="30" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -14031,7 +15392,7 @@
         <v>239F</v>
       </c>
     </row>
-    <row r="31" spans="1:68" ht="27" customHeight="1" thickBot="1">
+    <row r="31" spans="1:68" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -14303,24 +15664,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView topLeftCell="AJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK17" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="AJ1" sqref="AJ1"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="AJ2" sqref="AJ2"/>
       <selection pane="bottomRight" activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="68" width="4.85546875" style="59"/>
+    <col min="36" max="68" width="4.875" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1">
+    <row r="1" spans="1:68" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -14514,7 +15875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="27" customHeight="1">
+    <row r="2" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14777,7 +16138,7 @@
         <v>201F</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="27" customHeight="1">
+    <row r="3" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15041,7 +16402,7 @@
         <v>203F</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="27" customHeight="1">
+    <row r="4" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15305,7 +16666,7 @@
         <v>205F</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="27" customHeight="1">
+    <row r="5" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15569,7 +16930,7 @@
         <v>207F</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="27" customHeight="1">
+    <row r="6" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15833,7 +17194,7 @@
         <v>209F</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="27" customHeight="1">
+    <row r="7" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16097,7 +17458,7 @@
         <v>20BF</v>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="27" customHeight="1">
+    <row r="8" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16361,7 +17722,7 @@
         <v>20DF</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="27" customHeight="1">
+    <row r="9" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16625,7 +17986,7 @@
         <v>20FF</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="27" customHeight="1">
+    <row r="10" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16889,7 +18250,7 @@
         <v>211F</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="27" customHeight="1">
+    <row r="11" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -17153,7 +18514,7 @@
         <v>213F</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="27" customHeight="1">
+    <row r="12" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -17417,7 +18778,7 @@
         <v>215F</v>
       </c>
     </row>
-    <row r="13" spans="1:68" ht="27" customHeight="1">
+    <row r="13" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -17681,7 +19042,7 @@
         <v>217F</v>
       </c>
     </row>
-    <row r="14" spans="1:68" ht="27" customHeight="1">
+    <row r="14" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -17945,7 +19306,7 @@
         <v>219F</v>
       </c>
     </row>
-    <row r="15" spans="1:68" ht="27" customHeight="1">
+    <row r="15" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -18209,7 +19570,7 @@
         <v>21BF</v>
       </c>
     </row>
-    <row r="16" spans="1:68" ht="27" customHeight="1">
+    <row r="16" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -18473,7 +19834,7 @@
         <v>21DF</v>
       </c>
     </row>
-    <row r="17" spans="1:68" ht="27" customHeight="1">
+    <row r="17" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -18737,7 +20098,7 @@
         <v>21FF</v>
       </c>
     </row>
-    <row r="18" spans="1:68" ht="27" customHeight="1">
+    <row r="18" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -19001,7 +20362,7 @@
         <v>221F</v>
       </c>
     </row>
-    <row r="19" spans="1:68" ht="27" customHeight="1">
+    <row r="19" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -19265,7 +20626,7 @@
         <v>223F</v>
       </c>
     </row>
-    <row r="20" spans="1:68" ht="27" customHeight="1">
+    <row r="20" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -19529,7 +20890,7 @@
         <v>225F</v>
       </c>
     </row>
-    <row r="21" spans="1:68" ht="27" customHeight="1">
+    <row r="21" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -19793,7 +21154,7 @@
         <v>227F</v>
       </c>
     </row>
-    <row r="22" spans="1:68" ht="27" customHeight="1">
+    <row r="22" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -20057,7 +21418,7 @@
         <v>229F</v>
       </c>
     </row>
-    <row r="23" spans="1:68" ht="27" customHeight="1">
+    <row r="23" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -20321,7 +21682,7 @@
         <v>22BF</v>
       </c>
     </row>
-    <row r="24" spans="1:68" ht="27" customHeight="1">
+    <row r="24" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -20585,7 +21946,7 @@
         <v>22DF</v>
       </c>
     </row>
-    <row r="25" spans="1:68" ht="27" customHeight="1">
+    <row r="25" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -20849,7 +22210,7 @@
         <v>22FF</v>
       </c>
     </row>
-    <row r="26" spans="1:68" ht="27" customHeight="1">
+    <row r="26" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -21113,7 +22474,7 @@
         <v>231F</v>
       </c>
     </row>
-    <row r="27" spans="1:68" ht="27" customHeight="1">
+    <row r="27" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -21377,7 +22738,7 @@
         <v>233F</v>
       </c>
     </row>
-    <row r="28" spans="1:68" ht="27" customHeight="1">
+    <row r="28" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -21641,7 +23002,7 @@
         <v>235F</v>
       </c>
     </row>
-    <row r="29" spans="1:68" ht="27" customHeight="1">
+    <row r="29" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -21905,7 +23266,7 @@
         <v>237F</v>
       </c>
     </row>
-    <row r="30" spans="1:68" ht="27" customHeight="1">
+    <row r="30" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -22169,7 +23530,7 @@
         <v>239F</v>
       </c>
     </row>
-    <row r="31" spans="1:68" ht="27" customHeight="1" thickBot="1">
+    <row r="31" spans="1:68" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -22441,20 +23802,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BD9675-468D-4AA7-BBEE-DD4142CB098E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="5.28515625" style="1"/>
+    <col min="1" max="16384" width="5.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:25">
+    <row r="2" spans="2:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -22528,7 +23905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="15.75" thickBot="1">
+    <row r="4" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -22602,7 +23979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="15.75" thickBot="1">
+    <row r="5" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -22676,7 +24053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="15.75" thickBot="1">
+    <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -22750,7 +24127,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="15.75" thickBot="1">
+    <row r="7" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
@@ -22824,7 +24201,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15.75" thickBot="1">
+    <row r="8" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -22898,7 +24275,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15.75" thickBot="1">
+    <row r="9" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
@@ -22972,7 +24349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="15.75" thickBot="1">
+    <row r="10" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
@@ -23046,7 +24423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="15.75" thickBot="1">
+    <row r="11" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
@@ -23120,7 +24497,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="15.75" thickBot="1">
+    <row r="12" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
@@ -23194,7 +24571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="15.75" thickBot="1">
+    <row r="13" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>59</v>
       </c>
@@ -23268,7 +24645,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="15.75" thickBot="1">
+    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>66</v>
       </c>
@@ -23342,7 +24719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="15.75" thickBot="1">
+    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>73</v>
       </c>
@@ -23416,7 +24793,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="15.75" thickBot="1">
+    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>89</v>
       </c>
@@ -23490,7 +24867,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="15.75" thickBot="1">
+    <row r="17" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>105</v>
       </c>
@@ -23564,7 +24941,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="15.75" thickBot="1">
+    <row r="18" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>121</v>
       </c>
@@ -23638,7 +25015,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:25" ht="15.75" thickBot="1">
+    <row r="19" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>137</v>
       </c>
@@ -23712,7 +25089,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:25" ht="15.75" thickBot="1">
+    <row r="20" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
         <v>153</v>
       </c>
@@ -23786,7 +25163,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="2:25">
+    <row r="21" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B21" s="45" t="s">
         <v>169</v>
       </c>
@@ -23797,922 +25174,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="27" spans="15:15">
+    <row r="27" spans="15:15" x14ac:dyDescent="0.15">
       <c r="O27" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C113"/>
-  <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="59.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="46" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A4" s="48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A5" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A6" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A7" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A10" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A11" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A12" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A16" s="48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A17" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A18" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A19" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A20" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A21" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A22" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A23" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A24" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A25" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A26" s="47" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A27" s="48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A28" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A31" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A32" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="51" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A35" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" s="49"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A36" s="47" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A37" s="48" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A38" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A39" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A40" s="47" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A41" s="48" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A42" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A43" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A44" s="47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="39" thickBot="1">
-      <c r="A45" s="48" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A46" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="C47" s="81" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A48" s="82"/>
-      <c r="B48" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="C48" s="82"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A49" s="47" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="39" thickBot="1">
-      <c r="A50" s="48" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A51" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="81" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A53" s="82"/>
-      <c r="B53" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="C53" s="82"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A54" s="47" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A55" s="48" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A56" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C57" s="81" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A58" s="82"/>
-      <c r="B58" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="C58" s="82"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A62" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="1:3" ht="39.75" thickBot="1">
-      <c r="A63" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="B63"/>
-      <c r="C63"/>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A64" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="B64" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="71" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A65" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="B65" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" s="71" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A70" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="B70"/>
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="1:3" ht="39.75" thickBot="1">
-      <c r="A71" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="B71"/>
-      <c r="C71"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A72" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="B72" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C72" s="72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A73" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="B73" s="72" t="s">
-        <v>227</v>
-      </c>
-      <c r="C73" s="72"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="C74" s="73" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A75" s="84"/>
-      <c r="B75" s="74" t="s">
-        <v>262</v>
-      </c>
-      <c r="C75" s="74" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76" s="83" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A77" s="84"/>
-      <c r="B77" s="74" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="84"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="B78" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C78" s="83" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A79" s="84"/>
-      <c r="B79" s="74" t="s">
-        <v>269</v>
-      </c>
-      <c r="C79" s="84"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="B80" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="C80" s="73" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A81" s="84"/>
-      <c r="B81" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="C81" s="74" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A82" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="B82"/>
-      <c r="C82"/>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A83" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="B83"/>
-      <c r="C83"/>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A84" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="B84" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" s="72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A85" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="B85" s="72" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" s="72"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="B86" s="83" t="s">
-        <v>276</v>
-      </c>
-      <c r="C86" s="73" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A87" s="84"/>
-      <c r="B87" s="84"/>
-      <c r="C87" s="74" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A88" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="B88" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="C88" s="72" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A89" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="B89" s="72" t="s">
-        <v>278</v>
-      </c>
-      <c r="C89" s="72" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A90" s="72" t="s">
-        <v>211</v>
-      </c>
-      <c r="B90" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="C90" s="72" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A94" s="69" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="70" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="76" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="76" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="38.25">
-      <c r="A98" s="76" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="38.25">
-      <c r="A99" s="76" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A102" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="B102"/>
-    </row>
-    <row r="103" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="B103"/>
-    </row>
-    <row r="104" spans="1:2" ht="52.5" thickBot="1">
-      <c r="A104" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="B104"/>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A105" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="B105" s="72" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A106" s="72">
-        <v>1</v>
-      </c>
-      <c r="B106" s="72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A107" s="72">
-        <v>2</v>
-      </c>
-      <c r="B107" s="72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A108" s="72">
-        <v>3</v>
-      </c>
-      <c r="B108" s="72" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A109" s="72">
-        <v>4</v>
-      </c>
-      <c r="B109" s="72" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A110" s="72">
-        <v>5</v>
-      </c>
-      <c r="B110" s="72" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A111" s="72">
-        <v>6</v>
-      </c>
-      <c r="B111" s="72" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A112" s="72">
-        <v>7</v>
-      </c>
-      <c r="B112" s="72" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A113" s="72">
-        <v>8</v>
-      </c>
-      <c r="B113" s="72" t="s">
-        <v>290</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-  </mergeCells>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>